--- a/LakeHodges/Rating Curve and Pacings Development/Stream Gaging Worksheet_MArch 2020 measurements.xlsx
+++ b/LakeHodges/Rating Curve and Pacings Development/Stream Gaging Worksheet_MArch 2020 measurements.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.messina\Documents\GitHub\Sutron_scripts\LakeHodges\Rating Curves\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.messina\Documents\GitHub\Sutron_scripts\LakeHodges\Rating Curve and Pacings Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5560,6 +5560,16 @@
     <xf numFmtId="20" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5570,16 +5580,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5914,14 +5914,14 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="117"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="108"/>
       <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
@@ -6289,7 +6289,7 @@
         <f t="shared" si="1"/>
         <v>0.16704545453476366</v>
       </c>
-      <c r="H13" s="112">
+      <c r="H13" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I13" s="52">
@@ -6326,7 +6326,7 @@
         <f t="shared" si="1"/>
         <v>0.23863636362109095</v>
       </c>
-      <c r="H14" s="113"/>
+      <c r="H14" s="110"/>
       <c r="I14" s="52">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -6359,7 +6359,7 @@
         <f t="shared" si="1"/>
         <v>0.34363636361437094</v>
       </c>
-      <c r="H15" s="113"/>
+      <c r="H15" s="110"/>
       <c r="I15" s="52">
         <v>5.8999999999999997E-2</v>
       </c>
@@ -6391,7 +6391,7 @@
         <f t="shared" si="1"/>
         <v>0.47727272724218189</v>
       </c>
-      <c r="H16" s="113"/>
+      <c r="H16" s="110"/>
       <c r="I16" s="52">
         <v>5.6000000000000001E-2</v>
       </c>
@@ -6426,7 +6426,7 @@
         <f t="shared" si="1"/>
         <v>0.50113636360429092</v>
       </c>
-      <c r="H17" s="113"/>
+      <c r="H17" s="110"/>
       <c r="I17" s="52">
         <v>0.05</v>
       </c>
@@ -6436,10 +6436,10 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="106" t="s">
+      <c r="A18" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="109"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="46">
         <v>7</v>
       </c>
@@ -6458,7 +6458,7 @@
         <f t="shared" si="1"/>
         <v>0.52499999996640001</v>
       </c>
-      <c r="H18" s="113"/>
+      <c r="H18" s="110"/>
       <c r="I18" s="52">
         <v>6.8000000000000005E-2</v>
       </c>
@@ -6469,8 +6469,8 @@
       <c r="K18" s="58"/>
     </row>
     <row r="19" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="107"/>
-      <c r="B19" s="110"/>
+      <c r="A19" s="113"/>
+      <c r="B19" s="116"/>
       <c r="C19" s="46">
         <v>8</v>
       </c>
@@ -6489,7 +6489,7 @@
         <f t="shared" si="1"/>
         <v>0.51545454542155644</v>
       </c>
-      <c r="H19" s="113"/>
+      <c r="H19" s="110"/>
       <c r="I19" s="48">
         <v>1.9E-2</v>
       </c>
@@ -6499,8 +6499,8 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="107"/>
-      <c r="B20" s="110"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="116"/>
       <c r="C20" s="46">
         <v>9</v>
       </c>
@@ -6519,7 +6519,7 @@
         <f t="shared" si="1"/>
         <v>0.47727272724218189</v>
       </c>
-      <c r="H20" s="113"/>
+      <c r="H20" s="110"/>
       <c r="I20" s="48">
         <v>1E-3</v>
       </c>
@@ -6529,8 +6529,8 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="107"/>
-      <c r="B21" s="110"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="116"/>
       <c r="C21" s="46">
         <v>10</v>
       </c>
@@ -6549,7 +6549,7 @@
         <f t="shared" si="1"/>
         <v>0.28636363634530915</v>
       </c>
-      <c r="H21" s="114"/>
+      <c r="H21" s="111"/>
       <c r="I21" s="48">
         <v>0</v>
       </c>
@@ -6559,8 +6559,8 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="107"/>
-      <c r="B22" s="110"/>
+      <c r="A22" s="113"/>
+      <c r="B22" s="116"/>
       <c r="C22" s="67">
         <v>11</v>
       </c>
@@ -6589,8 +6589,8 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="108"/>
-      <c r="B23" s="111"/>
+      <c r="A23" s="114"/>
+      <c r="B23" s="117"/>
       <c r="C23" s="70"/>
       <c r="D23" s="70"/>
       <c r="E23" s="71"/>
@@ -6751,7 +6751,7 @@
         <f t="shared" si="4"/>
         <v>0.1670454545347636</v>
       </c>
-      <c r="H28" s="112">
+      <c r="H28" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I28" s="52">
@@ -6788,7 +6788,7 @@
         <f t="shared" si="4"/>
         <v>0.26249999998320006</v>
       </c>
-      <c r="H29" s="113"/>
+      <c r="H29" s="110"/>
       <c r="I29" s="52">
         <v>0.03</v>
       </c>
@@ -6821,7 +6821,7 @@
         <f t="shared" si="4"/>
         <v>0.34363636361437094</v>
       </c>
-      <c r="H30" s="113"/>
+      <c r="H30" s="110"/>
       <c r="I30" s="52">
         <v>5.7000000000000002E-2</v>
       </c>
@@ -6854,7 +6854,7 @@
         <f t="shared" si="4"/>
         <v>0.4534090908800727</v>
       </c>
-      <c r="H31" s="113"/>
+      <c r="H31" s="110"/>
       <c r="I31" s="52">
         <v>6.5000000000000002E-2</v>
       </c>
@@ -6889,7 +6889,7 @@
         <f t="shared" si="4"/>
         <v>0.50113636360429092</v>
       </c>
-      <c r="H32" s="113"/>
+      <c r="H32" s="110"/>
       <c r="I32" s="52">
         <v>0.04</v>
       </c>
@@ -6899,10 +6899,10 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="106" t="s">
+      <c r="A33" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="109"/>
+      <c r="B33" s="115"/>
       <c r="C33" s="46">
         <v>7</v>
       </c>
@@ -6922,7 +6922,7 @@
         <f t="shared" si="4"/>
         <v>0.47727272724218189</v>
       </c>
-      <c r="H33" s="113"/>
+      <c r="H33" s="110"/>
       <c r="I33" s="52">
         <v>3.5000000000000003E-2</v>
       </c>
@@ -6932,8 +6932,8 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="107"/>
-      <c r="B34" s="110"/>
+      <c r="A34" s="113"/>
+      <c r="B34" s="116"/>
       <c r="C34" s="46">
         <v>8</v>
       </c>
@@ -6953,7 +6953,7 @@
         <f t="shared" si="4"/>
         <v>0.47727272724218189</v>
       </c>
-      <c r="H34" s="113"/>
+      <c r="H34" s="110"/>
       <c r="I34" s="48">
         <v>4.3999999999999997E-2</v>
       </c>
@@ -6963,8 +6963,8 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="107"/>
-      <c r="B35" s="110"/>
+      <c r="A35" s="113"/>
+      <c r="B35" s="116"/>
       <c r="C35" s="46">
         <v>9</v>
       </c>
@@ -6984,7 +6984,7 @@
         <f t="shared" si="4"/>
         <v>0.42954545451796367</v>
       </c>
-      <c r="H35" s="113"/>
+      <c r="H35" s="110"/>
       <c r="I35" s="48">
         <v>0</v>
       </c>
@@ -6994,8 +6994,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="107"/>
-      <c r="B36" s="110"/>
+      <c r="A36" s="113"/>
+      <c r="B36" s="116"/>
       <c r="C36" s="46">
         <v>10</v>
       </c>
@@ -7015,7 +7015,7 @@
         <f t="shared" si="4"/>
         <v>0.31022727270741823</v>
       </c>
-      <c r="H36" s="114"/>
+      <c r="H36" s="111"/>
       <c r="I36" s="48">
         <v>0</v>
       </c>
@@ -7025,8 +7025,8 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="107"/>
-      <c r="B37" s="110"/>
+      <c r="A37" s="113"/>
+      <c r="B37" s="116"/>
       <c r="C37" s="67">
         <v>11</v>
       </c>
@@ -7055,8 +7055,8 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="108"/>
-      <c r="B38" s="111"/>
+      <c r="A38" s="114"/>
+      <c r="B38" s="117"/>
       <c r="C38" s="70"/>
       <c r="D38" s="70"/>
       <c r="E38" s="71"/>
@@ -7206,7 +7206,7 @@
         <f t="shared" si="8"/>
         <v>0.37499999997600003</v>
       </c>
-      <c r="H43" s="112">
+      <c r="H43" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I43" s="52">
@@ -7243,7 +7243,7 @@
         <f t="shared" si="8"/>
         <v>0.4499999999712001</v>
       </c>
-      <c r="H44" s="113"/>
+      <c r="H44" s="110"/>
       <c r="I44" s="52">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -7276,7 +7276,7 @@
         <f t="shared" si="8"/>
         <v>0.4499999999712001</v>
       </c>
-      <c r="H45" s="113"/>
+      <c r="H45" s="110"/>
       <c r="I45" s="52">
         <v>0.11700000000000001</v>
       </c>
@@ -7311,7 +7311,7 @@
         <f t="shared" si="8"/>
         <v>0.52499999996640012</v>
       </c>
-      <c r="H46" s="113"/>
+      <c r="H46" s="110"/>
       <c r="I46" s="52">
         <v>0.112</v>
       </c>
@@ -7346,7 +7346,7 @@
         <f t="shared" si="8"/>
         <v>0.52499999996640012</v>
       </c>
-      <c r="H47" s="113"/>
+      <c r="H47" s="110"/>
       <c r="I47" s="52">
         <v>7.0999999999999994E-2</v>
       </c>
@@ -7356,10 +7356,10 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="106" t="s">
+      <c r="A48" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="109"/>
+      <c r="B48" s="115"/>
       <c r="C48" s="46">
         <v>7</v>
       </c>
@@ -7379,7 +7379,7 @@
         <f t="shared" si="8"/>
         <v>0.37499999997600003</v>
       </c>
-      <c r="H48" s="113"/>
+      <c r="H48" s="110"/>
       <c r="I48" s="52">
         <v>0.11700000000000001</v>
       </c>
@@ -7389,8 +7389,8 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="107"/>
-      <c r="B49" s="110"/>
+      <c r="A49" s="113"/>
+      <c r="B49" s="116"/>
       <c r="C49" s="46">
         <v>8</v>
       </c>
@@ -7410,7 +7410,7 @@
         <f t="shared" si="8"/>
         <v>0.29999999998079996</v>
       </c>
-      <c r="H49" s="113"/>
+      <c r="H49" s="110"/>
       <c r="I49" s="48">
         <v>4.4999999999999998E-2</v>
       </c>
@@ -7420,8 +7420,8 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="107"/>
-      <c r="B50" s="110"/>
+      <c r="A50" s="113"/>
+      <c r="B50" s="116"/>
       <c r="C50" s="46">
         <v>9</v>
       </c>
@@ -7441,7 +7441,7 @@
         <f t="shared" si="8"/>
         <v>0.19999999998720003</v>
       </c>
-      <c r="H50" s="113"/>
+      <c r="H50" s="110"/>
       <c r="I50" s="48">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -7451,8 +7451,8 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="107"/>
-      <c r="B51" s="110"/>
+      <c r="A51" s="113"/>
+      <c r="B51" s="116"/>
       <c r="C51" s="46">
         <v>10</v>
       </c>
@@ -7472,7 +7472,7 @@
         <f t="shared" si="8"/>
         <v>9.9999999993600014E-2</v>
       </c>
-      <c r="H51" s="114"/>
+      <c r="H51" s="111"/>
       <c r="I51" s="48">
         <v>0</v>
       </c>
@@ -7482,8 +7482,8 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="107"/>
-      <c r="B52" s="110"/>
+      <c r="A52" s="113"/>
+      <c r="B52" s="116"/>
       <c r="C52" s="67">
         <v>11</v>
       </c>
@@ -7513,8 +7513,8 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="108"/>
-      <c r="B53" s="111"/>
+      <c r="A53" s="114"/>
+      <c r="B53" s="117"/>
       <c r="C53" s="70"/>
       <c r="D53" s="70"/>
       <c r="E53" s="71"/>
@@ -7664,7 +7664,7 @@
         <f t="shared" si="13"/>
         <v>0.37499999997600003</v>
       </c>
-      <c r="H58" s="112">
+      <c r="H58" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I58" s="52">
@@ -7701,7 +7701,7 @@
         <f t="shared" si="13"/>
         <v>0.52499999996640012</v>
       </c>
-      <c r="H59" s="113"/>
+      <c r="H59" s="110"/>
       <c r="I59" s="52">
         <v>5.2999999999999999E-2</v>
       </c>
@@ -7734,7 +7734,7 @@
         <f t="shared" si="13"/>
         <v>0.54999999996479998</v>
       </c>
-      <c r="H60" s="113"/>
+      <c r="H60" s="110"/>
       <c r="I60" s="85">
         <f>0.083</f>
         <v>8.3000000000000004E-2</v>
@@ -7770,7 +7770,7 @@
         <f t="shared" si="13"/>
         <v>0.52499999996640012</v>
       </c>
-      <c r="H61" s="113"/>
+      <c r="H61" s="110"/>
       <c r="I61" s="52">
         <v>9.4E-2</v>
       </c>
@@ -7805,7 +7805,7 @@
         <f t="shared" si="13"/>
         <v>0.49999999996799999</v>
       </c>
-      <c r="H62" s="113"/>
+      <c r="H62" s="110"/>
       <c r="I62" s="85">
         <f>0.074</f>
         <v>7.3999999999999996E-2</v>
@@ -7816,10 +7816,10 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="106" t="s">
+      <c r="A63" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B63" s="109"/>
+      <c r="B63" s="115"/>
       <c r="C63" s="46">
         <v>7</v>
       </c>
@@ -7839,7 +7839,7 @@
         <f t="shared" si="13"/>
         <v>0.39999999997440006</v>
       </c>
-      <c r="H63" s="113"/>
+      <c r="H63" s="110"/>
       <c r="I63" s="52">
         <v>9.1999999999999998E-2</v>
       </c>
@@ -7849,8 +7849,8 @@
       </c>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="107"/>
-      <c r="B64" s="110"/>
+      <c r="A64" s="113"/>
+      <c r="B64" s="116"/>
       <c r="C64" s="46">
         <v>8</v>
       </c>
@@ -7870,7 +7870,7 @@
         <f t="shared" si="13"/>
         <v>0.29999999998079996</v>
       </c>
-      <c r="H64" s="113"/>
+      <c r="H64" s="110"/>
       <c r="I64" s="48">
         <v>3.6999999999999998E-2</v>
       </c>
@@ -7880,8 +7880,8 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="107"/>
-      <c r="B65" s="110"/>
+      <c r="A65" s="113"/>
+      <c r="B65" s="116"/>
       <c r="C65" s="46">
         <v>9</v>
       </c>
@@ -7901,7 +7901,7 @@
         <f t="shared" si="13"/>
         <v>0.19999999998720003</v>
       </c>
-      <c r="H65" s="113"/>
+      <c r="H65" s="110"/>
       <c r="I65" s="48">
         <v>0</v>
       </c>
@@ -7911,8 +7911,8 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="107"/>
-      <c r="B66" s="110"/>
+      <c r="A66" s="113"/>
+      <c r="B66" s="116"/>
       <c r="C66" s="46">
         <v>10</v>
       </c>
@@ -7932,7 +7932,7 @@
         <f t="shared" si="13"/>
         <v>9.9999999993600014E-2</v>
       </c>
-      <c r="H66" s="114"/>
+      <c r="H66" s="111"/>
       <c r="I66" s="48">
         <v>0</v>
       </c>
@@ -7942,8 +7942,8 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="107"/>
-      <c r="B67" s="110"/>
+      <c r="A67" s="113"/>
+      <c r="B67" s="116"/>
       <c r="C67" s="67">
         <v>11</v>
       </c>
@@ -7973,8 +7973,8 @@
       </c>
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="108"/>
-      <c r="B68" s="111"/>
+      <c r="A68" s="114"/>
+      <c r="B68" s="117"/>
       <c r="C68" s="70"/>
       <c r="D68" s="70"/>
       <c r="E68" s="71"/>
@@ -8108,7 +8108,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H73" s="112">
+      <c r="H73" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I73" s="85"/>
@@ -8138,7 +8138,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H74" s="113"/>
+      <c r="H74" s="110"/>
       <c r="I74" s="85"/>
       <c r="J74" s="53" t="e">
         <f t="shared" si="17"/>
@@ -8166,7 +8166,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H75" s="113"/>
+      <c r="H75" s="110"/>
       <c r="I75" s="85"/>
       <c r="J75" s="53" t="e">
         <f t="shared" si="17"/>
@@ -8194,7 +8194,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H76" s="113"/>
+      <c r="H76" s="110"/>
       <c r="I76" s="85"/>
       <c r="J76" s="53" t="e">
         <f t="shared" si="17"/>
@@ -8222,7 +8222,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H77" s="113"/>
+      <c r="H77" s="110"/>
       <c r="I77" s="85"/>
       <c r="J77" s="53" t="e">
         <f t="shared" si="17"/>
@@ -8230,10 +8230,10 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="106" t="s">
+      <c r="A78" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B78" s="109"/>
+      <c r="B78" s="115"/>
       <c r="C78" s="46">
         <v>7</v>
       </c>
@@ -8250,7 +8250,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H78" s="113"/>
+      <c r="H78" s="110"/>
       <c r="I78" s="85"/>
       <c r="J78" s="53" t="e">
         <f t="shared" si="17"/>
@@ -8258,8 +8258,8 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="107"/>
-      <c r="B79" s="110"/>
+      <c r="A79" s="113"/>
+      <c r="B79" s="116"/>
       <c r="C79" s="46">
         <v>8</v>
       </c>
@@ -8276,7 +8276,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H79" s="113"/>
+      <c r="H79" s="110"/>
       <c r="I79" s="47"/>
       <c r="J79" s="53" t="e">
         <f t="shared" si="17"/>
@@ -8284,8 +8284,8 @@
       </c>
     </row>
     <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="107"/>
-      <c r="B80" s="110"/>
+      <c r="A80" s="113"/>
+      <c r="B80" s="116"/>
       <c r="C80" s="46">
         <v>9</v>
       </c>
@@ -8302,7 +8302,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H80" s="113"/>
+      <c r="H80" s="110"/>
       <c r="I80" s="47"/>
       <c r="J80" s="53" t="e">
         <f t="shared" si="17"/>
@@ -8310,8 +8310,8 @@
       </c>
     </row>
     <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="107"/>
-      <c r="B81" s="110"/>
+      <c r="A81" s="113"/>
+      <c r="B81" s="116"/>
       <c r="C81" s="46">
         <v>10</v>
       </c>
@@ -8328,7 +8328,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H81" s="114"/>
+      <c r="H81" s="111"/>
       <c r="I81" s="47"/>
       <c r="J81" s="53" t="e">
         <f t="shared" si="17"/>
@@ -8336,8 +8336,8 @@
       </c>
     </row>
     <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="108"/>
-      <c r="B82" s="111"/>
+      <c r="A82" s="114"/>
+      <c r="B82" s="117"/>
       <c r="C82" s="70"/>
       <c r="D82" s="70"/>
       <c r="E82" s="71"/>
@@ -8471,7 +8471,7 @@
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H87" s="112">
+      <c r="H87" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I87" s="85"/>
@@ -8501,7 +8501,7 @@
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H88" s="113"/>
+      <c r="H88" s="110"/>
       <c r="I88" s="85"/>
       <c r="J88" s="53" t="e">
         <f t="shared" si="20"/>
@@ -8529,7 +8529,7 @@
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H89" s="113"/>
+      <c r="H89" s="110"/>
       <c r="I89" s="85"/>
       <c r="J89" s="53" t="e">
         <f t="shared" si="20"/>
@@ -8557,7 +8557,7 @@
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H90" s="113"/>
+      <c r="H90" s="110"/>
       <c r="I90" s="85"/>
       <c r="J90" s="53" t="e">
         <f t="shared" si="20"/>
@@ -8585,7 +8585,7 @@
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H91" s="113"/>
+      <c r="H91" s="110"/>
       <c r="I91" s="85"/>
       <c r="J91" s="53" t="e">
         <f t="shared" si="20"/>
@@ -8593,10 +8593,10 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="106" t="s">
+      <c r="A92" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B92" s="109"/>
+      <c r="B92" s="115"/>
       <c r="C92" s="46">
         <v>7</v>
       </c>
@@ -8613,7 +8613,7 @@
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H92" s="113"/>
+      <c r="H92" s="110"/>
       <c r="I92" s="85"/>
       <c r="J92" s="53" t="e">
         <f t="shared" si="20"/>
@@ -8621,8 +8621,8 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="107"/>
-      <c r="B93" s="110"/>
+      <c r="A93" s="113"/>
+      <c r="B93" s="116"/>
       <c r="C93" s="46">
         <v>8</v>
       </c>
@@ -8639,7 +8639,7 @@
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H93" s="113"/>
+      <c r="H93" s="110"/>
       <c r="I93" s="47"/>
       <c r="J93" s="53" t="e">
         <f t="shared" si="20"/>
@@ -8647,8 +8647,8 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="107"/>
-      <c r="B94" s="110"/>
+      <c r="A94" s="113"/>
+      <c r="B94" s="116"/>
       <c r="C94" s="46">
         <v>9</v>
       </c>
@@ -8665,7 +8665,7 @@
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H94" s="113"/>
+      <c r="H94" s="110"/>
       <c r="I94" s="47"/>
       <c r="J94" s="53" t="e">
         <f t="shared" si="20"/>
@@ -8673,8 +8673,8 @@
       </c>
     </row>
     <row r="95" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="107"/>
-      <c r="B95" s="110"/>
+      <c r="A95" s="113"/>
+      <c r="B95" s="116"/>
       <c r="C95" s="46">
         <v>10</v>
       </c>
@@ -8691,7 +8691,7 @@
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H95" s="114"/>
+      <c r="H95" s="111"/>
       <c r="I95" s="47"/>
       <c r="J95" s="53" t="e">
         <f t="shared" si="20"/>
@@ -8699,8 +8699,8 @@
       </c>
     </row>
     <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="108"/>
-      <c r="B96" s="111"/>
+      <c r="A96" s="114"/>
+      <c r="B96" s="117"/>
       <c r="C96" s="70"/>
       <c r="D96" s="70"/>
       <c r="E96" s="71"/>
@@ -9630,12 +9630,6 @@
     <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H13:H21"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="H28:H36"/>
-    <mergeCell ref="B33:B38"/>
     <mergeCell ref="A92:A96"/>
     <mergeCell ref="B92:B96"/>
     <mergeCell ref="H43:H51"/>
@@ -9643,12 +9637,18 @@
     <mergeCell ref="H73:H81"/>
     <mergeCell ref="H87:H95"/>
     <mergeCell ref="B48:B53"/>
-    <mergeCell ref="A33:A38"/>
     <mergeCell ref="A48:A53"/>
     <mergeCell ref="A63:A68"/>
     <mergeCell ref="B63:B68"/>
     <mergeCell ref="A78:A82"/>
     <mergeCell ref="B78:B82"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H13:H21"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="H28:H36"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="A33:A38"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B17 B32 B47 B62 B77 B91">
@@ -9684,14 +9684,14 @@
       <c r="A1" s="102" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="117"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="108"/>
       <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
@@ -10045,7 +10045,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="112">
+      <c r="H13" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I13" s="85"/>
@@ -10076,7 +10076,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="113"/>
+      <c r="H14" s="110"/>
       <c r="I14" s="85"/>
       <c r="J14" s="53" t="e">
         <f t="shared" si="2"/>
@@ -10105,7 +10105,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="113"/>
+      <c r="H15" s="110"/>
       <c r="I15" s="85"/>
       <c r="J15" s="53" t="e">
         <f t="shared" si="2"/>
@@ -10133,7 +10133,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="113"/>
+      <c r="H16" s="110"/>
       <c r="I16" s="85"/>
       <c r="J16" s="53" t="e">
         <f t="shared" si="2"/>
@@ -10162,7 +10162,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="113"/>
+      <c r="H17" s="110"/>
       <c r="I17" s="85"/>
       <c r="J17" s="53" t="e">
         <f t="shared" si="2"/>
@@ -10170,10 +10170,10 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="106" t="s">
+      <c r="A18" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="109"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="46">
         <v>7</v>
       </c>
@@ -10190,7 +10190,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="113"/>
+      <c r="H18" s="110"/>
       <c r="I18" s="85"/>
       <c r="J18" s="53" t="e">
         <f t="shared" si="2"/>
@@ -10199,8 +10199,8 @@
       <c r="K18" s="58"/>
     </row>
     <row r="19" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="107"/>
-      <c r="B19" s="110"/>
+      <c r="A19" s="113"/>
+      <c r="B19" s="116"/>
       <c r="C19" s="46">
         <v>8</v>
       </c>
@@ -10217,7 +10217,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="113"/>
+      <c r="H19" s="110"/>
       <c r="I19" s="47"/>
       <c r="J19" s="53" t="e">
         <f t="shared" si="2"/>
@@ -10225,8 +10225,8 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="107"/>
-      <c r="B20" s="110"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="116"/>
       <c r="C20" s="46">
         <v>9</v>
       </c>
@@ -10243,7 +10243,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="113"/>
+      <c r="H20" s="110"/>
       <c r="I20" s="47"/>
       <c r="J20" s="53" t="e">
         <f t="shared" si="2"/>
@@ -10251,8 +10251,8 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="107"/>
-      <c r="B21" s="110"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="116"/>
       <c r="C21" s="46">
         <v>10</v>
       </c>
@@ -10269,7 +10269,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="114"/>
+      <c r="H21" s="111"/>
       <c r="I21" s="47"/>
       <c r="J21" s="53" t="e">
         <f t="shared" si="2"/>
@@ -10277,8 +10277,8 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="108"/>
-      <c r="B22" s="111"/>
+      <c r="A22" s="114"/>
+      <c r="B22" s="117"/>
       <c r="C22" s="70"/>
       <c r="D22" s="70"/>
       <c r="E22" s="71"/>
@@ -10423,7 +10423,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="112">
+      <c r="H27" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I27" s="85"/>
@@ -10453,7 +10453,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="113"/>
+      <c r="H28" s="110"/>
       <c r="I28" s="85"/>
       <c r="J28" s="53" t="e">
         <f t="shared" si="5"/>
@@ -10481,7 +10481,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="113"/>
+      <c r="H29" s="110"/>
       <c r="I29" s="85"/>
       <c r="J29" s="53" t="e">
         <f t="shared" si="5"/>
@@ -10509,7 +10509,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="113"/>
+      <c r="H30" s="110"/>
       <c r="I30" s="85"/>
       <c r="J30" s="53" t="e">
         <f t="shared" si="5"/>
@@ -10537,7 +10537,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="113"/>
+      <c r="H31" s="110"/>
       <c r="I31" s="85"/>
       <c r="J31" s="53" t="e">
         <f t="shared" si="5"/>
@@ -10545,10 +10545,10 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="106" t="s">
+      <c r="A32" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="109"/>
+      <c r="B32" s="115"/>
       <c r="C32" s="46">
         <v>7</v>
       </c>
@@ -10565,7 +10565,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="113"/>
+      <c r="H32" s="110"/>
       <c r="I32" s="85"/>
       <c r="J32" s="53" t="e">
         <f t="shared" si="5"/>
@@ -10573,8 +10573,8 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="107"/>
-      <c r="B33" s="110"/>
+      <c r="A33" s="113"/>
+      <c r="B33" s="116"/>
       <c r="C33" s="46">
         <v>8</v>
       </c>
@@ -10591,7 +10591,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="113"/>
+      <c r="H33" s="110"/>
       <c r="I33" s="47"/>
       <c r="J33" s="53" t="e">
         <f t="shared" si="5"/>
@@ -10599,8 +10599,8 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="107"/>
-      <c r="B34" s="110"/>
+      <c r="A34" s="113"/>
+      <c r="B34" s="116"/>
       <c r="C34" s="46">
         <v>9</v>
       </c>
@@ -10617,7 +10617,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="113"/>
+      <c r="H34" s="110"/>
       <c r="I34" s="47"/>
       <c r="J34" s="53" t="e">
         <f t="shared" si="5"/>
@@ -10625,8 +10625,8 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="107"/>
-      <c r="B35" s="110"/>
+      <c r="A35" s="113"/>
+      <c r="B35" s="116"/>
       <c r="C35" s="46">
         <v>10</v>
       </c>
@@ -10643,7 +10643,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="114"/>
+      <c r="H35" s="111"/>
       <c r="I35" s="47"/>
       <c r="J35" s="53" t="e">
         <f t="shared" si="5"/>
@@ -10651,8 +10651,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="108"/>
-      <c r="B36" s="111"/>
+      <c r="A36" s="114"/>
+      <c r="B36" s="117"/>
       <c r="C36" s="70"/>
       <c r="D36" s="70"/>
       <c r="E36" s="71"/>
@@ -10786,7 +10786,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="112">
+      <c r="H41" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I41" s="85"/>
@@ -10816,7 +10816,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H42" s="113"/>
+      <c r="H42" s="110"/>
       <c r="I42" s="85"/>
       <c r="J42" s="53" t="e">
         <f t="shared" si="8"/>
@@ -10844,7 +10844,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="113"/>
+      <c r="H43" s="110"/>
       <c r="I43" s="85"/>
       <c r="J43" s="53" t="e">
         <f t="shared" si="8"/>
@@ -10872,7 +10872,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H44" s="113"/>
+      <c r="H44" s="110"/>
       <c r="I44" s="85"/>
       <c r="J44" s="53" t="e">
         <f t="shared" si="8"/>
@@ -10900,7 +10900,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H45" s="113"/>
+      <c r="H45" s="110"/>
       <c r="I45" s="85"/>
       <c r="J45" s="53" t="e">
         <f t="shared" si="8"/>
@@ -10908,10 +10908,10 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="106" t="s">
+      <c r="A46" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="109"/>
+      <c r="B46" s="115"/>
       <c r="C46" s="46">
         <v>7</v>
       </c>
@@ -10928,7 +10928,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H46" s="113"/>
+      <c r="H46" s="110"/>
       <c r="I46" s="85"/>
       <c r="J46" s="53" t="e">
         <f t="shared" si="8"/>
@@ -10936,8 +10936,8 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="107"/>
-      <c r="B47" s="110"/>
+      <c r="A47" s="113"/>
+      <c r="B47" s="116"/>
       <c r="C47" s="46">
         <v>8</v>
       </c>
@@ -10954,7 +10954,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H47" s="113"/>
+      <c r="H47" s="110"/>
       <c r="I47" s="47"/>
       <c r="J47" s="53" t="e">
         <f t="shared" si="8"/>
@@ -10962,8 +10962,8 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="107"/>
-      <c r="B48" s="110"/>
+      <c r="A48" s="113"/>
+      <c r="B48" s="116"/>
       <c r="C48" s="46">
         <v>9</v>
       </c>
@@ -10980,7 +10980,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H48" s="113"/>
+      <c r="H48" s="110"/>
       <c r="I48" s="47"/>
       <c r="J48" s="53" t="e">
         <f t="shared" si="8"/>
@@ -10988,8 +10988,8 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="107"/>
-      <c r="B49" s="110"/>
+      <c r="A49" s="113"/>
+      <c r="B49" s="116"/>
       <c r="C49" s="46">
         <v>10</v>
       </c>
@@ -11006,7 +11006,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H49" s="114"/>
+      <c r="H49" s="111"/>
       <c r="I49" s="47"/>
       <c r="J49" s="53" t="e">
         <f t="shared" si="8"/>
@@ -11014,8 +11014,8 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="108"/>
-      <c r="B50" s="111"/>
+      <c r="A50" s="114"/>
+      <c r="B50" s="117"/>
       <c r="C50" s="70"/>
       <c r="D50" s="70"/>
       <c r="E50" s="71"/>
@@ -11149,7 +11149,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H55" s="112">
+      <c r="H55" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I55" s="85"/>
@@ -11179,7 +11179,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H56" s="113"/>
+      <c r="H56" s="110"/>
       <c r="I56" s="85"/>
       <c r="J56" s="53" t="e">
         <f t="shared" si="11"/>
@@ -11207,7 +11207,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H57" s="113"/>
+      <c r="H57" s="110"/>
       <c r="I57" s="85"/>
       <c r="J57" s="53" t="e">
         <f t="shared" si="11"/>
@@ -11235,7 +11235,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H58" s="113"/>
+      <c r="H58" s="110"/>
       <c r="I58" s="85"/>
       <c r="J58" s="53" t="e">
         <f t="shared" si="11"/>
@@ -11263,7 +11263,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H59" s="113"/>
+      <c r="H59" s="110"/>
       <c r="I59" s="85"/>
       <c r="J59" s="53" t="e">
         <f t="shared" si="11"/>
@@ -11271,10 +11271,10 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="106" t="s">
+      <c r="A60" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B60" s="109"/>
+      <c r="B60" s="115"/>
       <c r="C60" s="46">
         <v>7</v>
       </c>
@@ -11291,7 +11291,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H60" s="113"/>
+      <c r="H60" s="110"/>
       <c r="I60" s="85"/>
       <c r="J60" s="53" t="e">
         <f t="shared" si="11"/>
@@ -11299,8 +11299,8 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="107"/>
-      <c r="B61" s="110"/>
+      <c r="A61" s="113"/>
+      <c r="B61" s="116"/>
       <c r="C61" s="46">
         <v>8</v>
       </c>
@@ -11317,7 +11317,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H61" s="113"/>
+      <c r="H61" s="110"/>
       <c r="I61" s="47"/>
       <c r="J61" s="53" t="e">
         <f t="shared" si="11"/>
@@ -11325,8 +11325,8 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="107"/>
-      <c r="B62" s="110"/>
+      <c r="A62" s="113"/>
+      <c r="B62" s="116"/>
       <c r="C62" s="46">
         <v>9</v>
       </c>
@@ -11343,7 +11343,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H62" s="113"/>
+      <c r="H62" s="110"/>
       <c r="I62" s="47"/>
       <c r="J62" s="53" t="e">
         <f t="shared" si="11"/>
@@ -11351,8 +11351,8 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="107"/>
-      <c r="B63" s="110"/>
+      <c r="A63" s="113"/>
+      <c r="B63" s="116"/>
       <c r="C63" s="46">
         <v>10</v>
       </c>
@@ -11369,7 +11369,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H63" s="114"/>
+      <c r="H63" s="111"/>
       <c r="I63" s="47"/>
       <c r="J63" s="53" t="e">
         <f t="shared" si="11"/>
@@ -11377,8 +11377,8 @@
       </c>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="108"/>
-      <c r="B64" s="111"/>
+      <c r="A64" s="114"/>
+      <c r="B64" s="117"/>
       <c r="C64" s="70"/>
       <c r="D64" s="70"/>
       <c r="E64" s="71"/>
@@ -11512,7 +11512,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H69" s="112">
+      <c r="H69" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I69" s="85"/>
@@ -11542,7 +11542,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H70" s="113"/>
+      <c r="H70" s="110"/>
       <c r="I70" s="85"/>
       <c r="J70" s="53" t="e">
         <f t="shared" si="14"/>
@@ -11570,7 +11570,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H71" s="113"/>
+      <c r="H71" s="110"/>
       <c r="I71" s="85"/>
       <c r="J71" s="53" t="e">
         <f t="shared" si="14"/>
@@ -11598,7 +11598,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H72" s="113"/>
+      <c r="H72" s="110"/>
       <c r="I72" s="85"/>
       <c r="J72" s="53" t="e">
         <f t="shared" si="14"/>
@@ -11626,7 +11626,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H73" s="113"/>
+      <c r="H73" s="110"/>
       <c r="I73" s="85"/>
       <c r="J73" s="53" t="e">
         <f t="shared" si="14"/>
@@ -11634,10 +11634,10 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="106" t="s">
+      <c r="A74" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B74" s="109"/>
+      <c r="B74" s="115"/>
       <c r="C74" s="46">
         <v>7</v>
       </c>
@@ -11654,7 +11654,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H74" s="113"/>
+      <c r="H74" s="110"/>
       <c r="I74" s="85"/>
       <c r="J74" s="53" t="e">
         <f t="shared" si="14"/>
@@ -11662,8 +11662,8 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="107"/>
-      <c r="B75" s="110"/>
+      <c r="A75" s="113"/>
+      <c r="B75" s="116"/>
       <c r="C75" s="46">
         <v>8</v>
       </c>
@@ -11680,7 +11680,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H75" s="113"/>
+      <c r="H75" s="110"/>
       <c r="I75" s="47"/>
       <c r="J75" s="53" t="e">
         <f t="shared" si="14"/>
@@ -11688,8 +11688,8 @@
       </c>
     </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="107"/>
-      <c r="B76" s="110"/>
+      <c r="A76" s="113"/>
+      <c r="B76" s="116"/>
       <c r="C76" s="46">
         <v>9</v>
       </c>
@@ -11706,7 +11706,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H76" s="113"/>
+      <c r="H76" s="110"/>
       <c r="I76" s="47"/>
       <c r="J76" s="53" t="e">
         <f t="shared" si="14"/>
@@ -11714,8 +11714,8 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="107"/>
-      <c r="B77" s="110"/>
+      <c r="A77" s="113"/>
+      <c r="B77" s="116"/>
       <c r="C77" s="46">
         <v>10</v>
       </c>
@@ -11732,7 +11732,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H77" s="114"/>
+      <c r="H77" s="111"/>
       <c r="I77" s="47"/>
       <c r="J77" s="53" t="e">
         <f t="shared" si="14"/>
@@ -11740,8 +11740,8 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="108"/>
-      <c r="B78" s="111"/>
+      <c r="A78" s="114"/>
+      <c r="B78" s="117"/>
       <c r="C78" s="70"/>
       <c r="D78" s="70"/>
       <c r="E78" s="71"/>
@@ -11875,7 +11875,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H83" s="112">
+      <c r="H83" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I83" s="85"/>
@@ -11905,7 +11905,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H84" s="113"/>
+      <c r="H84" s="110"/>
       <c r="I84" s="85"/>
       <c r="J84" s="53" t="e">
         <f t="shared" si="17"/>
@@ -11933,7 +11933,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H85" s="113"/>
+      <c r="H85" s="110"/>
       <c r="I85" s="85"/>
       <c r="J85" s="53" t="e">
         <f t="shared" si="17"/>
@@ -11961,7 +11961,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H86" s="113"/>
+      <c r="H86" s="110"/>
       <c r="I86" s="85"/>
       <c r="J86" s="53" t="e">
         <f t="shared" si="17"/>
@@ -11989,7 +11989,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H87" s="113"/>
+      <c r="H87" s="110"/>
       <c r="I87" s="85"/>
       <c r="J87" s="53" t="e">
         <f t="shared" si="17"/>
@@ -11997,10 +11997,10 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="106" t="s">
+      <c r="A88" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B88" s="109"/>
+      <c r="B88" s="115"/>
       <c r="C88" s="46">
         <v>7</v>
       </c>
@@ -12017,7 +12017,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H88" s="113"/>
+      <c r="H88" s="110"/>
       <c r="I88" s="85"/>
       <c r="J88" s="53" t="e">
         <f t="shared" si="17"/>
@@ -12025,8 +12025,8 @@
       </c>
     </row>
     <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="107"/>
-      <c r="B89" s="110"/>
+      <c r="A89" s="113"/>
+      <c r="B89" s="116"/>
       <c r="C89" s="46">
         <v>8</v>
       </c>
@@ -12043,7 +12043,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H89" s="113"/>
+      <c r="H89" s="110"/>
       <c r="I89" s="47"/>
       <c r="J89" s="53" t="e">
         <f t="shared" si="17"/>
@@ -12051,8 +12051,8 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="107"/>
-      <c r="B90" s="110"/>
+      <c r="A90" s="113"/>
+      <c r="B90" s="116"/>
       <c r="C90" s="46">
         <v>9</v>
       </c>
@@ -12069,7 +12069,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H90" s="113"/>
+      <c r="H90" s="110"/>
       <c r="I90" s="47"/>
       <c r="J90" s="53" t="e">
         <f t="shared" si="17"/>
@@ -12077,8 +12077,8 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="107"/>
-      <c r="B91" s="110"/>
+      <c r="A91" s="113"/>
+      <c r="B91" s="116"/>
       <c r="C91" s="46">
         <v>10</v>
       </c>
@@ -12095,7 +12095,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H91" s="114"/>
+      <c r="H91" s="111"/>
       <c r="I91" s="47"/>
       <c r="J91" s="53" t="e">
         <f t="shared" si="17"/>
@@ -12103,8 +12103,8 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="108"/>
-      <c r="B92" s="111"/>
+      <c r="A92" s="114"/>
+      <c r="B92" s="117"/>
       <c r="C92" s="70"/>
       <c r="D92" s="70"/>
       <c r="E92" s="71"/>
@@ -13034,12 +13034,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H13:H21"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="H27:H35"/>
-    <mergeCell ref="B32:B36"/>
     <mergeCell ref="A88:A92"/>
     <mergeCell ref="B88:B92"/>
     <mergeCell ref="H41:H49"/>
@@ -13047,12 +13041,18 @@
     <mergeCell ref="H69:H77"/>
     <mergeCell ref="H83:H91"/>
     <mergeCell ref="B46:B50"/>
-    <mergeCell ref="A32:A36"/>
     <mergeCell ref="A46:A50"/>
     <mergeCell ref="A60:A64"/>
     <mergeCell ref="B60:B64"/>
     <mergeCell ref="A74:A78"/>
     <mergeCell ref="B74:B78"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H13:H21"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="H27:H35"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="A32:A36"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B17 B31 B45 B59 B73 B87">
@@ -13103,14 +13103,14 @@
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="117"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="108"/>
       <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
@@ -13478,7 +13478,7 @@
         <f t="shared" si="1"/>
         <v>0.64999999995840008</v>
       </c>
-      <c r="H13" s="112">
+      <c r="H13" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I13" s="52">
@@ -13516,7 +13516,7 @@
         <f t="shared" si="1"/>
         <v>0.79999999994880011</v>
       </c>
-      <c r="H14" s="113"/>
+      <c r="H14" s="110"/>
       <c r="I14" s="52">
         <v>0</v>
       </c>
@@ -13550,7 +13550,7 @@
         <f t="shared" si="1"/>
         <v>0.74999999995200006</v>
       </c>
-      <c r="H15" s="113"/>
+      <c r="H15" s="110"/>
       <c r="I15" s="52">
         <v>0</v>
       </c>
@@ -13583,7 +13583,7 @@
         <f t="shared" si="1"/>
         <v>0.74999999995200006</v>
       </c>
-      <c r="H16" s="113"/>
+      <c r="H16" s="110"/>
       <c r="I16" s="52">
         <v>0</v>
       </c>
@@ -13619,7 +13619,7 @@
         <f t="shared" si="1"/>
         <v>1.7999999998848004</v>
       </c>
-      <c r="H17" s="113"/>
+      <c r="H17" s="110"/>
       <c r="I17" s="52">
         <v>0</v>
       </c>
@@ -13629,7 +13629,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="106" t="s">
+      <c r="A18" s="112" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="118" t="s">
@@ -13654,7 +13654,7 @@
         <f t="shared" si="1"/>
         <v>1.6999999998911999</v>
       </c>
-      <c r="H18" s="113"/>
+      <c r="H18" s="110"/>
       <c r="I18" s="52">
         <v>0</v>
       </c>
@@ -13665,8 +13665,8 @@
       <c r="K18" s="58"/>
     </row>
     <row r="19" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="107"/>
-      <c r="B19" s="110"/>
+      <c r="A19" s="113"/>
+      <c r="B19" s="116"/>
       <c r="C19" s="46">
         <v>8</v>
       </c>
@@ -13686,7 +13686,7 @@
         <f t="shared" si="1"/>
         <v>1.6499999998943997</v>
       </c>
-      <c r="H19" s="113"/>
+      <c r="H19" s="110"/>
       <c r="I19" s="48">
         <v>0</v>
       </c>
@@ -13696,8 +13696,8 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="107"/>
-      <c r="B20" s="110"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="116"/>
       <c r="C20" s="46">
         <v>9</v>
       </c>
@@ -13717,7 +13717,7 @@
         <f t="shared" si="1"/>
         <v>1.4499999999072</v>
       </c>
-      <c r="H20" s="113"/>
+      <c r="H20" s="110"/>
       <c r="I20" s="48">
         <v>0.16600000000000001</v>
       </c>
@@ -13727,8 +13727,8 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="107"/>
-      <c r="B21" s="110"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="116"/>
       <c r="C21" s="46">
         <v>10</v>
       </c>
@@ -13748,7 +13748,7 @@
         <f t="shared" si="1"/>
         <v>1.3999999999103998</v>
       </c>
-      <c r="H21" s="114"/>
+      <c r="H21" s="111"/>
       <c r="I21" s="48">
         <v>0.126</v>
       </c>
@@ -13758,8 +13758,8 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="107"/>
-      <c r="B22" s="110"/>
+      <c r="A22" s="113"/>
+      <c r="B22" s="116"/>
       <c r="C22" s="67">
         <v>11</v>
       </c>
@@ -13789,8 +13789,8 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="107"/>
-      <c r="B23" s="110"/>
+      <c r="A23" s="113"/>
+      <c r="B23" s="116"/>
       <c r="C23" s="67">
         <v>12</v>
       </c>
@@ -13820,8 +13820,8 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="107"/>
-      <c r="B24" s="110"/>
+      <c r="A24" s="113"/>
+      <c r="B24" s="116"/>
       <c r="C24" s="67">
         <v>13</v>
       </c>
@@ -13851,8 +13851,8 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="107"/>
-      <c r="B25" s="110"/>
+      <c r="A25" s="113"/>
+      <c r="B25" s="116"/>
       <c r="C25" s="67">
         <v>14</v>
       </c>
@@ -13882,8 +13882,8 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="107"/>
-      <c r="B26" s="110"/>
+      <c r="A26" s="113"/>
+      <c r="B26" s="116"/>
       <c r="C26" s="67">
         <v>15</v>
       </c>
@@ -13913,8 +13913,8 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="108"/>
-      <c r="B27" s="111"/>
+      <c r="A27" s="114"/>
+      <c r="B27" s="117"/>
       <c r="C27" s="70"/>
       <c r="D27" s="70"/>
       <c r="E27" s="71"/>
@@ -14075,7 +14075,7 @@
         <f t="shared" si="8"/>
         <v>0.79999999994880011</v>
       </c>
-      <c r="H32" s="112">
+      <c r="H32" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I32" s="52">
@@ -14112,7 +14112,7 @@
         <f t="shared" si="8"/>
         <v>1.1499999999263999</v>
       </c>
-      <c r="H33" s="113"/>
+      <c r="H33" s="110"/>
       <c r="I33" s="52">
         <v>0</v>
       </c>
@@ -14145,7 +14145,7 @@
         <f t="shared" si="8"/>
         <v>0.74999999995200006</v>
       </c>
-      <c r="H34" s="113"/>
+      <c r="H34" s="110"/>
       <c r="I34" s="52">
         <v>0</v>
       </c>
@@ -14178,7 +14178,7 @@
         <f t="shared" si="8"/>
         <v>0.72499999995359998</v>
       </c>
-      <c r="H35" s="113"/>
+      <c r="H35" s="110"/>
       <c r="I35" s="52">
         <v>0</v>
       </c>
@@ -14213,7 +14213,7 @@
         <f t="shared" si="8"/>
         <v>1.7999999998848004</v>
       </c>
-      <c r="H36" s="113"/>
+      <c r="H36" s="110"/>
       <c r="I36" s="52">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -14223,10 +14223,10 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="106" t="s">
+      <c r="A37" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="109"/>
+      <c r="B37" s="115"/>
       <c r="C37" s="46">
         <v>7</v>
       </c>
@@ -14246,7 +14246,7 @@
         <f t="shared" si="8"/>
         <v>1.749999999888</v>
       </c>
-      <c r="H37" s="113"/>
+      <c r="H37" s="110"/>
       <c r="I37" s="52">
         <v>1.2E-2</v>
       </c>
@@ -14256,8 +14256,8 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="107"/>
-      <c r="B38" s="110"/>
+      <c r="A38" s="113"/>
+      <c r="B38" s="116"/>
       <c r="C38" s="46">
         <v>8</v>
       </c>
@@ -14277,7 +14277,7 @@
         <f t="shared" si="8"/>
         <v>1.6499999998943997</v>
       </c>
-      <c r="H38" s="113"/>
+      <c r="H38" s="110"/>
       <c r="I38" s="48">
         <v>3.6999999999999998E-2</v>
       </c>
@@ -14287,8 +14287,8 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="107"/>
-      <c r="B39" s="110"/>
+      <c r="A39" s="113"/>
+      <c r="B39" s="116"/>
       <c r="C39" s="46">
         <v>9</v>
       </c>
@@ -14308,7 +14308,7 @@
         <f t="shared" si="8"/>
         <v>1.4499999999072</v>
       </c>
-      <c r="H39" s="113"/>
+      <c r="H39" s="110"/>
       <c r="I39" s="48">
         <v>0.12</v>
       </c>
@@ -14318,8 +14318,8 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="107"/>
-      <c r="B40" s="110"/>
+      <c r="A40" s="113"/>
+      <c r="B40" s="116"/>
       <c r="C40" s="46">
         <v>10</v>
       </c>
@@ -14339,7 +14339,7 @@
         <f t="shared" si="8"/>
         <v>1.3999999999103998</v>
       </c>
-      <c r="H40" s="114"/>
+      <c r="H40" s="111"/>
       <c r="I40" s="48">
         <v>0.13100000000000001</v>
       </c>
@@ -14349,8 +14349,8 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="107"/>
-      <c r="B41" s="110"/>
+      <c r="A41" s="113"/>
+      <c r="B41" s="116"/>
       <c r="C41" s="67">
         <v>11</v>
       </c>
@@ -14380,8 +14380,8 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="107"/>
-      <c r="B42" s="110"/>
+      <c r="A42" s="113"/>
+      <c r="B42" s="116"/>
       <c r="C42" s="67">
         <v>12</v>
       </c>
@@ -14411,8 +14411,8 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="107"/>
-      <c r="B43" s="110"/>
+      <c r="A43" s="113"/>
+      <c r="B43" s="116"/>
       <c r="C43" s="67">
         <v>13</v>
       </c>
@@ -14442,8 +14442,8 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="107"/>
-      <c r="B44" s="110"/>
+      <c r="A44" s="113"/>
+      <c r="B44" s="116"/>
       <c r="C44" s="67">
         <v>14</v>
       </c>
@@ -14473,8 +14473,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="107"/>
-      <c r="B45" s="110"/>
+      <c r="A45" s="113"/>
+      <c r="B45" s="116"/>
       <c r="C45" s="67">
         <v>15</v>
       </c>
@@ -14504,8 +14504,8 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="108"/>
-      <c r="B46" s="111"/>
+      <c r="A46" s="114"/>
+      <c r="B46" s="117"/>
       <c r="C46" s="70"/>
       <c r="D46" s="70"/>
       <c r="E46" s="71"/>
@@ -14639,7 +14639,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H51" s="112">
+      <c r="H51" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I51" s="85"/>
@@ -14669,7 +14669,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H52" s="113"/>
+      <c r="H52" s="110"/>
       <c r="I52" s="85"/>
       <c r="J52" s="53" t="e">
         <f t="shared" si="13"/>
@@ -14697,7 +14697,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H53" s="113"/>
+      <c r="H53" s="110"/>
       <c r="I53" s="85"/>
       <c r="J53" s="53" t="e">
         <f t="shared" si="13"/>
@@ -14725,7 +14725,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H54" s="113"/>
+      <c r="H54" s="110"/>
       <c r="I54" s="85"/>
       <c r="J54" s="53" t="e">
         <f t="shared" si="13"/>
@@ -14753,7 +14753,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H55" s="113"/>
+      <c r="H55" s="110"/>
       <c r="I55" s="85"/>
       <c r="J55" s="53" t="e">
         <f t="shared" si="13"/>
@@ -14761,10 +14761,10 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="106" t="s">
+      <c r="A56" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="109"/>
+      <c r="B56" s="115"/>
       <c r="C56" s="46">
         <v>7</v>
       </c>
@@ -14781,7 +14781,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H56" s="113"/>
+      <c r="H56" s="110"/>
       <c r="I56" s="85"/>
       <c r="J56" s="53" t="e">
         <f t="shared" si="13"/>
@@ -14789,8 +14789,8 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="107"/>
-      <c r="B57" s="110"/>
+      <c r="A57" s="113"/>
+      <c r="B57" s="116"/>
       <c r="C57" s="46">
         <v>8</v>
       </c>
@@ -14807,7 +14807,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H57" s="113"/>
+      <c r="H57" s="110"/>
       <c r="I57" s="47"/>
       <c r="J57" s="53" t="e">
         <f t="shared" si="13"/>
@@ -14815,8 +14815,8 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="107"/>
-      <c r="B58" s="110"/>
+      <c r="A58" s="113"/>
+      <c r="B58" s="116"/>
       <c r="C58" s="46">
         <v>9</v>
       </c>
@@ -14833,7 +14833,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H58" s="113"/>
+      <c r="H58" s="110"/>
       <c r="I58" s="47"/>
       <c r="J58" s="53" t="e">
         <f t="shared" si="13"/>
@@ -14841,8 +14841,8 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="107"/>
-      <c r="B59" s="110"/>
+      <c r="A59" s="113"/>
+      <c r="B59" s="116"/>
       <c r="C59" s="46">
         <v>10</v>
       </c>
@@ -14859,7 +14859,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H59" s="114"/>
+      <c r="H59" s="111"/>
       <c r="I59" s="47"/>
       <c r="J59" s="53" t="e">
         <f t="shared" si="13"/>
@@ -14867,8 +14867,8 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="108"/>
-      <c r="B60" s="111"/>
+      <c r="A60" s="114"/>
+      <c r="B60" s="117"/>
       <c r="C60" s="70"/>
       <c r="D60" s="70"/>
       <c r="E60" s="71"/>
@@ -15002,7 +15002,7 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H65" s="112">
+      <c r="H65" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I65" s="85"/>
@@ -15032,7 +15032,7 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H66" s="113"/>
+      <c r="H66" s="110"/>
       <c r="I66" s="85"/>
       <c r="J66" s="53" t="e">
         <f t="shared" si="16"/>
@@ -15060,7 +15060,7 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H67" s="113"/>
+      <c r="H67" s="110"/>
       <c r="I67" s="85"/>
       <c r="J67" s="53" t="e">
         <f t="shared" si="16"/>
@@ -15088,7 +15088,7 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H68" s="113"/>
+      <c r="H68" s="110"/>
       <c r="I68" s="85"/>
       <c r="J68" s="53" t="e">
         <f t="shared" si="16"/>
@@ -15116,7 +15116,7 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H69" s="113"/>
+      <c r="H69" s="110"/>
       <c r="I69" s="85"/>
       <c r="J69" s="53" t="e">
         <f t="shared" si="16"/>
@@ -15124,10 +15124,10 @@
       </c>
     </row>
     <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="106" t="s">
+      <c r="A70" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B70" s="109"/>
+      <c r="B70" s="115"/>
       <c r="C70" s="46">
         <v>7</v>
       </c>
@@ -15144,7 +15144,7 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H70" s="113"/>
+      <c r="H70" s="110"/>
       <c r="I70" s="85"/>
       <c r="J70" s="53" t="e">
         <f t="shared" si="16"/>
@@ -15152,8 +15152,8 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="107"/>
-      <c r="B71" s="110"/>
+      <c r="A71" s="113"/>
+      <c r="B71" s="116"/>
       <c r="C71" s="46">
         <v>8</v>
       </c>
@@ -15170,7 +15170,7 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H71" s="113"/>
+      <c r="H71" s="110"/>
       <c r="I71" s="47"/>
       <c r="J71" s="53" t="e">
         <f t="shared" si="16"/>
@@ -15178,8 +15178,8 @@
       </c>
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="107"/>
-      <c r="B72" s="110"/>
+      <c r="A72" s="113"/>
+      <c r="B72" s="116"/>
       <c r="C72" s="46">
         <v>9</v>
       </c>
@@ -15196,7 +15196,7 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H72" s="113"/>
+      <c r="H72" s="110"/>
       <c r="I72" s="47"/>
       <c r="J72" s="53" t="e">
         <f t="shared" si="16"/>
@@ -15204,8 +15204,8 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="107"/>
-      <c r="B73" s="110"/>
+      <c r="A73" s="113"/>
+      <c r="B73" s="116"/>
       <c r="C73" s="46">
         <v>10</v>
       </c>
@@ -15222,7 +15222,7 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H73" s="114"/>
+      <c r="H73" s="111"/>
       <c r="I73" s="47"/>
       <c r="J73" s="53" t="e">
         <f t="shared" si="16"/>
@@ -15230,8 +15230,8 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="108"/>
-      <c r="B74" s="111"/>
+      <c r="A74" s="114"/>
+      <c r="B74" s="117"/>
       <c r="C74" s="70"/>
       <c r="D74" s="70"/>
       <c r="E74" s="71"/>
@@ -15365,7 +15365,7 @@
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H79" s="112">
+      <c r="H79" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I79" s="85"/>
@@ -15395,7 +15395,7 @@
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H80" s="113"/>
+      <c r="H80" s="110"/>
       <c r="I80" s="85"/>
       <c r="J80" s="53" t="e">
         <f t="shared" si="19"/>
@@ -15423,7 +15423,7 @@
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H81" s="113"/>
+      <c r="H81" s="110"/>
       <c r="I81" s="85"/>
       <c r="J81" s="53" t="e">
         <f t="shared" si="19"/>
@@ -15451,7 +15451,7 @@
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H82" s="113"/>
+      <c r="H82" s="110"/>
       <c r="I82" s="85"/>
       <c r="J82" s="53" t="e">
         <f t="shared" si="19"/>
@@ -15479,7 +15479,7 @@
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H83" s="113"/>
+      <c r="H83" s="110"/>
       <c r="I83" s="85"/>
       <c r="J83" s="53" t="e">
         <f t="shared" si="19"/>
@@ -15487,10 +15487,10 @@
       </c>
     </row>
     <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="106" t="s">
+      <c r="A84" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B84" s="109"/>
+      <c r="B84" s="115"/>
       <c r="C84" s="46">
         <v>7</v>
       </c>
@@ -15507,7 +15507,7 @@
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H84" s="113"/>
+      <c r="H84" s="110"/>
       <c r="I84" s="85"/>
       <c r="J84" s="53" t="e">
         <f t="shared" si="19"/>
@@ -15515,8 +15515,8 @@
       </c>
     </row>
     <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="107"/>
-      <c r="B85" s="110"/>
+      <c r="A85" s="113"/>
+      <c r="B85" s="116"/>
       <c r="C85" s="46">
         <v>8</v>
       </c>
@@ -15533,7 +15533,7 @@
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H85" s="113"/>
+      <c r="H85" s="110"/>
       <c r="I85" s="47"/>
       <c r="J85" s="53" t="e">
         <f t="shared" si="19"/>
@@ -15541,8 +15541,8 @@
       </c>
     </row>
     <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="107"/>
-      <c r="B86" s="110"/>
+      <c r="A86" s="113"/>
+      <c r="B86" s="116"/>
       <c r="C86" s="46">
         <v>9</v>
       </c>
@@ -15559,7 +15559,7 @@
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H86" s="113"/>
+      <c r="H86" s="110"/>
       <c r="I86" s="47"/>
       <c r="J86" s="53" t="e">
         <f t="shared" si="19"/>
@@ -15567,8 +15567,8 @@
       </c>
     </row>
     <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="107"/>
-      <c r="B87" s="110"/>
+      <c r="A87" s="113"/>
+      <c r="B87" s="116"/>
       <c r="C87" s="46">
         <v>10</v>
       </c>
@@ -15585,7 +15585,7 @@
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H87" s="114"/>
+      <c r="H87" s="111"/>
       <c r="I87" s="47"/>
       <c r="J87" s="53" t="e">
         <f t="shared" si="19"/>
@@ -15593,8 +15593,8 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="108"/>
-      <c r="B88" s="111"/>
+      <c r="A88" s="114"/>
+      <c r="B88" s="117"/>
       <c r="C88" s="70"/>
       <c r="D88" s="70"/>
       <c r="E88" s="71"/>
@@ -15728,7 +15728,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H93" s="112">
+      <c r="H93" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I93" s="85"/>
@@ -15758,7 +15758,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H94" s="113"/>
+      <c r="H94" s="110"/>
       <c r="I94" s="85"/>
       <c r="J94" s="53" t="e">
         <f t="shared" si="22"/>
@@ -15786,7 +15786,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H95" s="113"/>
+      <c r="H95" s="110"/>
       <c r="I95" s="85"/>
       <c r="J95" s="53" t="e">
         <f t="shared" si="22"/>
@@ -15814,7 +15814,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H96" s="113"/>
+      <c r="H96" s="110"/>
       <c r="I96" s="85"/>
       <c r="J96" s="53" t="e">
         <f t="shared" si="22"/>
@@ -15842,7 +15842,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H97" s="113"/>
+      <c r="H97" s="110"/>
       <c r="I97" s="85"/>
       <c r="J97" s="53" t="e">
         <f t="shared" si="22"/>
@@ -15850,10 +15850,10 @@
       </c>
     </row>
     <row r="98" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="106" t="s">
+      <c r="A98" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B98" s="109"/>
+      <c r="B98" s="115"/>
       <c r="C98" s="46">
         <v>7</v>
       </c>
@@ -15870,7 +15870,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H98" s="113"/>
+      <c r="H98" s="110"/>
       <c r="I98" s="85"/>
       <c r="J98" s="53" t="e">
         <f t="shared" si="22"/>
@@ -15878,8 +15878,8 @@
       </c>
     </row>
     <row r="99" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="107"/>
-      <c r="B99" s="110"/>
+      <c r="A99" s="113"/>
+      <c r="B99" s="116"/>
       <c r="C99" s="46">
         <v>8</v>
       </c>
@@ -15896,7 +15896,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H99" s="113"/>
+      <c r="H99" s="110"/>
       <c r="I99" s="47"/>
       <c r="J99" s="53" t="e">
         <f t="shared" si="22"/>
@@ -15904,8 +15904,8 @@
       </c>
     </row>
     <row r="100" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="107"/>
-      <c r="B100" s="110"/>
+      <c r="A100" s="113"/>
+      <c r="B100" s="116"/>
       <c r="C100" s="46">
         <v>9</v>
       </c>
@@ -15922,7 +15922,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H100" s="113"/>
+      <c r="H100" s="110"/>
       <c r="I100" s="47"/>
       <c r="J100" s="53" t="e">
         <f t="shared" si="22"/>
@@ -15930,8 +15930,8 @@
       </c>
     </row>
     <row r="101" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="107"/>
-      <c r="B101" s="110"/>
+      <c r="A101" s="113"/>
+      <c r="B101" s="116"/>
       <c r="C101" s="46">
         <v>10</v>
       </c>
@@ -15948,7 +15948,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H101" s="114"/>
+      <c r="H101" s="111"/>
       <c r="I101" s="47"/>
       <c r="J101" s="53" t="e">
         <f t="shared" si="22"/>
@@ -15956,8 +15956,8 @@
       </c>
     </row>
     <row r="102" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="108"/>
-      <c r="B102" s="111"/>
+      <c r="A102" s="114"/>
+      <c r="B102" s="117"/>
       <c r="C102" s="70"/>
       <c r="D102" s="70"/>
       <c r="E102" s="71"/>
@@ -16887,12 +16887,6 @@
     <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H13:H21"/>
-    <mergeCell ref="A18:A27"/>
-    <mergeCell ref="B18:B27"/>
-    <mergeCell ref="H32:H40"/>
-    <mergeCell ref="B37:B46"/>
     <mergeCell ref="A98:A102"/>
     <mergeCell ref="B98:B102"/>
     <mergeCell ref="H51:H59"/>
@@ -16900,12 +16894,18 @@
     <mergeCell ref="H79:H87"/>
     <mergeCell ref="H93:H101"/>
     <mergeCell ref="B56:B60"/>
-    <mergeCell ref="A37:A46"/>
     <mergeCell ref="A56:A60"/>
     <mergeCell ref="A70:A74"/>
     <mergeCell ref="B70:B74"/>
     <mergeCell ref="A84:A88"/>
     <mergeCell ref="B84:B88"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H13:H21"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="B18:B27"/>
+    <mergeCell ref="H32:H40"/>
+    <mergeCell ref="B37:B46"/>
+    <mergeCell ref="A37:A46"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B17 B36 B55 B69 B83 B97">
@@ -16941,14 +16941,14 @@
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="117"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="108"/>
       <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
@@ -17318,7 +17318,7 @@
         <f t="shared" si="1"/>
         <v>7.499999999519999E-2</v>
       </c>
-      <c r="H13" s="112">
+      <c r="H13" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I13" s="52">
@@ -17356,7 +17356,7 @@
         <f t="shared" si="1"/>
         <v>0.14999999999039998</v>
       </c>
-      <c r="H14" s="113"/>
+      <c r="H14" s="110"/>
       <c r="I14" s="52">
         <v>7.1999999999999995E-2</v>
       </c>
@@ -17390,7 +17390,7 @@
         <f t="shared" si="1"/>
         <v>0.39999999997440006</v>
       </c>
-      <c r="H15" s="113"/>
+      <c r="H15" s="110"/>
       <c r="I15" s="52">
         <v>8.8999999999999996E-2</v>
       </c>
@@ -17423,7 +17423,7 @@
         <f t="shared" si="1"/>
         <v>0.27499999998239999</v>
       </c>
-      <c r="H16" s="113"/>
+      <c r="H16" s="110"/>
       <c r="I16" s="52">
         <v>0.16400000000000001</v>
       </c>
@@ -17459,7 +17459,7 @@
         <f t="shared" si="1"/>
         <v>0.34999999997759995</v>
       </c>
-      <c r="H17" s="113"/>
+      <c r="H17" s="110"/>
       <c r="I17" s="52">
         <v>6.4000000000000001E-2</v>
       </c>
@@ -17469,10 +17469,10 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="106" t="s">
+      <c r="A18" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="109"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="46">
         <v>7</v>
       </c>
@@ -17492,7 +17492,7 @@
         <f t="shared" si="1"/>
         <v>0.37499999997600003</v>
       </c>
-      <c r="H18" s="113"/>
+      <c r="H18" s="110"/>
       <c r="I18" s="52">
         <v>7.0999999999999994E-2</v>
       </c>
@@ -17503,8 +17503,8 @@
       <c r="K18" s="58"/>
     </row>
     <row r="19" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="107"/>
-      <c r="B19" s="110"/>
+      <c r="A19" s="113"/>
+      <c r="B19" s="116"/>
       <c r="C19" s="46">
         <v>8</v>
       </c>
@@ -17524,7 +17524,7 @@
         <f t="shared" si="1"/>
         <v>0.37499999997600003</v>
       </c>
-      <c r="H19" s="113"/>
+      <c r="H19" s="110"/>
       <c r="I19" s="48">
         <v>7.5999999999999998E-2</v>
       </c>
@@ -17534,8 +17534,8 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="107"/>
-      <c r="B20" s="110"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="116"/>
       <c r="C20" s="46">
         <v>9</v>
       </c>
@@ -17555,7 +17555,7 @@
         <f t="shared" si="1"/>
         <v>0.34999999997759995</v>
       </c>
-      <c r="H20" s="113"/>
+      <c r="H20" s="110"/>
       <c r="I20" s="48">
         <v>4.2999999999999997E-2</v>
       </c>
@@ -17565,8 +17565,8 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="107"/>
-      <c r="B21" s="110"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="116"/>
       <c r="C21" s="46">
         <v>10</v>
       </c>
@@ -17586,7 +17586,7 @@
         <f t="shared" si="1"/>
         <v>0.32499999997920004</v>
       </c>
-      <c r="H21" s="114"/>
+      <c r="H21" s="111"/>
       <c r="I21" s="48">
         <v>0</v>
       </c>
@@ -17596,8 +17596,8 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="107"/>
-      <c r="B22" s="110"/>
+      <c r="A22" s="113"/>
+      <c r="B22" s="116"/>
       <c r="C22" s="67">
         <v>11</v>
       </c>
@@ -17627,8 +17627,8 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="107"/>
-      <c r="B23" s="110"/>
+      <c r="A23" s="113"/>
+      <c r="B23" s="116"/>
       <c r="C23" s="67">
         <v>12</v>
       </c>
@@ -17658,8 +17658,8 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="107"/>
-      <c r="B24" s="110"/>
+      <c r="A24" s="113"/>
+      <c r="B24" s="116"/>
       <c r="C24" s="67">
         <v>13</v>
       </c>
@@ -17689,8 +17689,8 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="107"/>
-      <c r="B25" s="110"/>
+      <c r="A25" s="113"/>
+      <c r="B25" s="116"/>
       <c r="C25" s="67">
         <v>14</v>
       </c>
@@ -17720,8 +17720,8 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="107"/>
-      <c r="B26" s="110"/>
+      <c r="A26" s="113"/>
+      <c r="B26" s="116"/>
       <c r="C26" s="67">
         <v>15</v>
       </c>
@@ -17751,8 +17751,8 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="108"/>
-      <c r="B27" s="111"/>
+      <c r="A27" s="114"/>
+      <c r="B27" s="117"/>
       <c r="C27" s="70"/>
       <c r="D27" s="70"/>
       <c r="E27" s="71"/>
@@ -17913,7 +17913,7 @@
         <f t="shared" si="7"/>
         <v>0.13749999999119999</v>
       </c>
-      <c r="H32" s="112">
+      <c r="H32" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I32" s="52">
@@ -17950,7 +17950,7 @@
         <f t="shared" si="7"/>
         <v>0.19499999998751999</v>
       </c>
-      <c r="H33" s="113"/>
+      <c r="H33" s="110"/>
       <c r="I33" s="52">
         <v>7.9000000000000001E-2</v>
       </c>
@@ -17983,7 +17983,7 @@
         <f t="shared" si="7"/>
         <v>0.39999999997440006</v>
       </c>
-      <c r="H34" s="113"/>
+      <c r="H34" s="110"/>
       <c r="I34" s="52">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -18016,7 +18016,7 @@
         <f t="shared" si="7"/>
         <v>0.27499999998239999</v>
       </c>
-      <c r="H35" s="113"/>
+      <c r="H35" s="110"/>
       <c r="I35" s="52">
         <v>0.11600000000000001</v>
       </c>
@@ -18051,7 +18051,7 @@
         <f t="shared" si="7"/>
         <v>0.25999999998335999</v>
       </c>
-      <c r="H36" s="113"/>
+      <c r="H36" s="110"/>
       <c r="I36" s="52">
         <v>0.11700000000000001</v>
       </c>
@@ -18061,10 +18061,10 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="106" t="s">
+      <c r="A37" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="109"/>
+      <c r="B37" s="115"/>
       <c r="C37" s="46">
         <v>7</v>
       </c>
@@ -18084,7 +18084,7 @@
         <f t="shared" si="7"/>
         <v>0.35999999997696003</v>
       </c>
-      <c r="H37" s="113"/>
+      <c r="H37" s="110"/>
       <c r="I37" s="52">
         <v>0.104</v>
       </c>
@@ -18094,8 +18094,8 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="107"/>
-      <c r="B38" s="110"/>
+      <c r="A38" s="113"/>
+      <c r="B38" s="116"/>
       <c r="C38" s="46">
         <v>8</v>
       </c>
@@ -18115,7 +18115,7 @@
         <f t="shared" si="7"/>
         <v>0.36499999997664001</v>
       </c>
-      <c r="H38" s="113"/>
+      <c r="H38" s="110"/>
       <c r="I38" s="48">
         <v>7.8E-2</v>
       </c>
@@ -18125,8 +18125,8 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="107"/>
-      <c r="B39" s="110"/>
+      <c r="A39" s="113"/>
+      <c r="B39" s="116"/>
       <c r="C39" s="46">
         <v>9</v>
       </c>
@@ -18146,7 +18146,7 @@
         <f t="shared" si="7"/>
         <v>0.36499999997664001</v>
       </c>
-      <c r="H39" s="113"/>
+      <c r="H39" s="110"/>
       <c r="I39" s="48">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -18156,8 +18156,8 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="107"/>
-      <c r="B40" s="110"/>
+      <c r="A40" s="113"/>
+      <c r="B40" s="116"/>
       <c r="C40" s="46">
         <v>10</v>
       </c>
@@ -18177,7 +18177,7 @@
         <f t="shared" si="7"/>
         <v>0.34999999997759995</v>
       </c>
-      <c r="H40" s="114"/>
+      <c r="H40" s="111"/>
       <c r="I40" s="48">
         <v>0</v>
       </c>
@@ -18187,8 +18187,8 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="107"/>
-      <c r="B41" s="110"/>
+      <c r="A41" s="113"/>
+      <c r="B41" s="116"/>
       <c r="C41" s="67">
         <v>11</v>
       </c>
@@ -18218,8 +18218,8 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="107"/>
-      <c r="B42" s="110"/>
+      <c r="A42" s="113"/>
+      <c r="B42" s="116"/>
       <c r="C42" s="67">
         <v>12</v>
       </c>
@@ -18249,8 +18249,8 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="107"/>
-      <c r="B43" s="110"/>
+      <c r="A43" s="113"/>
+      <c r="B43" s="116"/>
       <c r="C43" s="67">
         <v>13</v>
       </c>
@@ -18280,8 +18280,8 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="107"/>
-      <c r="B44" s="110"/>
+      <c r="A44" s="113"/>
+      <c r="B44" s="116"/>
       <c r="C44" s="67">
         <v>14</v>
       </c>
@@ -18311,8 +18311,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="107"/>
-      <c r="B45" s="110"/>
+      <c r="A45" s="113"/>
+      <c r="B45" s="116"/>
       <c r="C45" s="67">
         <v>15</v>
       </c>
@@ -18342,8 +18342,8 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="108"/>
-      <c r="B46" s="111"/>
+      <c r="A46" s="114"/>
+      <c r="B46" s="117"/>
       <c r="C46" s="70"/>
       <c r="D46" s="70"/>
       <c r="E46" s="71"/>
@@ -18477,7 +18477,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H51" s="112">
+      <c r="H51" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I51" s="85"/>
@@ -18507,7 +18507,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H52" s="113"/>
+      <c r="H52" s="110"/>
       <c r="I52" s="85"/>
       <c r="J52" s="53" t="e">
         <f t="shared" si="13"/>
@@ -18535,7 +18535,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H53" s="113"/>
+      <c r="H53" s="110"/>
       <c r="I53" s="85"/>
       <c r="J53" s="53" t="e">
         <f t="shared" si="13"/>
@@ -18563,7 +18563,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H54" s="113"/>
+      <c r="H54" s="110"/>
       <c r="I54" s="85"/>
       <c r="J54" s="53" t="e">
         <f t="shared" si="13"/>
@@ -18591,7 +18591,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H55" s="113"/>
+      <c r="H55" s="110"/>
       <c r="I55" s="85"/>
       <c r="J55" s="53" t="e">
         <f t="shared" si="13"/>
@@ -18599,10 +18599,10 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="106" t="s">
+      <c r="A56" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="109"/>
+      <c r="B56" s="115"/>
       <c r="C56" s="46">
         <v>7</v>
       </c>
@@ -18619,7 +18619,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H56" s="113"/>
+      <c r="H56" s="110"/>
       <c r="I56" s="85"/>
       <c r="J56" s="53" t="e">
         <f t="shared" si="13"/>
@@ -18627,8 +18627,8 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="107"/>
-      <c r="B57" s="110"/>
+      <c r="A57" s="113"/>
+      <c r="B57" s="116"/>
       <c r="C57" s="46">
         <v>8</v>
       </c>
@@ -18645,7 +18645,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H57" s="113"/>
+      <c r="H57" s="110"/>
       <c r="I57" s="47"/>
       <c r="J57" s="53" t="e">
         <f t="shared" si="13"/>
@@ -18653,8 +18653,8 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="107"/>
-      <c r="B58" s="110"/>
+      <c r="A58" s="113"/>
+      <c r="B58" s="116"/>
       <c r="C58" s="46">
         <v>9</v>
       </c>
@@ -18671,7 +18671,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H58" s="113"/>
+      <c r="H58" s="110"/>
       <c r="I58" s="47"/>
       <c r="J58" s="53" t="e">
         <f t="shared" si="13"/>
@@ -18679,8 +18679,8 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="107"/>
-      <c r="B59" s="110"/>
+      <c r="A59" s="113"/>
+      <c r="B59" s="116"/>
       <c r="C59" s="46">
         <v>10</v>
       </c>
@@ -18697,7 +18697,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H59" s="114"/>
+      <c r="H59" s="111"/>
       <c r="I59" s="47"/>
       <c r="J59" s="53" t="e">
         <f t="shared" si="13"/>
@@ -18705,8 +18705,8 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="108"/>
-      <c r="B60" s="111"/>
+      <c r="A60" s="114"/>
+      <c r="B60" s="117"/>
       <c r="C60" s="70"/>
       <c r="D60" s="70"/>
       <c r="E60" s="71"/>
@@ -18840,7 +18840,7 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H65" s="112">
+      <c r="H65" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I65" s="85"/>
@@ -18870,7 +18870,7 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H66" s="113"/>
+      <c r="H66" s="110"/>
       <c r="I66" s="85"/>
       <c r="J66" s="53" t="e">
         <f t="shared" si="16"/>
@@ -18898,7 +18898,7 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H67" s="113"/>
+      <c r="H67" s="110"/>
       <c r="I67" s="85"/>
       <c r="J67" s="53" t="e">
         <f t="shared" si="16"/>
@@ -18926,7 +18926,7 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H68" s="113"/>
+      <c r="H68" s="110"/>
       <c r="I68" s="85"/>
       <c r="J68" s="53" t="e">
         <f t="shared" si="16"/>
@@ -18954,7 +18954,7 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H69" s="113"/>
+      <c r="H69" s="110"/>
       <c r="I69" s="85"/>
       <c r="J69" s="53" t="e">
         <f t="shared" si="16"/>
@@ -18962,10 +18962,10 @@
       </c>
     </row>
     <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="106" t="s">
+      <c r="A70" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B70" s="109"/>
+      <c r="B70" s="115"/>
       <c r="C70" s="46">
         <v>7</v>
       </c>
@@ -18982,7 +18982,7 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H70" s="113"/>
+      <c r="H70" s="110"/>
       <c r="I70" s="85"/>
       <c r="J70" s="53" t="e">
         <f t="shared" si="16"/>
@@ -18990,8 +18990,8 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="107"/>
-      <c r="B71" s="110"/>
+      <c r="A71" s="113"/>
+      <c r="B71" s="116"/>
       <c r="C71" s="46">
         <v>8</v>
       </c>
@@ -19008,7 +19008,7 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H71" s="113"/>
+      <c r="H71" s="110"/>
       <c r="I71" s="47"/>
       <c r="J71" s="53" t="e">
         <f t="shared" si="16"/>
@@ -19016,8 +19016,8 @@
       </c>
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="107"/>
-      <c r="B72" s="110"/>
+      <c r="A72" s="113"/>
+      <c r="B72" s="116"/>
       <c r="C72" s="46">
         <v>9</v>
       </c>
@@ -19034,7 +19034,7 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H72" s="113"/>
+      <c r="H72" s="110"/>
       <c r="I72" s="47"/>
       <c r="J72" s="53" t="e">
         <f t="shared" si="16"/>
@@ -19042,8 +19042,8 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="107"/>
-      <c r="B73" s="110"/>
+      <c r="A73" s="113"/>
+      <c r="B73" s="116"/>
       <c r="C73" s="46">
         <v>10</v>
       </c>
@@ -19060,7 +19060,7 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H73" s="114"/>
+      <c r="H73" s="111"/>
       <c r="I73" s="47"/>
       <c r="J73" s="53" t="e">
         <f t="shared" si="16"/>
@@ -19068,8 +19068,8 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="108"/>
-      <c r="B74" s="111"/>
+      <c r="A74" s="114"/>
+      <c r="B74" s="117"/>
       <c r="C74" s="70"/>
       <c r="D74" s="70"/>
       <c r="E74" s="71"/>
@@ -19203,7 +19203,7 @@
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H79" s="112">
+      <c r="H79" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I79" s="85"/>
@@ -19233,7 +19233,7 @@
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H80" s="113"/>
+      <c r="H80" s="110"/>
       <c r="I80" s="85"/>
       <c r="J80" s="53" t="e">
         <f t="shared" si="19"/>
@@ -19261,7 +19261,7 @@
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H81" s="113"/>
+      <c r="H81" s="110"/>
       <c r="I81" s="85"/>
       <c r="J81" s="53" t="e">
         <f t="shared" si="19"/>
@@ -19289,7 +19289,7 @@
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H82" s="113"/>
+      <c r="H82" s="110"/>
       <c r="I82" s="85"/>
       <c r="J82" s="53" t="e">
         <f t="shared" si="19"/>
@@ -19317,7 +19317,7 @@
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H83" s="113"/>
+      <c r="H83" s="110"/>
       <c r="I83" s="85"/>
       <c r="J83" s="53" t="e">
         <f t="shared" si="19"/>
@@ -19325,10 +19325,10 @@
       </c>
     </row>
     <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="106" t="s">
+      <c r="A84" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B84" s="109"/>
+      <c r="B84" s="115"/>
       <c r="C84" s="46">
         <v>7</v>
       </c>
@@ -19345,7 +19345,7 @@
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H84" s="113"/>
+      <c r="H84" s="110"/>
       <c r="I84" s="85"/>
       <c r="J84" s="53" t="e">
         <f t="shared" si="19"/>
@@ -19353,8 +19353,8 @@
       </c>
     </row>
     <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="107"/>
-      <c r="B85" s="110"/>
+      <c r="A85" s="113"/>
+      <c r="B85" s="116"/>
       <c r="C85" s="46">
         <v>8</v>
       </c>
@@ -19371,7 +19371,7 @@
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H85" s="113"/>
+      <c r="H85" s="110"/>
       <c r="I85" s="47"/>
       <c r="J85" s="53" t="e">
         <f t="shared" si="19"/>
@@ -19379,8 +19379,8 @@
       </c>
     </row>
     <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="107"/>
-      <c r="B86" s="110"/>
+      <c r="A86" s="113"/>
+      <c r="B86" s="116"/>
       <c r="C86" s="46">
         <v>9</v>
       </c>
@@ -19397,7 +19397,7 @@
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H86" s="113"/>
+      <c r="H86" s="110"/>
       <c r="I86" s="47"/>
       <c r="J86" s="53" t="e">
         <f t="shared" si="19"/>
@@ -19405,8 +19405,8 @@
       </c>
     </row>
     <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="107"/>
-      <c r="B87" s="110"/>
+      <c r="A87" s="113"/>
+      <c r="B87" s="116"/>
       <c r="C87" s="46">
         <v>10</v>
       </c>
@@ -19423,7 +19423,7 @@
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H87" s="114"/>
+      <c r="H87" s="111"/>
       <c r="I87" s="47"/>
       <c r="J87" s="53" t="e">
         <f t="shared" si="19"/>
@@ -19431,8 +19431,8 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="108"/>
-      <c r="B88" s="111"/>
+      <c r="A88" s="114"/>
+      <c r="B88" s="117"/>
       <c r="C88" s="70"/>
       <c r="D88" s="70"/>
       <c r="E88" s="71"/>
@@ -19566,7 +19566,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H93" s="112">
+      <c r="H93" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I93" s="85"/>
@@ -19596,7 +19596,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H94" s="113"/>
+      <c r="H94" s="110"/>
       <c r="I94" s="85"/>
       <c r="J94" s="53" t="e">
         <f t="shared" si="22"/>
@@ -19624,7 +19624,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H95" s="113"/>
+      <c r="H95" s="110"/>
       <c r="I95" s="85"/>
       <c r="J95" s="53" t="e">
         <f t="shared" si="22"/>
@@ -19652,7 +19652,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H96" s="113"/>
+      <c r="H96" s="110"/>
       <c r="I96" s="85"/>
       <c r="J96" s="53" t="e">
         <f t="shared" si="22"/>
@@ -19680,7 +19680,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H97" s="113"/>
+      <c r="H97" s="110"/>
       <c r="I97" s="85"/>
       <c r="J97" s="53" t="e">
         <f t="shared" si="22"/>
@@ -19688,10 +19688,10 @@
       </c>
     </row>
     <row r="98" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="106" t="s">
+      <c r="A98" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B98" s="109"/>
+      <c r="B98" s="115"/>
       <c r="C98" s="46">
         <v>7</v>
       </c>
@@ -19708,7 +19708,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H98" s="113"/>
+      <c r="H98" s="110"/>
       <c r="I98" s="85"/>
       <c r="J98" s="53" t="e">
         <f t="shared" si="22"/>
@@ -19716,8 +19716,8 @@
       </c>
     </row>
     <row r="99" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="107"/>
-      <c r="B99" s="110"/>
+      <c r="A99" s="113"/>
+      <c r="B99" s="116"/>
       <c r="C99" s="46">
         <v>8</v>
       </c>
@@ -19734,7 +19734,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H99" s="113"/>
+      <c r="H99" s="110"/>
       <c r="I99" s="47"/>
       <c r="J99" s="53" t="e">
         <f t="shared" si="22"/>
@@ -19742,8 +19742,8 @@
       </c>
     </row>
     <row r="100" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="107"/>
-      <c r="B100" s="110"/>
+      <c r="A100" s="113"/>
+      <c r="B100" s="116"/>
       <c r="C100" s="46">
         <v>9</v>
       </c>
@@ -19760,7 +19760,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H100" s="113"/>
+      <c r="H100" s="110"/>
       <c r="I100" s="47"/>
       <c r="J100" s="53" t="e">
         <f t="shared" si="22"/>
@@ -19768,8 +19768,8 @@
       </c>
     </row>
     <row r="101" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="107"/>
-      <c r="B101" s="110"/>
+      <c r="A101" s="113"/>
+      <c r="B101" s="116"/>
       <c r="C101" s="46">
         <v>10</v>
       </c>
@@ -19786,7 +19786,7 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H101" s="114"/>
+      <c r="H101" s="111"/>
       <c r="I101" s="47"/>
       <c r="J101" s="53" t="e">
         <f t="shared" si="22"/>
@@ -19794,8 +19794,8 @@
       </c>
     </row>
     <row r="102" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="108"/>
-      <c r="B102" s="111"/>
+      <c r="A102" s="114"/>
+      <c r="B102" s="117"/>
       <c r="C102" s="70"/>
       <c r="D102" s="70"/>
       <c r="E102" s="71"/>
@@ -20725,12 +20725,6 @@
     <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H13:H21"/>
-    <mergeCell ref="A18:A27"/>
-    <mergeCell ref="B18:B27"/>
-    <mergeCell ref="H32:H40"/>
-    <mergeCell ref="B37:B46"/>
     <mergeCell ref="A98:A102"/>
     <mergeCell ref="B98:B102"/>
     <mergeCell ref="H51:H59"/>
@@ -20738,12 +20732,18 @@
     <mergeCell ref="H79:H87"/>
     <mergeCell ref="H93:H101"/>
     <mergeCell ref="B56:B60"/>
-    <mergeCell ref="A37:A46"/>
     <mergeCell ref="A56:A60"/>
     <mergeCell ref="A70:A74"/>
     <mergeCell ref="B70:B74"/>
     <mergeCell ref="A84:A88"/>
     <mergeCell ref="B84:B88"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H13:H21"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="B18:B27"/>
+    <mergeCell ref="H32:H40"/>
+    <mergeCell ref="B37:B46"/>
+    <mergeCell ref="A37:A46"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B17 B36 B55 B69 B83 B97">
@@ -20781,14 +20781,14 @@
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="117"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="108"/>
       <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
@@ -21160,7 +21160,7 @@
         <f t="shared" si="1"/>
         <v>4.7727272724218194E-2</v>
       </c>
-      <c r="H13" s="112">
+      <c r="H13" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I13" s="52">
@@ -21198,7 +21198,7 @@
         <f t="shared" si="1"/>
         <v>4.7727272724218194E-2</v>
       </c>
-      <c r="H14" s="113"/>
+      <c r="H14" s="110"/>
       <c r="I14" s="52">
         <v>1.1970000000000001</v>
       </c>
@@ -21232,7 +21232,7 @@
         <f t="shared" si="1"/>
         <v>4.7727272724218194E-2</v>
       </c>
-      <c r="H15" s="113"/>
+      <c r="H15" s="110"/>
       <c r="I15" s="52">
         <v>1.1659999999999999</v>
       </c>
@@ -21265,7 +21265,7 @@
         <f t="shared" si="1"/>
         <v>4.7727272724218194E-2</v>
       </c>
-      <c r="H16" s="113"/>
+      <c r="H16" s="110"/>
       <c r="I16" s="52">
         <v>1.2150000000000001</v>
       </c>
@@ -21301,7 +21301,7 @@
         <f t="shared" si="1"/>
         <v>4.7727272724218194E-2</v>
       </c>
-      <c r="H17" s="113"/>
+      <c r="H17" s="110"/>
       <c r="I17" s="52">
         <v>1.04</v>
       </c>
@@ -21311,10 +21311,10 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="106" t="s">
+      <c r="A18" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="109"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="46">
         <v>7</v>
       </c>
@@ -21334,7 +21334,7 @@
         <f t="shared" si="1"/>
         <v>4.7727272724218194E-2</v>
       </c>
-      <c r="H18" s="113"/>
+      <c r="H18" s="110"/>
       <c r="I18" s="52">
         <v>1.0469999999999999</v>
       </c>
@@ -21345,8 +21345,8 @@
       <c r="K18" s="58"/>
     </row>
     <row r="19" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="107"/>
-      <c r="B19" s="110"/>
+      <c r="A19" s="113"/>
+      <c r="B19" s="116"/>
       <c r="C19" s="46">
         <v>8</v>
       </c>
@@ -21366,7 +21366,7 @@
         <f t="shared" si="1"/>
         <v>4.7727272724218194E-2</v>
       </c>
-      <c r="H19" s="113"/>
+      <c r="H19" s="110"/>
       <c r="I19" s="48">
         <v>0.183</v>
       </c>
@@ -21376,8 +21376,8 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="107"/>
-      <c r="B20" s="110"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="116"/>
       <c r="C20" s="46">
         <v>9</v>
       </c>
@@ -21397,7 +21397,7 @@
         <f t="shared" si="1"/>
         <v>2.3863636362109097E-2</v>
       </c>
-      <c r="H20" s="113"/>
+      <c r="H20" s="110"/>
       <c r="I20" s="48">
         <v>0.379</v>
       </c>
@@ -21407,8 +21407,8 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="107"/>
-      <c r="B21" s="110"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="116"/>
       <c r="C21" s="46">
         <v>10</v>
       </c>
@@ -21427,7 +21427,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H21" s="114"/>
+      <c r="H21" s="111"/>
       <c r="I21" s="48">
         <v>0</v>
       </c>
@@ -21437,8 +21437,8 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="107"/>
-      <c r="B22" s="110"/>
+      <c r="A22" s="113"/>
+      <c r="B22" s="116"/>
       <c r="C22" s="67">
         <v>11</v>
       </c>
@@ -21467,8 +21467,8 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="108"/>
-      <c r="B23" s="111"/>
+      <c r="A23" s="114"/>
+      <c r="B23" s="117"/>
       <c r="C23" s="70"/>
       <c r="D23" s="70"/>
       <c r="E23" s="71"/>
@@ -21627,7 +21627,7 @@
         <f t="shared" si="5"/>
         <v>4.9999999996799993E-2</v>
       </c>
-      <c r="H28" s="112">
+      <c r="H28" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I28" s="52">
@@ -21663,7 +21663,7 @@
         <f t="shared" si="5"/>
         <v>4.9999999996799993E-2</v>
       </c>
-      <c r="H29" s="113"/>
+      <c r="H29" s="110"/>
       <c r="I29" s="52">
         <v>0.66700000000000004</v>
       </c>
@@ -21695,7 +21695,7 @@
         <f t="shared" si="5"/>
         <v>4.9999999996799993E-2</v>
       </c>
-      <c r="H30" s="113"/>
+      <c r="H30" s="110"/>
       <c r="I30" s="52">
         <v>1.004</v>
       </c>
@@ -21727,7 +21727,7 @@
         <f t="shared" si="5"/>
         <v>7.4999999995200003E-2</v>
       </c>
-      <c r="H31" s="113"/>
+      <c r="H31" s="110"/>
       <c r="I31" s="52">
         <v>0.94899999999999995</v>
       </c>
@@ -21761,7 +21761,7 @@
         <f t="shared" si="5"/>
         <v>7.4999999995200003E-2</v>
       </c>
-      <c r="H32" s="113"/>
+      <c r="H32" s="110"/>
       <c r="I32" s="52">
         <v>0.77500000000000002</v>
       </c>
@@ -21771,10 +21771,10 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="106" t="s">
+      <c r="A33" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="109"/>
+      <c r="B33" s="115"/>
       <c r="C33" s="46">
         <v>7</v>
       </c>
@@ -21793,7 +21793,7 @@
         <f t="shared" si="5"/>
         <v>4.9999999996799993E-2</v>
       </c>
-      <c r="H33" s="113"/>
+      <c r="H33" s="110"/>
       <c r="I33" s="52">
         <v>0.68799999999999994</v>
       </c>
@@ -21803,8 +21803,8 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="107"/>
-      <c r="B34" s="110"/>
+      <c r="A34" s="113"/>
+      <c r="B34" s="116"/>
       <c r="C34" s="46">
         <v>8</v>
       </c>
@@ -21823,7 +21823,7 @@
         <f t="shared" si="5"/>
         <v>4.9999999996799993E-2</v>
       </c>
-      <c r="H34" s="113"/>
+      <c r="H34" s="110"/>
       <c r="I34" s="48">
         <v>0.58099999999999996</v>
       </c>
@@ -21833,8 +21833,8 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="107"/>
-      <c r="B35" s="110"/>
+      <c r="A35" s="113"/>
+      <c r="B35" s="116"/>
       <c r="C35" s="46">
         <v>9</v>
       </c>
@@ -21853,7 +21853,7 @@
         <f t="shared" si="5"/>
         <v>2.4999999998399997E-2</v>
       </c>
-      <c r="H35" s="113"/>
+      <c r="H35" s="110"/>
       <c r="I35" s="48">
         <v>3.7999999999999999E-2</v>
       </c>
@@ -21863,8 +21863,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="107"/>
-      <c r="B36" s="110"/>
+      <c r="A36" s="113"/>
+      <c r="B36" s="116"/>
       <c r="C36" s="46">
         <v>10</v>
       </c>
@@ -21883,7 +21883,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H36" s="114"/>
+      <c r="H36" s="111"/>
       <c r="I36" s="48">
         <v>0</v>
       </c>
@@ -21893,8 +21893,8 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="108"/>
-      <c r="B37" s="111"/>
+      <c r="A37" s="114"/>
+      <c r="B37" s="117"/>
       <c r="C37" s="70"/>
       <c r="D37" s="70"/>
       <c r="E37" s="71"/>
@@ -22042,7 +22042,7 @@
         <f t="shared" si="8"/>
         <v>4.9999999996799993E-2</v>
       </c>
-      <c r="H42" s="112">
+      <c r="H42" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I42" s="52">
@@ -22078,7 +22078,7 @@
         <f t="shared" si="8"/>
         <v>4.9999999996799993E-2</v>
       </c>
-      <c r="H43" s="113"/>
+      <c r="H43" s="110"/>
       <c r="I43" s="52">
         <v>0.68799999999999994</v>
       </c>
@@ -22110,7 +22110,7 @@
         <f t="shared" si="8"/>
         <v>4.9999999996799993E-2</v>
       </c>
-      <c r="H44" s="113"/>
+      <c r="H44" s="110"/>
       <c r="I44" s="52">
         <v>0.72</v>
       </c>
@@ -22142,7 +22142,7 @@
         <f t="shared" si="8"/>
         <v>4.9999999996799993E-2</v>
       </c>
-      <c r="H45" s="113"/>
+      <c r="H45" s="110"/>
       <c r="I45" s="52">
         <v>0.77700000000000002</v>
       </c>
@@ -22176,7 +22176,7 @@
         <f t="shared" si="8"/>
         <v>4.9999999996799993E-2</v>
       </c>
-      <c r="H46" s="113"/>
+      <c r="H46" s="110"/>
       <c r="I46" s="52">
         <v>0.68300000000000005</v>
       </c>
@@ -22186,10 +22186,10 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="106" t="s">
+      <c r="A47" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="109"/>
+      <c r="B47" s="115"/>
       <c r="C47" s="46">
         <v>7</v>
       </c>
@@ -22208,7 +22208,7 @@
         <f t="shared" si="8"/>
         <v>4.9999999996799993E-2</v>
       </c>
-      <c r="H47" s="113"/>
+      <c r="H47" s="110"/>
       <c r="I47" s="52">
         <v>0.77300000000000002</v>
       </c>
@@ -22218,8 +22218,8 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="107"/>
-      <c r="B48" s="110"/>
+      <c r="A48" s="113"/>
+      <c r="B48" s="116"/>
       <c r="C48" s="46">
         <v>8</v>
       </c>
@@ -22239,7 +22239,7 @@
         <f t="shared" si="8"/>
         <v>2.4999999998400003E-2</v>
       </c>
-      <c r="H48" s="113"/>
+      <c r="H48" s="110"/>
       <c r="I48" s="48">
         <v>0.45600000000000002</v>
       </c>
@@ -22249,8 +22249,8 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="107"/>
-      <c r="B49" s="110"/>
+      <c r="A49" s="113"/>
+      <c r="B49" s="116"/>
       <c r="C49" s="46">
         <v>9</v>
       </c>
@@ -22270,7 +22270,7 @@
         <f t="shared" si="8"/>
         <v>2.4999999998400003E-2</v>
       </c>
-      <c r="H49" s="113"/>
+      <c r="H49" s="110"/>
       <c r="I49" s="48">
         <v>0.56999999999999995</v>
       </c>
@@ -22280,8 +22280,8 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="107"/>
-      <c r="B50" s="110"/>
+      <c r="A50" s="113"/>
+      <c r="B50" s="116"/>
       <c r="C50" s="46">
         <v>10</v>
       </c>
@@ -22300,7 +22300,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H50" s="114"/>
+      <c r="H50" s="111"/>
       <c r="I50" s="48">
         <v>0</v>
       </c>
@@ -22310,8 +22310,8 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="108"/>
-      <c r="B51" s="111"/>
+      <c r="A51" s="114"/>
+      <c r="B51" s="117"/>
       <c r="C51" s="70"/>
       <c r="D51" s="70"/>
       <c r="E51" s="71"/>
@@ -22445,7 +22445,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H56" s="112">
+      <c r="H56" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I56" s="85"/>
@@ -22475,7 +22475,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H57" s="113"/>
+      <c r="H57" s="110"/>
       <c r="I57" s="85"/>
       <c r="J57" s="53" t="e">
         <f t="shared" si="13"/>
@@ -22503,7 +22503,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H58" s="113"/>
+      <c r="H58" s="110"/>
       <c r="I58" s="85"/>
       <c r="J58" s="53" t="e">
         <f t="shared" si="13"/>
@@ -22531,7 +22531,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H59" s="113"/>
+      <c r="H59" s="110"/>
       <c r="I59" s="85"/>
       <c r="J59" s="53" t="e">
         <f t="shared" si="13"/>
@@ -22559,7 +22559,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H60" s="113"/>
+      <c r="H60" s="110"/>
       <c r="I60" s="85"/>
       <c r="J60" s="53" t="e">
         <f t="shared" si="13"/>
@@ -22567,10 +22567,10 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="106" t="s">
+      <c r="A61" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B61" s="109"/>
+      <c r="B61" s="115"/>
       <c r="C61" s="46">
         <v>7</v>
       </c>
@@ -22587,7 +22587,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H61" s="113"/>
+      <c r="H61" s="110"/>
       <c r="I61" s="85"/>
       <c r="J61" s="53" t="e">
         <f t="shared" si="13"/>
@@ -22595,8 +22595,8 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="107"/>
-      <c r="B62" s="110"/>
+      <c r="A62" s="113"/>
+      <c r="B62" s="116"/>
       <c r="C62" s="46">
         <v>8</v>
       </c>
@@ -22613,7 +22613,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H62" s="113"/>
+      <c r="H62" s="110"/>
       <c r="I62" s="47"/>
       <c r="J62" s="53" t="e">
         <f t="shared" si="13"/>
@@ -22621,8 +22621,8 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="107"/>
-      <c r="B63" s="110"/>
+      <c r="A63" s="113"/>
+      <c r="B63" s="116"/>
       <c r="C63" s="46">
         <v>9</v>
       </c>
@@ -22639,7 +22639,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H63" s="113"/>
+      <c r="H63" s="110"/>
       <c r="I63" s="47"/>
       <c r="J63" s="53" t="e">
         <f t="shared" si="13"/>
@@ -22647,8 +22647,8 @@
       </c>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="107"/>
-      <c r="B64" s="110"/>
+      <c r="A64" s="113"/>
+      <c r="B64" s="116"/>
       <c r="C64" s="46">
         <v>10</v>
       </c>
@@ -22665,7 +22665,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H64" s="114"/>
+      <c r="H64" s="111"/>
       <c r="I64" s="47"/>
       <c r="J64" s="53" t="e">
         <f t="shared" si="13"/>
@@ -22673,8 +22673,8 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="108"/>
-      <c r="B65" s="111"/>
+      <c r="A65" s="114"/>
+      <c r="B65" s="117"/>
       <c r="C65" s="70"/>
       <c r="D65" s="70"/>
       <c r="E65" s="71"/>
@@ -22808,7 +22808,7 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H70" s="112">
+      <c r="H70" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I70" s="85"/>
@@ -22838,7 +22838,7 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H71" s="113"/>
+      <c r="H71" s="110"/>
       <c r="I71" s="85"/>
       <c r="J71" s="53" t="e">
         <f t="shared" si="16"/>
@@ -22866,7 +22866,7 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H72" s="113"/>
+      <c r="H72" s="110"/>
       <c r="I72" s="85"/>
       <c r="J72" s="53" t="e">
         <f t="shared" si="16"/>
@@ -22894,7 +22894,7 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H73" s="113"/>
+      <c r="H73" s="110"/>
       <c r="I73" s="85"/>
       <c r="J73" s="53" t="e">
         <f t="shared" si="16"/>
@@ -22922,7 +22922,7 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H74" s="113"/>
+      <c r="H74" s="110"/>
       <c r="I74" s="85"/>
       <c r="J74" s="53" t="e">
         <f t="shared" si="16"/>
@@ -22930,10 +22930,10 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="106" t="s">
+      <c r="A75" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B75" s="109"/>
+      <c r="B75" s="115"/>
       <c r="C75" s="46">
         <v>7</v>
       </c>
@@ -22950,7 +22950,7 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H75" s="113"/>
+      <c r="H75" s="110"/>
       <c r="I75" s="85"/>
       <c r="J75" s="53" t="e">
         <f t="shared" si="16"/>
@@ -22958,8 +22958,8 @@
       </c>
     </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="107"/>
-      <c r="B76" s="110"/>
+      <c r="A76" s="113"/>
+      <c r="B76" s="116"/>
       <c r="C76" s="46">
         <v>8</v>
       </c>
@@ -22976,7 +22976,7 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H76" s="113"/>
+      <c r="H76" s="110"/>
       <c r="I76" s="47"/>
       <c r="J76" s="53" t="e">
         <f t="shared" si="16"/>
@@ -22984,8 +22984,8 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="107"/>
-      <c r="B77" s="110"/>
+      <c r="A77" s="113"/>
+      <c r="B77" s="116"/>
       <c r="C77" s="46">
         <v>9</v>
       </c>
@@ -23002,7 +23002,7 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H77" s="113"/>
+      <c r="H77" s="110"/>
       <c r="I77" s="47"/>
       <c r="J77" s="53" t="e">
         <f t="shared" si="16"/>
@@ -23010,8 +23010,8 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="107"/>
-      <c r="B78" s="110"/>
+      <c r="A78" s="113"/>
+      <c r="B78" s="116"/>
       <c r="C78" s="46">
         <v>10</v>
       </c>
@@ -23028,7 +23028,7 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H78" s="114"/>
+      <c r="H78" s="111"/>
       <c r="I78" s="47"/>
       <c r="J78" s="53" t="e">
         <f t="shared" si="16"/>
@@ -23036,8 +23036,8 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="108"/>
-      <c r="B79" s="111"/>
+      <c r="A79" s="114"/>
+      <c r="B79" s="117"/>
       <c r="C79" s="70"/>
       <c r="D79" s="70"/>
       <c r="E79" s="71"/>
@@ -23171,7 +23171,7 @@
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H84" s="112">
+      <c r="H84" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I84" s="85"/>
@@ -23201,7 +23201,7 @@
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H85" s="113"/>
+      <c r="H85" s="110"/>
       <c r="I85" s="85"/>
       <c r="J85" s="53" t="e">
         <f t="shared" si="19"/>
@@ -23229,7 +23229,7 @@
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H86" s="113"/>
+      <c r="H86" s="110"/>
       <c r="I86" s="85"/>
       <c r="J86" s="53" t="e">
         <f t="shared" si="19"/>
@@ -23257,7 +23257,7 @@
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H87" s="113"/>
+      <c r="H87" s="110"/>
       <c r="I87" s="85"/>
       <c r="J87" s="53" t="e">
         <f t="shared" si="19"/>
@@ -23285,7 +23285,7 @@
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H88" s="113"/>
+      <c r="H88" s="110"/>
       <c r="I88" s="85"/>
       <c r="J88" s="53" t="e">
         <f t="shared" si="19"/>
@@ -23293,10 +23293,10 @@
       </c>
     </row>
     <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="106" t="s">
+      <c r="A89" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B89" s="109"/>
+      <c r="B89" s="115"/>
       <c r="C89" s="46">
         <v>7</v>
       </c>
@@ -23313,7 +23313,7 @@
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H89" s="113"/>
+      <c r="H89" s="110"/>
       <c r="I89" s="85"/>
       <c r="J89" s="53" t="e">
         <f t="shared" si="19"/>
@@ -23321,8 +23321,8 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="107"/>
-      <c r="B90" s="110"/>
+      <c r="A90" s="113"/>
+      <c r="B90" s="116"/>
       <c r="C90" s="46">
         <v>8</v>
       </c>
@@ -23339,7 +23339,7 @@
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H90" s="113"/>
+      <c r="H90" s="110"/>
       <c r="I90" s="47"/>
       <c r="J90" s="53" t="e">
         <f t="shared" si="19"/>
@@ -23347,8 +23347,8 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="107"/>
-      <c r="B91" s="110"/>
+      <c r="A91" s="113"/>
+      <c r="B91" s="116"/>
       <c r="C91" s="46">
         <v>9</v>
       </c>
@@ -23365,7 +23365,7 @@
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H91" s="113"/>
+      <c r="H91" s="110"/>
       <c r="I91" s="47"/>
       <c r="J91" s="53" t="e">
         <f t="shared" si="19"/>
@@ -23373,8 +23373,8 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="107"/>
-      <c r="B92" s="110"/>
+      <c r="A92" s="113"/>
+      <c r="B92" s="116"/>
       <c r="C92" s="46">
         <v>10</v>
       </c>
@@ -23391,7 +23391,7 @@
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H92" s="114"/>
+      <c r="H92" s="111"/>
       <c r="I92" s="47"/>
       <c r="J92" s="53" t="e">
         <f t="shared" si="19"/>
@@ -23399,8 +23399,8 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="108"/>
-      <c r="B93" s="111"/>
+      <c r="A93" s="114"/>
+      <c r="B93" s="117"/>
       <c r="C93" s="70"/>
       <c r="D93" s="70"/>
       <c r="E93" s="71"/>
@@ -24330,12 +24330,6 @@
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H13:H21"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="H28:H36"/>
-    <mergeCell ref="B33:B37"/>
     <mergeCell ref="A89:A93"/>
     <mergeCell ref="B89:B93"/>
     <mergeCell ref="H42:H50"/>
@@ -24343,12 +24337,18 @@
     <mergeCell ref="H70:H78"/>
     <mergeCell ref="H84:H92"/>
     <mergeCell ref="B47:B51"/>
-    <mergeCell ref="A33:A37"/>
     <mergeCell ref="A47:A51"/>
     <mergeCell ref="A61:A65"/>
     <mergeCell ref="B61:B65"/>
     <mergeCell ref="A75:A79"/>
     <mergeCell ref="B75:B79"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H13:H21"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="H28:H36"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A33:A37"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B17 B32 B46 B60 B74 B88">
@@ -24384,14 +24384,14 @@
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="117"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="108"/>
       <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
@@ -24743,7 +24743,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="112">
+      <c r="H13" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I13" s="94"/>
@@ -24774,7 +24774,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="113"/>
+      <c r="H14" s="110"/>
       <c r="I14" s="94"/>
       <c r="J14" s="53" t="e">
         <f t="shared" si="2"/>
@@ -24803,7 +24803,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="113"/>
+      <c r="H15" s="110"/>
       <c r="I15" s="94"/>
       <c r="J15" s="53" t="e">
         <f t="shared" si="2"/>
@@ -24831,7 +24831,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="113"/>
+      <c r="H16" s="110"/>
       <c r="I16" s="94"/>
       <c r="J16" s="53" t="e">
         <f t="shared" si="2"/>
@@ -24862,7 +24862,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="113"/>
+      <c r="H17" s="110"/>
       <c r="I17" s="94"/>
       <c r="J17" s="53" t="e">
         <f t="shared" si="2"/>
@@ -24870,10 +24870,10 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="106" t="s">
+      <c r="A18" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="109"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="46">
         <v>7</v>
       </c>
@@ -24890,7 +24890,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="113"/>
+      <c r="H18" s="110"/>
       <c r="I18" s="94"/>
       <c r="J18" s="53" t="e">
         <f t="shared" si="2"/>
@@ -24899,8 +24899,8 @@
       <c r="K18" s="58"/>
     </row>
     <row r="19" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="107"/>
-      <c r="B19" s="110"/>
+      <c r="A19" s="113"/>
+      <c r="B19" s="116"/>
       <c r="C19" s="46">
         <v>8</v>
       </c>
@@ -24917,7 +24917,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="113"/>
+      <c r="H19" s="110"/>
       <c r="I19" s="93"/>
       <c r="J19" s="53" t="e">
         <f t="shared" si="2"/>
@@ -24925,8 +24925,8 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="107"/>
-      <c r="B20" s="110"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="116"/>
       <c r="C20" s="46">
         <v>9</v>
       </c>
@@ -24943,7 +24943,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="113"/>
+      <c r="H20" s="110"/>
       <c r="I20" s="93"/>
       <c r="J20" s="53" t="e">
         <f t="shared" si="2"/>
@@ -24951,8 +24951,8 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="107"/>
-      <c r="B21" s="110"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="116"/>
       <c r="C21" s="46">
         <v>10</v>
       </c>
@@ -24969,7 +24969,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="114"/>
+      <c r="H21" s="111"/>
       <c r="I21" s="93"/>
       <c r="J21" s="53" t="e">
         <f t="shared" si="2"/>
@@ -24977,8 +24977,8 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="107"/>
-      <c r="B22" s="110"/>
+      <c r="A22" s="113"/>
+      <c r="B22" s="116"/>
       <c r="C22" s="67">
         <v>11</v>
       </c>
@@ -25003,8 +25003,8 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="108"/>
-      <c r="B23" s="111"/>
+      <c r="A23" s="114"/>
+      <c r="B23" s="117"/>
       <c r="C23" s="70"/>
       <c r="D23" s="70"/>
       <c r="E23" s="71"/>
@@ -25151,7 +25151,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="112">
+      <c r="H28" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I28" s="94"/>
@@ -25183,7 +25183,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="113"/>
+      <c r="H29" s="110"/>
       <c r="I29" s="94"/>
       <c r="J29" s="53" t="e">
         <f t="shared" si="5"/>
@@ -25213,7 +25213,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="113"/>
+      <c r="H30" s="110"/>
       <c r="I30" s="94"/>
       <c r="J30" s="53" t="e">
         <f t="shared" si="5"/>
@@ -25243,7 +25243,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="113"/>
+      <c r="H31" s="110"/>
       <c r="I31" s="94"/>
       <c r="J31" s="53" t="e">
         <f t="shared" si="5"/>
@@ -25275,7 +25275,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="113"/>
+      <c r="H32" s="110"/>
       <c r="I32" s="94"/>
       <c r="J32" s="53" t="e">
         <f t="shared" si="5"/>
@@ -25283,10 +25283,10 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="106" t="s">
+      <c r="A33" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="109"/>
+      <c r="B33" s="115"/>
       <c r="C33" s="46">
         <v>7</v>
       </c>
@@ -25305,7 +25305,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="113"/>
+      <c r="H33" s="110"/>
       <c r="I33" s="94"/>
       <c r="J33" s="53" t="e">
         <f t="shared" si="5"/>
@@ -25313,8 +25313,8 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="107"/>
-      <c r="B34" s="110"/>
+      <c r="A34" s="113"/>
+      <c r="B34" s="116"/>
       <c r="C34" s="46">
         <v>8</v>
       </c>
@@ -25333,7 +25333,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="113"/>
+      <c r="H34" s="110"/>
       <c r="I34" s="93"/>
       <c r="J34" s="53" t="e">
         <f t="shared" si="5"/>
@@ -25341,8 +25341,8 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="107"/>
-      <c r="B35" s="110"/>
+      <c r="A35" s="113"/>
+      <c r="B35" s="116"/>
       <c r="C35" s="46">
         <v>9</v>
       </c>
@@ -25361,7 +25361,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="113"/>
+      <c r="H35" s="110"/>
       <c r="I35" s="93"/>
       <c r="J35" s="53" t="e">
         <f t="shared" si="5"/>
@@ -25369,8 +25369,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="107"/>
-      <c r="B36" s="110"/>
+      <c r="A36" s="113"/>
+      <c r="B36" s="116"/>
       <c r="C36" s="46">
         <v>10</v>
       </c>
@@ -25389,7 +25389,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="114"/>
+      <c r="H36" s="111"/>
       <c r="I36" s="93"/>
       <c r="J36" s="53" t="e">
         <f t="shared" si="5"/>
@@ -25397,8 +25397,8 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="108"/>
-      <c r="B37" s="111"/>
+      <c r="A37" s="114"/>
+      <c r="B37" s="117"/>
       <c r="C37" s="70"/>
       <c r="D37" s="70"/>
       <c r="E37" s="71"/>
@@ -25530,7 +25530,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H42" s="112">
+      <c r="H42" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I42" s="94"/>
@@ -25560,7 +25560,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="113"/>
+      <c r="H43" s="110"/>
       <c r="I43" s="94"/>
       <c r="J43" s="53" t="e">
         <f t="shared" si="8"/>
@@ -25588,7 +25588,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H44" s="113"/>
+      <c r="H44" s="110"/>
       <c r="I44" s="94"/>
       <c r="J44" s="53" t="e">
         <f t="shared" si="8"/>
@@ -25616,7 +25616,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H45" s="113"/>
+      <c r="H45" s="110"/>
       <c r="I45" s="94"/>
       <c r="J45" s="53" t="e">
         <f t="shared" si="8"/>
@@ -25646,7 +25646,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H46" s="113"/>
+      <c r="H46" s="110"/>
       <c r="I46" s="94"/>
       <c r="J46" s="53" t="e">
         <f t="shared" si="8"/>
@@ -25654,10 +25654,10 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="106" t="s">
+      <c r="A47" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="109"/>
+      <c r="B47" s="115"/>
       <c r="C47" s="46">
         <v>7</v>
       </c>
@@ -25674,7 +25674,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H47" s="113"/>
+      <c r="H47" s="110"/>
       <c r="I47" s="94"/>
       <c r="J47" s="53" t="e">
         <f t="shared" si="8"/>
@@ -25682,8 +25682,8 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="107"/>
-      <c r="B48" s="110"/>
+      <c r="A48" s="113"/>
+      <c r="B48" s="116"/>
       <c r="C48" s="46">
         <v>8</v>
       </c>
@@ -25700,7 +25700,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H48" s="113"/>
+      <c r="H48" s="110"/>
       <c r="I48" s="93"/>
       <c r="J48" s="53" t="e">
         <f t="shared" si="8"/>
@@ -25708,8 +25708,8 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="107"/>
-      <c r="B49" s="110"/>
+      <c r="A49" s="113"/>
+      <c r="B49" s="116"/>
       <c r="C49" s="46">
         <v>9</v>
       </c>
@@ -25726,7 +25726,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H49" s="113"/>
+      <c r="H49" s="110"/>
       <c r="I49" s="93"/>
       <c r="J49" s="53" t="e">
         <f t="shared" si="8"/>
@@ -25734,8 +25734,8 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="107"/>
-      <c r="B50" s="110"/>
+      <c r="A50" s="113"/>
+      <c r="B50" s="116"/>
       <c r="C50" s="46">
         <v>10</v>
       </c>
@@ -25752,7 +25752,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H50" s="114"/>
+      <c r="H50" s="111"/>
       <c r="I50" s="93"/>
       <c r="J50" s="53" t="e">
         <f t="shared" si="8"/>
@@ -25760,8 +25760,8 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="108"/>
-      <c r="B51" s="111"/>
+      <c r="A51" s="114"/>
+      <c r="B51" s="117"/>
       <c r="C51" s="70"/>
       <c r="D51" s="70"/>
       <c r="E51" s="71"/>
@@ -25895,7 +25895,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H56" s="112">
+      <c r="H56" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I56" s="85"/>
@@ -25925,7 +25925,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H57" s="113"/>
+      <c r="H57" s="110"/>
       <c r="I57" s="85"/>
       <c r="J57" s="53" t="e">
         <f t="shared" si="11"/>
@@ -25953,7 +25953,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H58" s="113"/>
+      <c r="H58" s="110"/>
       <c r="I58" s="85"/>
       <c r="J58" s="53" t="e">
         <f t="shared" si="11"/>
@@ -25981,7 +25981,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H59" s="113"/>
+      <c r="H59" s="110"/>
       <c r="I59" s="85"/>
       <c r="J59" s="53" t="e">
         <f t="shared" si="11"/>
@@ -26009,7 +26009,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H60" s="113"/>
+      <c r="H60" s="110"/>
       <c r="I60" s="85"/>
       <c r="J60" s="53" t="e">
         <f t="shared" si="11"/>
@@ -26017,10 +26017,10 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="106" t="s">
+      <c r="A61" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B61" s="109"/>
+      <c r="B61" s="115"/>
       <c r="C61" s="46">
         <v>7</v>
       </c>
@@ -26037,7 +26037,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H61" s="113"/>
+      <c r="H61" s="110"/>
       <c r="I61" s="85"/>
       <c r="J61" s="53" t="e">
         <f t="shared" si="11"/>
@@ -26045,8 +26045,8 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="107"/>
-      <c r="B62" s="110"/>
+      <c r="A62" s="113"/>
+      <c r="B62" s="116"/>
       <c r="C62" s="46">
         <v>8</v>
       </c>
@@ -26063,7 +26063,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H62" s="113"/>
+      <c r="H62" s="110"/>
       <c r="I62" s="47"/>
       <c r="J62" s="53" t="e">
         <f t="shared" si="11"/>
@@ -26071,8 +26071,8 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="107"/>
-      <c r="B63" s="110"/>
+      <c r="A63" s="113"/>
+      <c r="B63" s="116"/>
       <c r="C63" s="46">
         <v>9</v>
       </c>
@@ -26089,7 +26089,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H63" s="113"/>
+      <c r="H63" s="110"/>
       <c r="I63" s="47"/>
       <c r="J63" s="53" t="e">
         <f t="shared" si="11"/>
@@ -26097,8 +26097,8 @@
       </c>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="107"/>
-      <c r="B64" s="110"/>
+      <c r="A64" s="113"/>
+      <c r="B64" s="116"/>
       <c r="C64" s="46">
         <v>10</v>
       </c>
@@ -26115,7 +26115,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H64" s="114"/>
+      <c r="H64" s="111"/>
       <c r="I64" s="47"/>
       <c r="J64" s="53" t="e">
         <f t="shared" si="11"/>
@@ -26123,8 +26123,8 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="108"/>
-      <c r="B65" s="111"/>
+      <c r="A65" s="114"/>
+      <c r="B65" s="117"/>
       <c r="C65" s="70"/>
       <c r="D65" s="70"/>
       <c r="E65" s="71"/>
@@ -26258,7 +26258,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H70" s="112">
+      <c r="H70" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I70" s="85"/>
@@ -26288,7 +26288,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H71" s="113"/>
+      <c r="H71" s="110"/>
       <c r="I71" s="85"/>
       <c r="J71" s="53" t="e">
         <f t="shared" si="14"/>
@@ -26316,7 +26316,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H72" s="113"/>
+      <c r="H72" s="110"/>
       <c r="I72" s="85"/>
       <c r="J72" s="53" t="e">
         <f t="shared" si="14"/>
@@ -26344,7 +26344,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H73" s="113"/>
+      <c r="H73" s="110"/>
       <c r="I73" s="85"/>
       <c r="J73" s="53" t="e">
         <f t="shared" si="14"/>
@@ -26372,7 +26372,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H74" s="113"/>
+      <c r="H74" s="110"/>
       <c r="I74" s="85"/>
       <c r="J74" s="53" t="e">
         <f t="shared" si="14"/>
@@ -26380,10 +26380,10 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="106" t="s">
+      <c r="A75" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B75" s="109"/>
+      <c r="B75" s="115"/>
       <c r="C75" s="46">
         <v>7</v>
       </c>
@@ -26400,7 +26400,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H75" s="113"/>
+      <c r="H75" s="110"/>
       <c r="I75" s="85"/>
       <c r="J75" s="53" t="e">
         <f t="shared" si="14"/>
@@ -26408,8 +26408,8 @@
       </c>
     </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="107"/>
-      <c r="B76" s="110"/>
+      <c r="A76" s="113"/>
+      <c r="B76" s="116"/>
       <c r="C76" s="46">
         <v>8</v>
       </c>
@@ -26426,7 +26426,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H76" s="113"/>
+      <c r="H76" s="110"/>
       <c r="I76" s="47"/>
       <c r="J76" s="53" t="e">
         <f t="shared" si="14"/>
@@ -26434,8 +26434,8 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="107"/>
-      <c r="B77" s="110"/>
+      <c r="A77" s="113"/>
+      <c r="B77" s="116"/>
       <c r="C77" s="46">
         <v>9</v>
       </c>
@@ -26452,7 +26452,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H77" s="113"/>
+      <c r="H77" s="110"/>
       <c r="I77" s="47"/>
       <c r="J77" s="53" t="e">
         <f t="shared" si="14"/>
@@ -26460,8 +26460,8 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="107"/>
-      <c r="B78" s="110"/>
+      <c r="A78" s="113"/>
+      <c r="B78" s="116"/>
       <c r="C78" s="46">
         <v>10</v>
       </c>
@@ -26478,7 +26478,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H78" s="114"/>
+      <c r="H78" s="111"/>
       <c r="I78" s="47"/>
       <c r="J78" s="53" t="e">
         <f t="shared" si="14"/>
@@ -26486,8 +26486,8 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="108"/>
-      <c r="B79" s="111"/>
+      <c r="A79" s="114"/>
+      <c r="B79" s="117"/>
       <c r="C79" s="70"/>
       <c r="D79" s="70"/>
       <c r="E79" s="71"/>
@@ -26621,7 +26621,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H84" s="112">
+      <c r="H84" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I84" s="85"/>
@@ -26651,7 +26651,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H85" s="113"/>
+      <c r="H85" s="110"/>
       <c r="I85" s="85"/>
       <c r="J85" s="53" t="e">
         <f t="shared" si="17"/>
@@ -26679,7 +26679,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H86" s="113"/>
+      <c r="H86" s="110"/>
       <c r="I86" s="85"/>
       <c r="J86" s="53" t="e">
         <f t="shared" si="17"/>
@@ -26707,7 +26707,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H87" s="113"/>
+      <c r="H87" s="110"/>
       <c r="I87" s="85"/>
       <c r="J87" s="53" t="e">
         <f t="shared" si="17"/>
@@ -26735,7 +26735,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H88" s="113"/>
+      <c r="H88" s="110"/>
       <c r="I88" s="85"/>
       <c r="J88" s="53" t="e">
         <f t="shared" si="17"/>
@@ -26743,10 +26743,10 @@
       </c>
     </row>
     <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="106" t="s">
+      <c r="A89" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B89" s="109"/>
+      <c r="B89" s="115"/>
       <c r="C89" s="46">
         <v>7</v>
       </c>
@@ -26763,7 +26763,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H89" s="113"/>
+      <c r="H89" s="110"/>
       <c r="I89" s="85"/>
       <c r="J89" s="53" t="e">
         <f t="shared" si="17"/>
@@ -26771,8 +26771,8 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="107"/>
-      <c r="B90" s="110"/>
+      <c r="A90" s="113"/>
+      <c r="B90" s="116"/>
       <c r="C90" s="46">
         <v>8</v>
       </c>
@@ -26789,7 +26789,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H90" s="113"/>
+      <c r="H90" s="110"/>
       <c r="I90" s="47"/>
       <c r="J90" s="53" t="e">
         <f t="shared" si="17"/>
@@ -26797,8 +26797,8 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="107"/>
-      <c r="B91" s="110"/>
+      <c r="A91" s="113"/>
+      <c r="B91" s="116"/>
       <c r="C91" s="46">
         <v>9</v>
       </c>
@@ -26815,7 +26815,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H91" s="113"/>
+      <c r="H91" s="110"/>
       <c r="I91" s="47"/>
       <c r="J91" s="53" t="e">
         <f t="shared" si="17"/>
@@ -26823,8 +26823,8 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="107"/>
-      <c r="B92" s="110"/>
+      <c r="A92" s="113"/>
+      <c r="B92" s="116"/>
       <c r="C92" s="46">
         <v>10</v>
       </c>
@@ -26841,7 +26841,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H92" s="114"/>
+      <c r="H92" s="111"/>
       <c r="I92" s="47"/>
       <c r="J92" s="53" t="e">
         <f t="shared" si="17"/>
@@ -26849,8 +26849,8 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="108"/>
-      <c r="B93" s="111"/>
+      <c r="A93" s="114"/>
+      <c r="B93" s="117"/>
       <c r="C93" s="70"/>
       <c r="D93" s="70"/>
       <c r="E93" s="71"/>
@@ -27780,17 +27780,6 @@
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="B89:B93"/>
-    <mergeCell ref="H70:H78"/>
-    <mergeCell ref="H84:H92"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H13:H21"/>
-    <mergeCell ref="H28:H36"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="B47:B51"/>
     <mergeCell ref="B61:B65"/>
     <mergeCell ref="A18:A23"/>
     <mergeCell ref="B18:B23"/>
@@ -27799,6 +27788,17 @@
     <mergeCell ref="H56:H64"/>
     <mergeCell ref="A33:A37"/>
     <mergeCell ref="A61:A65"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H13:H21"/>
+    <mergeCell ref="H28:H36"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="B89:B93"/>
+    <mergeCell ref="H70:H78"/>
+    <mergeCell ref="H84:H92"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B17 B32 B46 B60 B74 B88">
@@ -27836,14 +27836,14 @@
       <c r="A1" s="102" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="117"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="108"/>
       <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
@@ -28212,7 +28212,7 @@
         <f t="shared" si="1"/>
         <v>7.4999999995200003E-2</v>
       </c>
-      <c r="H13" s="112">
+      <c r="H13" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I13" s="52">
@@ -28249,7 +28249,7 @@
         <f t="shared" si="1"/>
         <v>0.24999999998399999</v>
       </c>
-      <c r="H14" s="113"/>
+      <c r="H14" s="110"/>
       <c r="I14" s="52">
         <v>9.6000000000000002E-2</v>
       </c>
@@ -28282,7 +28282,7 @@
         <f t="shared" si="1"/>
         <v>0.24999999998399999</v>
       </c>
-      <c r="H15" s="113"/>
+      <c r="H15" s="110"/>
       <c r="I15" s="52">
         <v>8.2000000000000003E-2</v>
       </c>
@@ -28314,7 +28314,7 @@
         <f t="shared" si="1"/>
         <v>0.24999999998399999</v>
       </c>
-      <c r="H16" s="113"/>
+      <c r="H16" s="110"/>
       <c r="I16" s="52">
         <v>1.6E-2</v>
       </c>
@@ -28349,7 +28349,7 @@
         <f t="shared" si="1"/>
         <v>9.9999999993599986E-2</v>
       </c>
-      <c r="H17" s="113"/>
+      <c r="H17" s="110"/>
       <c r="I17" s="52">
         <v>0</v>
       </c>
@@ -28359,10 +28359,10 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="106" t="s">
+      <c r="A18" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="109"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="46">
         <v>7</v>
       </c>
@@ -28381,7 +28381,7 @@
         <f t="shared" si="1"/>
         <v>4.9999999996799993E-2</v>
       </c>
-      <c r="H18" s="113"/>
+      <c r="H18" s="110"/>
       <c r="I18" s="52">
         <v>0</v>
       </c>
@@ -28392,8 +28392,8 @@
       <c r="K18" s="58"/>
     </row>
     <row r="19" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="107"/>
-      <c r="B19" s="110"/>
+      <c r="A19" s="113"/>
+      <c r="B19" s="116"/>
       <c r="C19" s="46">
         <v>8</v>
       </c>
@@ -28410,7 +28410,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H19" s="113"/>
+      <c r="H19" s="110"/>
       <c r="I19" s="47"/>
       <c r="J19" s="53">
         <f t="shared" si="2"/>
@@ -28418,8 +28418,8 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="107"/>
-      <c r="B20" s="110"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="116"/>
       <c r="C20" s="46">
         <v>9</v>
       </c>
@@ -28436,7 +28436,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H20" s="113"/>
+      <c r="H20" s="110"/>
       <c r="I20" s="47"/>
       <c r="J20" s="53">
         <f t="shared" si="2"/>
@@ -28444,8 +28444,8 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="107"/>
-      <c r="B21" s="110"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="116"/>
       <c r="C21" s="46">
         <v>10</v>
       </c>
@@ -28462,7 +28462,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H21" s="114"/>
+      <c r="H21" s="111"/>
       <c r="I21" s="47"/>
       <c r="J21" s="53">
         <f t="shared" si="2"/>
@@ -28470,8 +28470,8 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="108"/>
-      <c r="B22" s="111"/>
+      <c r="A22" s="114"/>
+      <c r="B22" s="117"/>
       <c r="C22" s="70"/>
       <c r="D22" s="70"/>
       <c r="E22" s="71"/>
@@ -28630,7 +28630,7 @@
         <f t="shared" si="4"/>
         <v>9.9999999993599986E-2</v>
       </c>
-      <c r="H27" s="112">
+      <c r="H27" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I27" s="52">
@@ -28666,7 +28666,7 @@
         <f t="shared" si="4"/>
         <v>0.24999999998399999</v>
       </c>
-      <c r="H28" s="113"/>
+      <c r="H28" s="110"/>
       <c r="I28" s="52">
         <v>7.9000000000000001E-2</v>
       </c>
@@ -28698,7 +28698,7 @@
         <f t="shared" si="4"/>
         <v>0.24999999998399999</v>
       </c>
-      <c r="H29" s="113"/>
+      <c r="H29" s="110"/>
       <c r="I29" s="52">
         <v>5.8000000000000003E-2</v>
       </c>
@@ -28730,7 +28730,7 @@
         <f t="shared" si="4"/>
         <v>0.24999999998399999</v>
       </c>
-      <c r="H30" s="113"/>
+      <c r="H30" s="110"/>
       <c r="I30" s="52">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -28764,7 +28764,7 @@
         <f t="shared" si="4"/>
         <v>9.9999999993599986E-2</v>
       </c>
-      <c r="H31" s="113"/>
+      <c r="H31" s="110"/>
       <c r="I31" s="52">
         <v>0</v>
       </c>
@@ -28774,10 +28774,10 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="106" t="s">
+      <c r="A32" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="109"/>
+      <c r="B32" s="115"/>
       <c r="C32" s="46">
         <v>7</v>
       </c>
@@ -28796,7 +28796,7 @@
         <f t="shared" si="4"/>
         <v>4.9999999996799993E-2</v>
       </c>
-      <c r="H32" s="113"/>
+      <c r="H32" s="110"/>
       <c r="I32" s="52">
         <v>0</v>
       </c>
@@ -28806,8 +28806,8 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="107"/>
-      <c r="B33" s="110"/>
+      <c r="A33" s="113"/>
+      <c r="B33" s="116"/>
       <c r="C33" s="46">
         <v>8</v>
       </c>
@@ -28824,7 +28824,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H33" s="113"/>
+      <c r="H33" s="110"/>
       <c r="I33" s="47"/>
       <c r="J33" s="53">
         <f t="shared" si="5"/>
@@ -28832,8 +28832,8 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="107"/>
-      <c r="B34" s="110"/>
+      <c r="A34" s="113"/>
+      <c r="B34" s="116"/>
       <c r="C34" s="46">
         <v>9</v>
       </c>
@@ -28850,7 +28850,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H34" s="113"/>
+      <c r="H34" s="110"/>
       <c r="I34" s="47"/>
       <c r="J34" s="53">
         <f t="shared" si="5"/>
@@ -28858,8 +28858,8 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="107"/>
-      <c r="B35" s="110"/>
+      <c r="A35" s="113"/>
+      <c r="B35" s="116"/>
       <c r="C35" s="46">
         <v>10</v>
       </c>
@@ -28876,7 +28876,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H35" s="114"/>
+      <c r="H35" s="111"/>
       <c r="I35" s="47"/>
       <c r="J35" s="53">
         <f t="shared" si="5"/>
@@ -28884,8 +28884,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="108"/>
-      <c r="B36" s="111"/>
+      <c r="A36" s="114"/>
+      <c r="B36" s="117"/>
       <c r="C36" s="70"/>
       <c r="D36" s="70"/>
       <c r="E36" s="71"/>
@@ -29019,7 +29019,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="112">
+      <c r="H41" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I41" s="85"/>
@@ -29049,7 +29049,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H42" s="113"/>
+      <c r="H42" s="110"/>
       <c r="I42" s="85"/>
       <c r="J42" s="53" t="e">
         <f t="shared" si="8"/>
@@ -29077,7 +29077,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="113"/>
+      <c r="H43" s="110"/>
       <c r="I43" s="85"/>
       <c r="J43" s="53" t="e">
         <f t="shared" si="8"/>
@@ -29105,7 +29105,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H44" s="113"/>
+      <c r="H44" s="110"/>
       <c r="I44" s="85"/>
       <c r="J44" s="53" t="e">
         <f t="shared" si="8"/>
@@ -29133,7 +29133,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H45" s="113"/>
+      <c r="H45" s="110"/>
       <c r="I45" s="85"/>
       <c r="J45" s="53" t="e">
         <f t="shared" si="8"/>
@@ -29141,10 +29141,10 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="106" t="s">
+      <c r="A46" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="109"/>
+      <c r="B46" s="115"/>
       <c r="C46" s="46">
         <v>7</v>
       </c>
@@ -29161,7 +29161,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H46" s="113"/>
+      <c r="H46" s="110"/>
       <c r="I46" s="85"/>
       <c r="J46" s="53" t="e">
         <f t="shared" si="8"/>
@@ -29169,8 +29169,8 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="107"/>
-      <c r="B47" s="110"/>
+      <c r="A47" s="113"/>
+      <c r="B47" s="116"/>
       <c r="C47" s="46">
         <v>8</v>
       </c>
@@ -29187,7 +29187,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H47" s="113"/>
+      <c r="H47" s="110"/>
       <c r="I47" s="47"/>
       <c r="J47" s="53" t="e">
         <f t="shared" si="8"/>
@@ -29195,8 +29195,8 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="107"/>
-      <c r="B48" s="110"/>
+      <c r="A48" s="113"/>
+      <c r="B48" s="116"/>
       <c r="C48" s="46">
         <v>9</v>
       </c>
@@ -29213,7 +29213,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H48" s="113"/>
+      <c r="H48" s="110"/>
       <c r="I48" s="47"/>
       <c r="J48" s="53" t="e">
         <f t="shared" si="8"/>
@@ -29221,8 +29221,8 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="107"/>
-      <c r="B49" s="110"/>
+      <c r="A49" s="113"/>
+      <c r="B49" s="116"/>
       <c r="C49" s="46">
         <v>10</v>
       </c>
@@ -29239,7 +29239,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H49" s="114"/>
+      <c r="H49" s="111"/>
       <c r="I49" s="47"/>
       <c r="J49" s="53" t="e">
         <f t="shared" si="8"/>
@@ -29247,8 +29247,8 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="108"/>
-      <c r="B50" s="111"/>
+      <c r="A50" s="114"/>
+      <c r="B50" s="117"/>
       <c r="C50" s="70"/>
       <c r="D50" s="70"/>
       <c r="E50" s="71"/>
@@ -29382,7 +29382,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H55" s="112">
+      <c r="H55" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I55" s="85"/>
@@ -29412,7 +29412,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H56" s="113"/>
+      <c r="H56" s="110"/>
       <c r="I56" s="85"/>
       <c r="J56" s="53" t="e">
         <f t="shared" si="11"/>
@@ -29440,7 +29440,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H57" s="113"/>
+      <c r="H57" s="110"/>
       <c r="I57" s="85"/>
       <c r="J57" s="53" t="e">
         <f t="shared" si="11"/>
@@ -29468,7 +29468,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H58" s="113"/>
+      <c r="H58" s="110"/>
       <c r="I58" s="85"/>
       <c r="J58" s="53" t="e">
         <f t="shared" si="11"/>
@@ -29496,7 +29496,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H59" s="113"/>
+      <c r="H59" s="110"/>
       <c r="I59" s="85"/>
       <c r="J59" s="53" t="e">
         <f t="shared" si="11"/>
@@ -29504,10 +29504,10 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="106" t="s">
+      <c r="A60" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B60" s="109"/>
+      <c r="B60" s="115"/>
       <c r="C60" s="46">
         <v>7</v>
       </c>
@@ -29524,7 +29524,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H60" s="113"/>
+      <c r="H60" s="110"/>
       <c r="I60" s="85"/>
       <c r="J60" s="53" t="e">
         <f t="shared" si="11"/>
@@ -29532,8 +29532,8 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="107"/>
-      <c r="B61" s="110"/>
+      <c r="A61" s="113"/>
+      <c r="B61" s="116"/>
       <c r="C61" s="46">
         <v>8</v>
       </c>
@@ -29550,7 +29550,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H61" s="113"/>
+      <c r="H61" s="110"/>
       <c r="I61" s="47"/>
       <c r="J61" s="53" t="e">
         <f t="shared" si="11"/>
@@ -29558,8 +29558,8 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="107"/>
-      <c r="B62" s="110"/>
+      <c r="A62" s="113"/>
+      <c r="B62" s="116"/>
       <c r="C62" s="46">
         <v>9</v>
       </c>
@@ -29576,7 +29576,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H62" s="113"/>
+      <c r="H62" s="110"/>
       <c r="I62" s="47"/>
       <c r="J62" s="53" t="e">
         <f t="shared" si="11"/>
@@ -29584,8 +29584,8 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="107"/>
-      <c r="B63" s="110"/>
+      <c r="A63" s="113"/>
+      <c r="B63" s="116"/>
       <c r="C63" s="46">
         <v>10</v>
       </c>
@@ -29602,7 +29602,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H63" s="114"/>
+      <c r="H63" s="111"/>
       <c r="I63" s="47"/>
       <c r="J63" s="53" t="e">
         <f t="shared" si="11"/>
@@ -29610,8 +29610,8 @@
       </c>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="108"/>
-      <c r="B64" s="111"/>
+      <c r="A64" s="114"/>
+      <c r="B64" s="117"/>
       <c r="C64" s="70"/>
       <c r="D64" s="70"/>
       <c r="E64" s="71"/>
@@ -29745,7 +29745,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H69" s="112">
+      <c r="H69" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I69" s="85"/>
@@ -29775,7 +29775,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H70" s="113"/>
+      <c r="H70" s="110"/>
       <c r="I70" s="85"/>
       <c r="J70" s="53" t="e">
         <f t="shared" si="14"/>
@@ -29803,7 +29803,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H71" s="113"/>
+      <c r="H71" s="110"/>
       <c r="I71" s="85"/>
       <c r="J71" s="53" t="e">
         <f t="shared" si="14"/>
@@ -29831,7 +29831,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H72" s="113"/>
+      <c r="H72" s="110"/>
       <c r="I72" s="85"/>
       <c r="J72" s="53" t="e">
         <f t="shared" si="14"/>
@@ -29859,7 +29859,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H73" s="113"/>
+      <c r="H73" s="110"/>
       <c r="I73" s="85"/>
       <c r="J73" s="53" t="e">
         <f t="shared" si="14"/>
@@ -29867,10 +29867,10 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="106" t="s">
+      <c r="A74" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B74" s="109"/>
+      <c r="B74" s="115"/>
       <c r="C74" s="46">
         <v>7</v>
       </c>
@@ -29887,7 +29887,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H74" s="113"/>
+      <c r="H74" s="110"/>
       <c r="I74" s="85"/>
       <c r="J74" s="53" t="e">
         <f t="shared" si="14"/>
@@ -29895,8 +29895,8 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="107"/>
-      <c r="B75" s="110"/>
+      <c r="A75" s="113"/>
+      <c r="B75" s="116"/>
       <c r="C75" s="46">
         <v>8</v>
       </c>
@@ -29913,7 +29913,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H75" s="113"/>
+      <c r="H75" s="110"/>
       <c r="I75" s="47"/>
       <c r="J75" s="53" t="e">
         <f t="shared" si="14"/>
@@ -29921,8 +29921,8 @@
       </c>
     </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="107"/>
-      <c r="B76" s="110"/>
+      <c r="A76" s="113"/>
+      <c r="B76" s="116"/>
       <c r="C76" s="46">
         <v>9</v>
       </c>
@@ -29939,7 +29939,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H76" s="113"/>
+      <c r="H76" s="110"/>
       <c r="I76" s="47"/>
       <c r="J76" s="53" t="e">
         <f t="shared" si="14"/>
@@ -29947,8 +29947,8 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="107"/>
-      <c r="B77" s="110"/>
+      <c r="A77" s="113"/>
+      <c r="B77" s="116"/>
       <c r="C77" s="46">
         <v>10</v>
       </c>
@@ -29965,7 +29965,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H77" s="114"/>
+      <c r="H77" s="111"/>
       <c r="I77" s="47"/>
       <c r="J77" s="53" t="e">
         <f t="shared" si="14"/>
@@ -29973,8 +29973,8 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="108"/>
-      <c r="B78" s="111"/>
+      <c r="A78" s="114"/>
+      <c r="B78" s="117"/>
       <c r="C78" s="70"/>
       <c r="D78" s="70"/>
       <c r="E78" s="71"/>
@@ -30108,7 +30108,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H83" s="112">
+      <c r="H83" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I83" s="85"/>
@@ -30138,7 +30138,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H84" s="113"/>
+      <c r="H84" s="110"/>
       <c r="I84" s="85"/>
       <c r="J84" s="53" t="e">
         <f t="shared" si="17"/>
@@ -30166,7 +30166,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H85" s="113"/>
+      <c r="H85" s="110"/>
       <c r="I85" s="85"/>
       <c r="J85" s="53" t="e">
         <f t="shared" si="17"/>
@@ -30194,7 +30194,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H86" s="113"/>
+      <c r="H86" s="110"/>
       <c r="I86" s="85"/>
       <c r="J86" s="53" t="e">
         <f t="shared" si="17"/>
@@ -30222,7 +30222,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H87" s="113"/>
+      <c r="H87" s="110"/>
       <c r="I87" s="85"/>
       <c r="J87" s="53" t="e">
         <f t="shared" si="17"/>
@@ -30230,10 +30230,10 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="106" t="s">
+      <c r="A88" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B88" s="109"/>
+      <c r="B88" s="115"/>
       <c r="C88" s="46">
         <v>7</v>
       </c>
@@ -30250,7 +30250,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H88" s="113"/>
+      <c r="H88" s="110"/>
       <c r="I88" s="85"/>
       <c r="J88" s="53" t="e">
         <f t="shared" si="17"/>
@@ -30258,8 +30258,8 @@
       </c>
     </row>
     <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="107"/>
-      <c r="B89" s="110"/>
+      <c r="A89" s="113"/>
+      <c r="B89" s="116"/>
       <c r="C89" s="46">
         <v>8</v>
       </c>
@@ -30276,7 +30276,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H89" s="113"/>
+      <c r="H89" s="110"/>
       <c r="I89" s="47"/>
       <c r="J89" s="53" t="e">
         <f t="shared" si="17"/>
@@ -30284,8 +30284,8 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="107"/>
-      <c r="B90" s="110"/>
+      <c r="A90" s="113"/>
+      <c r="B90" s="116"/>
       <c r="C90" s="46">
         <v>9</v>
       </c>
@@ -30302,7 +30302,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H90" s="113"/>
+      <c r="H90" s="110"/>
       <c r="I90" s="47"/>
       <c r="J90" s="53" t="e">
         <f t="shared" si="17"/>
@@ -30310,8 +30310,8 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="107"/>
-      <c r="B91" s="110"/>
+      <c r="A91" s="113"/>
+      <c r="B91" s="116"/>
       <c r="C91" s="46">
         <v>10</v>
       </c>
@@ -30328,7 +30328,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H91" s="114"/>
+      <c r="H91" s="111"/>
       <c r="I91" s="47"/>
       <c r="J91" s="53" t="e">
         <f t="shared" si="17"/>
@@ -30336,8 +30336,8 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="108"/>
-      <c r="B92" s="111"/>
+      <c r="A92" s="114"/>
+      <c r="B92" s="117"/>
       <c r="C92" s="70"/>
       <c r="D92" s="70"/>
       <c r="E92" s="71"/>
@@ -31267,12 +31267,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H13:H21"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="H27:H35"/>
-    <mergeCell ref="B32:B36"/>
     <mergeCell ref="A88:A92"/>
     <mergeCell ref="B88:B92"/>
     <mergeCell ref="H41:H49"/>
@@ -31280,12 +31274,18 @@
     <mergeCell ref="H69:H77"/>
     <mergeCell ref="H83:H91"/>
     <mergeCell ref="B46:B50"/>
-    <mergeCell ref="A32:A36"/>
     <mergeCell ref="A46:A50"/>
     <mergeCell ref="A60:A64"/>
     <mergeCell ref="B60:B64"/>
     <mergeCell ref="A74:A78"/>
     <mergeCell ref="B74:B78"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H13:H21"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="H27:H35"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="A32:A36"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B17 B31 B45 B59 B73 B87">
@@ -31301,7 +31301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:C4"/>
     </sheetView>
   </sheetViews>
@@ -31323,14 +31323,14 @@
       <c r="A1" s="102" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="117"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="108"/>
       <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
@@ -31698,7 +31698,7 @@
         <f t="shared" si="1"/>
         <v>7.4999999995200003E-2</v>
       </c>
-      <c r="H13" s="112">
+      <c r="H13" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I13" s="52">
@@ -31735,7 +31735,7 @@
         <f t="shared" si="1"/>
         <v>7.4999999995200003E-2</v>
       </c>
-      <c r="H14" s="113"/>
+      <c r="H14" s="110"/>
       <c r="I14" s="52">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -31769,7 +31769,7 @@
         <f t="shared" si="1"/>
         <v>0.10999999999296001</v>
       </c>
-      <c r="H15" s="113"/>
+      <c r="H15" s="110"/>
       <c r="I15" s="52">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -31802,7 +31802,7 @@
         <f t="shared" si="1"/>
         <v>0.124999999992</v>
       </c>
-      <c r="H16" s="113"/>
+      <c r="H16" s="110"/>
       <c r="I16" s="52">
         <v>8.3000000000000004E-2</v>
       </c>
@@ -31838,7 +31838,7 @@
         <f t="shared" si="1"/>
         <v>0.124999999992</v>
       </c>
-      <c r="H17" s="113"/>
+      <c r="H17" s="110"/>
       <c r="I17" s="52">
         <v>0.104</v>
       </c>
@@ -31848,10 +31848,10 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="106" t="s">
+      <c r="A18" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="109"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="46">
         <v>7</v>
       </c>
@@ -31871,7 +31871,7 @@
         <f t="shared" si="1"/>
         <v>0.14999999999039998</v>
       </c>
-      <c r="H18" s="113"/>
+      <c r="H18" s="110"/>
       <c r="I18" s="52">
         <v>8.2000000000000003E-2</v>
       </c>
@@ -31882,8 +31882,8 @@
       <c r="K18" s="58"/>
     </row>
     <row r="19" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="107"/>
-      <c r="B19" s="110"/>
+      <c r="A19" s="113"/>
+      <c r="B19" s="116"/>
       <c r="C19" s="46">
         <v>8</v>
       </c>
@@ -31903,7 +31903,7 @@
         <f t="shared" si="1"/>
         <v>0.124999999992</v>
       </c>
-      <c r="H19" s="113"/>
+      <c r="H19" s="110"/>
       <c r="I19" s="48">
         <v>0.05</v>
       </c>
@@ -31913,8 +31913,8 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="107"/>
-      <c r="B20" s="110"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="116"/>
       <c r="C20" s="46">
         <v>9</v>
       </c>
@@ -31934,7 +31934,7 @@
         <f t="shared" si="1"/>
         <v>9.9999999993600014E-2</v>
       </c>
-      <c r="H20" s="113"/>
+      <c r="H20" s="110"/>
       <c r="I20" s="48">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -31944,8 +31944,8 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="107"/>
-      <c r="B21" s="110"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="116"/>
       <c r="C21" s="46">
         <v>10</v>
       </c>
@@ -31965,7 +31965,7 @@
         <f t="shared" si="1"/>
         <v>9.9999999993600014E-2</v>
       </c>
-      <c r="H21" s="114"/>
+      <c r="H21" s="111"/>
       <c r="I21" s="48">
         <v>0</v>
       </c>
@@ -31975,8 +31975,8 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="107"/>
-      <c r="B22" s="110"/>
+      <c r="A22" s="113"/>
+      <c r="B22" s="116"/>
       <c r="C22" s="67">
         <v>11</v>
       </c>
@@ -32006,8 +32006,8 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="108"/>
-      <c r="B23" s="111"/>
+      <c r="A23" s="114"/>
+      <c r="B23" s="117"/>
       <c r="C23" s="70"/>
       <c r="D23" s="70"/>
       <c r="E23" s="71"/>
@@ -32166,7 +32166,7 @@
         <f t="shared" si="6"/>
         <v>0.124999999992</v>
       </c>
-      <c r="H28" s="112">
+      <c r="H28" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I28" s="94">
@@ -32202,7 +32202,7 @@
         <f t="shared" si="6"/>
         <v>9.9999999993599986E-2</v>
       </c>
-      <c r="H29" s="113"/>
+      <c r="H29" s="110"/>
       <c r="I29" s="94">
         <v>0</v>
       </c>
@@ -32235,7 +32235,7 @@
         <f t="shared" si="6"/>
         <v>0.10999999999296001</v>
       </c>
-      <c r="H30" s="113"/>
+      <c r="H30" s="110"/>
       <c r="I30" s="94">
         <v>7.1999999999999995E-2</v>
       </c>
@@ -32268,7 +32268,7 @@
         <f t="shared" si="6"/>
         <v>0.124999999992</v>
       </c>
-      <c r="H31" s="113"/>
+      <c r="H31" s="110"/>
       <c r="I31" s="94">
         <v>0.10100000000000001</v>
       </c>
@@ -32302,7 +32302,7 @@
         <f t="shared" si="6"/>
         <v>0.124999999992</v>
       </c>
-      <c r="H32" s="113"/>
+      <c r="H32" s="110"/>
       <c r="I32" s="94">
         <v>3.4000000000000002E-2</v>
       </c>
@@ -32312,10 +32312,10 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="106" t="s">
+      <c r="A33" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="109"/>
+      <c r="B33" s="115"/>
       <c r="C33" s="46">
         <v>7</v>
       </c>
@@ -32334,7 +32334,7 @@
         <f t="shared" si="6"/>
         <v>0.124999999992</v>
       </c>
-      <c r="H33" s="113"/>
+      <c r="H33" s="110"/>
       <c r="I33" s="94">
         <v>3.6999999999999998E-2</v>
       </c>
@@ -32344,8 +32344,8 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="107"/>
-      <c r="B34" s="110"/>
+      <c r="A34" s="113"/>
+      <c r="B34" s="116"/>
       <c r="C34" s="46">
         <v>8</v>
       </c>
@@ -32364,7 +32364,7 @@
         <f t="shared" si="6"/>
         <v>0.124999999992</v>
       </c>
-      <c r="H34" s="113"/>
+      <c r="H34" s="110"/>
       <c r="I34" s="93">
         <v>0.12</v>
       </c>
@@ -32374,8 +32374,8 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="107"/>
-      <c r="B35" s="110"/>
+      <c r="A35" s="113"/>
+      <c r="B35" s="116"/>
       <c r="C35" s="46">
         <v>9</v>
       </c>
@@ -32395,7 +32395,7 @@
         <f t="shared" si="6"/>
         <v>0.10999999999296001</v>
       </c>
-      <c r="H35" s="113"/>
+      <c r="H35" s="110"/>
       <c r="I35" s="93">
         <v>0</v>
       </c>
@@ -32405,8 +32405,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="107"/>
-      <c r="B36" s="110"/>
+      <c r="A36" s="113"/>
+      <c r="B36" s="116"/>
       <c r="C36" s="46">
         <v>10</v>
       </c>
@@ -32426,7 +32426,7 @@
         <f t="shared" si="6"/>
         <v>7.4999999995200003E-2</v>
       </c>
-      <c r="H36" s="114"/>
+      <c r="H36" s="111"/>
       <c r="I36" s="93">
         <v>0</v>
       </c>
@@ -32436,8 +32436,8 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="107"/>
-      <c r="B37" s="110"/>
+      <c r="A37" s="113"/>
+      <c r="B37" s="116"/>
       <c r="C37" s="67">
         <v>11</v>
       </c>
@@ -32467,8 +32467,8 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="108"/>
-      <c r="B38" s="111"/>
+      <c r="A38" s="114"/>
+      <c r="B38" s="117"/>
       <c r="C38" s="70"/>
       <c r="D38" s="70"/>
       <c r="E38" s="71"/>
@@ -32602,7 +32602,7 @@
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="112">
+      <c r="H43" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I43" s="85"/>
@@ -32632,7 +32632,7 @@
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H44" s="113"/>
+      <c r="H44" s="110"/>
       <c r="I44" s="85"/>
       <c r="J44" s="53" t="e">
         <f t="shared" si="10"/>
@@ -32660,7 +32660,7 @@
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H45" s="113"/>
+      <c r="H45" s="110"/>
       <c r="I45" s="85"/>
       <c r="J45" s="53" t="e">
         <f t="shared" si="10"/>
@@ -32688,7 +32688,7 @@
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H46" s="113"/>
+      <c r="H46" s="110"/>
       <c r="I46" s="85"/>
       <c r="J46" s="53" t="e">
         <f t="shared" si="10"/>
@@ -32716,7 +32716,7 @@
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H47" s="113"/>
+      <c r="H47" s="110"/>
       <c r="I47" s="85"/>
       <c r="J47" s="53" t="e">
         <f t="shared" si="10"/>
@@ -32724,10 +32724,10 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="106" t="s">
+      <c r="A48" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="109"/>
+      <c r="B48" s="115"/>
       <c r="C48" s="46">
         <v>7</v>
       </c>
@@ -32744,7 +32744,7 @@
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H48" s="113"/>
+      <c r="H48" s="110"/>
       <c r="I48" s="85"/>
       <c r="J48" s="53" t="e">
         <f t="shared" si="10"/>
@@ -32752,8 +32752,8 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="107"/>
-      <c r="B49" s="110"/>
+      <c r="A49" s="113"/>
+      <c r="B49" s="116"/>
       <c r="C49" s="46">
         <v>8</v>
       </c>
@@ -32770,7 +32770,7 @@
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H49" s="113"/>
+      <c r="H49" s="110"/>
       <c r="I49" s="47"/>
       <c r="J49" s="53" t="e">
         <f t="shared" si="10"/>
@@ -32778,8 +32778,8 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="107"/>
-      <c r="B50" s="110"/>
+      <c r="A50" s="113"/>
+      <c r="B50" s="116"/>
       <c r="C50" s="46">
         <v>9</v>
       </c>
@@ -32796,7 +32796,7 @@
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H50" s="113"/>
+      <c r="H50" s="110"/>
       <c r="I50" s="47"/>
       <c r="J50" s="53" t="e">
         <f t="shared" si="10"/>
@@ -32804,8 +32804,8 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="107"/>
-      <c r="B51" s="110"/>
+      <c r="A51" s="113"/>
+      <c r="B51" s="116"/>
       <c r="C51" s="46">
         <v>10</v>
       </c>
@@ -32822,7 +32822,7 @@
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H51" s="114"/>
+      <c r="H51" s="111"/>
       <c r="I51" s="47"/>
       <c r="J51" s="53" t="e">
         <f t="shared" si="10"/>
@@ -32830,8 +32830,8 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="108"/>
-      <c r="B52" s="111"/>
+      <c r="A52" s="114"/>
+      <c r="B52" s="117"/>
       <c r="C52" s="70"/>
       <c r="D52" s="70"/>
       <c r="E52" s="71"/>
@@ -32965,7 +32965,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H57" s="112">
+      <c r="H57" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I57" s="85"/>
@@ -32995,7 +32995,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H58" s="113"/>
+      <c r="H58" s="110"/>
       <c r="I58" s="85"/>
       <c r="J58" s="53" t="e">
         <f t="shared" si="13"/>
@@ -33023,7 +33023,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H59" s="113"/>
+      <c r="H59" s="110"/>
       <c r="I59" s="85"/>
       <c r="J59" s="53" t="e">
         <f t="shared" si="13"/>
@@ -33051,7 +33051,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H60" s="113"/>
+      <c r="H60" s="110"/>
       <c r="I60" s="85"/>
       <c r="J60" s="53" t="e">
         <f t="shared" si="13"/>
@@ -33079,7 +33079,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H61" s="113"/>
+      <c r="H61" s="110"/>
       <c r="I61" s="85"/>
       <c r="J61" s="53" t="e">
         <f t="shared" si="13"/>
@@ -33087,10 +33087,10 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="106" t="s">
+      <c r="A62" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B62" s="109"/>
+      <c r="B62" s="115"/>
       <c r="C62" s="46">
         <v>7</v>
       </c>
@@ -33107,7 +33107,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H62" s="113"/>
+      <c r="H62" s="110"/>
       <c r="I62" s="85"/>
       <c r="J62" s="53" t="e">
         <f t="shared" si="13"/>
@@ -33115,8 +33115,8 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="107"/>
-      <c r="B63" s="110"/>
+      <c r="A63" s="113"/>
+      <c r="B63" s="116"/>
       <c r="C63" s="46">
         <v>8</v>
       </c>
@@ -33133,7 +33133,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H63" s="113"/>
+      <c r="H63" s="110"/>
       <c r="I63" s="47"/>
       <c r="J63" s="53" t="e">
         <f t="shared" si="13"/>
@@ -33141,8 +33141,8 @@
       </c>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="107"/>
-      <c r="B64" s="110"/>
+      <c r="A64" s="113"/>
+      <c r="B64" s="116"/>
       <c r="C64" s="46">
         <v>9</v>
       </c>
@@ -33159,7 +33159,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H64" s="113"/>
+      <c r="H64" s="110"/>
       <c r="I64" s="47"/>
       <c r="J64" s="53" t="e">
         <f t="shared" si="13"/>
@@ -33167,8 +33167,8 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="107"/>
-      <c r="B65" s="110"/>
+      <c r="A65" s="113"/>
+      <c r="B65" s="116"/>
       <c r="C65" s="46">
         <v>10</v>
       </c>
@@ -33185,7 +33185,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H65" s="114"/>
+      <c r="H65" s="111"/>
       <c r="I65" s="47"/>
       <c r="J65" s="53" t="e">
         <f t="shared" si="13"/>
@@ -33193,8 +33193,8 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="108"/>
-      <c r="B66" s="111"/>
+      <c r="A66" s="114"/>
+      <c r="B66" s="117"/>
       <c r="C66" s="70"/>
       <c r="D66" s="70"/>
       <c r="E66" s="71"/>
@@ -33328,7 +33328,7 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H71" s="112">
+      <c r="H71" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I71" s="85"/>
@@ -33358,7 +33358,7 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H72" s="113"/>
+      <c r="H72" s="110"/>
       <c r="I72" s="85"/>
       <c r="J72" s="53" t="e">
         <f t="shared" si="16"/>
@@ -33386,7 +33386,7 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H73" s="113"/>
+      <c r="H73" s="110"/>
       <c r="I73" s="85"/>
       <c r="J73" s="53" t="e">
         <f t="shared" si="16"/>
@@ -33414,7 +33414,7 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H74" s="113"/>
+      <c r="H74" s="110"/>
       <c r="I74" s="85"/>
       <c r="J74" s="53" t="e">
         <f t="shared" si="16"/>
@@ -33442,7 +33442,7 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H75" s="113"/>
+      <c r="H75" s="110"/>
       <c r="I75" s="85"/>
       <c r="J75" s="53" t="e">
         <f t="shared" si="16"/>
@@ -33450,10 +33450,10 @@
       </c>
     </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="106" t="s">
+      <c r="A76" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B76" s="109"/>
+      <c r="B76" s="115"/>
       <c r="C76" s="46">
         <v>7</v>
       </c>
@@ -33470,7 +33470,7 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H76" s="113"/>
+      <c r="H76" s="110"/>
       <c r="I76" s="85"/>
       <c r="J76" s="53" t="e">
         <f t="shared" si="16"/>
@@ -33478,8 +33478,8 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="107"/>
-      <c r="B77" s="110"/>
+      <c r="A77" s="113"/>
+      <c r="B77" s="116"/>
       <c r="C77" s="46">
         <v>8</v>
       </c>
@@ -33496,7 +33496,7 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H77" s="113"/>
+      <c r="H77" s="110"/>
       <c r="I77" s="47"/>
       <c r="J77" s="53" t="e">
         <f t="shared" si="16"/>
@@ -33504,8 +33504,8 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="107"/>
-      <c r="B78" s="110"/>
+      <c r="A78" s="113"/>
+      <c r="B78" s="116"/>
       <c r="C78" s="46">
         <v>9</v>
       </c>
@@ -33522,7 +33522,7 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H78" s="113"/>
+      <c r="H78" s="110"/>
       <c r="I78" s="47"/>
       <c r="J78" s="53" t="e">
         <f t="shared" si="16"/>
@@ -33530,8 +33530,8 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="107"/>
-      <c r="B79" s="110"/>
+      <c r="A79" s="113"/>
+      <c r="B79" s="116"/>
       <c r="C79" s="46">
         <v>10</v>
       </c>
@@ -33548,7 +33548,7 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H79" s="114"/>
+      <c r="H79" s="111"/>
       <c r="I79" s="47"/>
       <c r="J79" s="53" t="e">
         <f t="shared" si="16"/>
@@ -33556,8 +33556,8 @@
       </c>
     </row>
     <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="108"/>
-      <c r="B80" s="111"/>
+      <c r="A80" s="114"/>
+      <c r="B80" s="117"/>
       <c r="C80" s="70"/>
       <c r="D80" s="70"/>
       <c r="E80" s="71"/>
@@ -33691,7 +33691,7 @@
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H85" s="112">
+      <c r="H85" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I85" s="85"/>
@@ -33721,7 +33721,7 @@
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H86" s="113"/>
+      <c r="H86" s="110"/>
       <c r="I86" s="85"/>
       <c r="J86" s="53" t="e">
         <f t="shared" si="19"/>
@@ -33749,7 +33749,7 @@
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H87" s="113"/>
+      <c r="H87" s="110"/>
       <c r="I87" s="85"/>
       <c r="J87" s="53" t="e">
         <f t="shared" si="19"/>
@@ -33777,7 +33777,7 @@
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H88" s="113"/>
+      <c r="H88" s="110"/>
       <c r="I88" s="85"/>
       <c r="J88" s="53" t="e">
         <f t="shared" si="19"/>
@@ -33805,7 +33805,7 @@
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H89" s="113"/>
+      <c r="H89" s="110"/>
       <c r="I89" s="85"/>
       <c r="J89" s="53" t="e">
         <f t="shared" si="19"/>
@@ -33813,10 +33813,10 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="106" t="s">
+      <c r="A90" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B90" s="109"/>
+      <c r="B90" s="115"/>
       <c r="C90" s="46">
         <v>7</v>
       </c>
@@ -33833,7 +33833,7 @@
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H90" s="113"/>
+      <c r="H90" s="110"/>
       <c r="I90" s="85"/>
       <c r="J90" s="53" t="e">
         <f t="shared" si="19"/>
@@ -33841,8 +33841,8 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="107"/>
-      <c r="B91" s="110"/>
+      <c r="A91" s="113"/>
+      <c r="B91" s="116"/>
       <c r="C91" s="46">
         <v>8</v>
       </c>
@@ -33859,7 +33859,7 @@
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H91" s="113"/>
+      <c r="H91" s="110"/>
       <c r="I91" s="47"/>
       <c r="J91" s="53" t="e">
         <f t="shared" si="19"/>
@@ -33867,8 +33867,8 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="107"/>
-      <c r="B92" s="110"/>
+      <c r="A92" s="113"/>
+      <c r="B92" s="116"/>
       <c r="C92" s="46">
         <v>9</v>
       </c>
@@ -33885,7 +33885,7 @@
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H92" s="113"/>
+      <c r="H92" s="110"/>
       <c r="I92" s="47"/>
       <c r="J92" s="53" t="e">
         <f t="shared" si="19"/>
@@ -33893,8 +33893,8 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="107"/>
-      <c r="B93" s="110"/>
+      <c r="A93" s="113"/>
+      <c r="B93" s="116"/>
       <c r="C93" s="46">
         <v>10</v>
       </c>
@@ -33911,7 +33911,7 @@
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H93" s="114"/>
+      <c r="H93" s="111"/>
       <c r="I93" s="47"/>
       <c r="J93" s="53" t="e">
         <f t="shared" si="19"/>
@@ -33919,8 +33919,8 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="108"/>
-      <c r="B94" s="111"/>
+      <c r="A94" s="114"/>
+      <c r="B94" s="117"/>
       <c r="C94" s="70"/>
       <c r="D94" s="70"/>
       <c r="E94" s="71"/>
@@ -34850,12 +34850,6 @@
     <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H13:H21"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="H28:H36"/>
-    <mergeCell ref="B33:B38"/>
     <mergeCell ref="A90:A94"/>
     <mergeCell ref="B90:B94"/>
     <mergeCell ref="H43:H51"/>
@@ -34863,12 +34857,18 @@
     <mergeCell ref="H71:H79"/>
     <mergeCell ref="H85:H93"/>
     <mergeCell ref="B48:B52"/>
-    <mergeCell ref="A33:A38"/>
     <mergeCell ref="A48:A52"/>
     <mergeCell ref="A62:A66"/>
     <mergeCell ref="B62:B66"/>
     <mergeCell ref="A76:A80"/>
     <mergeCell ref="B76:B80"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H13:H21"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="H28:H36"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="A33:A38"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B17 B32 B47 B61 B75 B89">
@@ -34904,14 +34904,14 @@
       <c r="A1" s="102" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="117"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="108"/>
       <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
@@ -35265,7 +35265,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="112">
+      <c r="H13" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I13" s="85"/>
@@ -35296,7 +35296,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="113"/>
+      <c r="H14" s="110"/>
       <c r="I14" s="85"/>
       <c r="J14" s="53" t="e">
         <f t="shared" si="2"/>
@@ -35325,7 +35325,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="113"/>
+      <c r="H15" s="110"/>
       <c r="I15" s="85"/>
       <c r="J15" s="53" t="e">
         <f t="shared" si="2"/>
@@ -35353,7 +35353,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="113"/>
+      <c r="H16" s="110"/>
       <c r="I16" s="85"/>
       <c r="J16" s="53" t="e">
         <f t="shared" si="2"/>
@@ -35382,7 +35382,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="113"/>
+      <c r="H17" s="110"/>
       <c r="I17" s="85"/>
       <c r="J17" s="53" t="e">
         <f t="shared" si="2"/>
@@ -35390,10 +35390,10 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="106" t="s">
+      <c r="A18" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="109"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="46">
         <v>7</v>
       </c>
@@ -35410,7 +35410,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="113"/>
+      <c r="H18" s="110"/>
       <c r="I18" s="85"/>
       <c r="J18" s="53" t="e">
         <f t="shared" si="2"/>
@@ -35419,8 +35419,8 @@
       <c r="K18" s="58"/>
     </row>
     <row r="19" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="107"/>
-      <c r="B19" s="110"/>
+      <c r="A19" s="113"/>
+      <c r="B19" s="116"/>
       <c r="C19" s="46">
         <v>8</v>
       </c>
@@ -35437,7 +35437,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="113"/>
+      <c r="H19" s="110"/>
       <c r="I19" s="47"/>
       <c r="J19" s="53" t="e">
         <f t="shared" si="2"/>
@@ -35445,8 +35445,8 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="107"/>
-      <c r="B20" s="110"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="116"/>
       <c r="C20" s="46">
         <v>9</v>
       </c>
@@ -35463,7 +35463,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="113"/>
+      <c r="H20" s="110"/>
       <c r="I20" s="47"/>
       <c r="J20" s="53" t="e">
         <f t="shared" si="2"/>
@@ -35471,8 +35471,8 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="107"/>
-      <c r="B21" s="110"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="116"/>
       <c r="C21" s="46">
         <v>10</v>
       </c>
@@ -35489,7 +35489,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="114"/>
+      <c r="H21" s="111"/>
       <c r="I21" s="47"/>
       <c r="J21" s="53" t="e">
         <f t="shared" si="2"/>
@@ -35497,8 +35497,8 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="108"/>
-      <c r="B22" s="111"/>
+      <c r="A22" s="114"/>
+      <c r="B22" s="117"/>
       <c r="C22" s="70"/>
       <c r="D22" s="70"/>
       <c r="E22" s="71"/>
@@ -35643,7 +35643,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="112">
+      <c r="H27" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I27" s="85"/>
@@ -35673,7 +35673,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="113"/>
+      <c r="H28" s="110"/>
       <c r="I28" s="85"/>
       <c r="J28" s="53" t="e">
         <f t="shared" si="5"/>
@@ -35701,7 +35701,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="113"/>
+      <c r="H29" s="110"/>
       <c r="I29" s="85"/>
       <c r="J29" s="53" t="e">
         <f t="shared" si="5"/>
@@ -35729,7 +35729,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="113"/>
+      <c r="H30" s="110"/>
       <c r="I30" s="85"/>
       <c r="J30" s="53" t="e">
         <f t="shared" si="5"/>
@@ -35757,7 +35757,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="113"/>
+      <c r="H31" s="110"/>
       <c r="I31" s="85"/>
       <c r="J31" s="53" t="e">
         <f t="shared" si="5"/>
@@ -35765,10 +35765,10 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="106" t="s">
+      <c r="A32" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="109"/>
+      <c r="B32" s="115"/>
       <c r="C32" s="46">
         <v>7</v>
       </c>
@@ -35785,7 +35785,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="113"/>
+      <c r="H32" s="110"/>
       <c r="I32" s="85"/>
       <c r="J32" s="53" t="e">
         <f t="shared" si="5"/>
@@ -35793,8 +35793,8 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="107"/>
-      <c r="B33" s="110"/>
+      <c r="A33" s="113"/>
+      <c r="B33" s="116"/>
       <c r="C33" s="46">
         <v>8</v>
       </c>
@@ -35811,7 +35811,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="113"/>
+      <c r="H33" s="110"/>
       <c r="I33" s="47"/>
       <c r="J33" s="53" t="e">
         <f t="shared" si="5"/>
@@ -35819,8 +35819,8 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="107"/>
-      <c r="B34" s="110"/>
+      <c r="A34" s="113"/>
+      <c r="B34" s="116"/>
       <c r="C34" s="46">
         <v>9</v>
       </c>
@@ -35837,7 +35837,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="113"/>
+      <c r="H34" s="110"/>
       <c r="I34" s="47"/>
       <c r="J34" s="53" t="e">
         <f t="shared" si="5"/>
@@ -35845,8 +35845,8 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="107"/>
-      <c r="B35" s="110"/>
+      <c r="A35" s="113"/>
+      <c r="B35" s="116"/>
       <c r="C35" s="46">
         <v>10</v>
       </c>
@@ -35863,7 +35863,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="114"/>
+      <c r="H35" s="111"/>
       <c r="I35" s="47"/>
       <c r="J35" s="53" t="e">
         <f t="shared" si="5"/>
@@ -35871,8 +35871,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="108"/>
-      <c r="B36" s="111"/>
+      <c r="A36" s="114"/>
+      <c r="B36" s="117"/>
       <c r="C36" s="70"/>
       <c r="D36" s="70"/>
       <c r="E36" s="71"/>
@@ -36006,7 +36006,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="112">
+      <c r="H41" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I41" s="85"/>
@@ -36036,7 +36036,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H42" s="113"/>
+      <c r="H42" s="110"/>
       <c r="I42" s="85"/>
       <c r="J42" s="53" t="e">
         <f t="shared" si="8"/>
@@ -36064,7 +36064,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="113"/>
+      <c r="H43" s="110"/>
       <c r="I43" s="85"/>
       <c r="J43" s="53" t="e">
         <f t="shared" si="8"/>
@@ -36092,7 +36092,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H44" s="113"/>
+      <c r="H44" s="110"/>
       <c r="I44" s="85"/>
       <c r="J44" s="53" t="e">
         <f t="shared" si="8"/>
@@ -36120,7 +36120,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H45" s="113"/>
+      <c r="H45" s="110"/>
       <c r="I45" s="85"/>
       <c r="J45" s="53" t="e">
         <f t="shared" si="8"/>
@@ -36128,10 +36128,10 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="106" t="s">
+      <c r="A46" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="109"/>
+      <c r="B46" s="115"/>
       <c r="C46" s="46">
         <v>7</v>
       </c>
@@ -36148,7 +36148,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H46" s="113"/>
+      <c r="H46" s="110"/>
       <c r="I46" s="85"/>
       <c r="J46" s="53" t="e">
         <f t="shared" si="8"/>
@@ -36156,8 +36156,8 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="107"/>
-      <c r="B47" s="110"/>
+      <c r="A47" s="113"/>
+      <c r="B47" s="116"/>
       <c r="C47" s="46">
         <v>8</v>
       </c>
@@ -36174,7 +36174,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H47" s="113"/>
+      <c r="H47" s="110"/>
       <c r="I47" s="47"/>
       <c r="J47" s="53" t="e">
         <f t="shared" si="8"/>
@@ -36182,8 +36182,8 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="107"/>
-      <c r="B48" s="110"/>
+      <c r="A48" s="113"/>
+      <c r="B48" s="116"/>
       <c r="C48" s="46">
         <v>9</v>
       </c>
@@ -36200,7 +36200,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H48" s="113"/>
+      <c r="H48" s="110"/>
       <c r="I48" s="47"/>
       <c r="J48" s="53" t="e">
         <f t="shared" si="8"/>
@@ -36208,8 +36208,8 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="107"/>
-      <c r="B49" s="110"/>
+      <c r="A49" s="113"/>
+      <c r="B49" s="116"/>
       <c r="C49" s="46">
         <v>10</v>
       </c>
@@ -36226,7 +36226,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H49" s="114"/>
+      <c r="H49" s="111"/>
       <c r="I49" s="47"/>
       <c r="J49" s="53" t="e">
         <f t="shared" si="8"/>
@@ -36234,8 +36234,8 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="108"/>
-      <c r="B50" s="111"/>
+      <c r="A50" s="114"/>
+      <c r="B50" s="117"/>
       <c r="C50" s="70"/>
       <c r="D50" s="70"/>
       <c r="E50" s="71"/>
@@ -36369,7 +36369,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H55" s="112">
+      <c r="H55" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I55" s="85"/>
@@ -36399,7 +36399,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H56" s="113"/>
+      <c r="H56" s="110"/>
       <c r="I56" s="85"/>
       <c r="J56" s="53" t="e">
         <f t="shared" si="11"/>
@@ -36427,7 +36427,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H57" s="113"/>
+      <c r="H57" s="110"/>
       <c r="I57" s="85"/>
       <c r="J57" s="53" t="e">
         <f t="shared" si="11"/>
@@ -36455,7 +36455,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H58" s="113"/>
+      <c r="H58" s="110"/>
       <c r="I58" s="85"/>
       <c r="J58" s="53" t="e">
         <f t="shared" si="11"/>
@@ -36483,7 +36483,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H59" s="113"/>
+      <c r="H59" s="110"/>
       <c r="I59" s="85"/>
       <c r="J59" s="53" t="e">
         <f t="shared" si="11"/>
@@ -36491,10 +36491,10 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="106" t="s">
+      <c r="A60" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B60" s="109"/>
+      <c r="B60" s="115"/>
       <c r="C60" s="46">
         <v>7</v>
       </c>
@@ -36511,7 +36511,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H60" s="113"/>
+      <c r="H60" s="110"/>
       <c r="I60" s="85"/>
       <c r="J60" s="53" t="e">
         <f t="shared" si="11"/>
@@ -36519,8 +36519,8 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="107"/>
-      <c r="B61" s="110"/>
+      <c r="A61" s="113"/>
+      <c r="B61" s="116"/>
       <c r="C61" s="46">
         <v>8</v>
       </c>
@@ -36537,7 +36537,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H61" s="113"/>
+      <c r="H61" s="110"/>
       <c r="I61" s="47"/>
       <c r="J61" s="53" t="e">
         <f t="shared" si="11"/>
@@ -36545,8 +36545,8 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="107"/>
-      <c r="B62" s="110"/>
+      <c r="A62" s="113"/>
+      <c r="B62" s="116"/>
       <c r="C62" s="46">
         <v>9</v>
       </c>
@@ -36563,7 +36563,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H62" s="113"/>
+      <c r="H62" s="110"/>
       <c r="I62" s="47"/>
       <c r="J62" s="53" t="e">
         <f t="shared" si="11"/>
@@ -36571,8 +36571,8 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="107"/>
-      <c r="B63" s="110"/>
+      <c r="A63" s="113"/>
+      <c r="B63" s="116"/>
       <c r="C63" s="46">
         <v>10</v>
       </c>
@@ -36589,7 +36589,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H63" s="114"/>
+      <c r="H63" s="111"/>
       <c r="I63" s="47"/>
       <c r="J63" s="53" t="e">
         <f t="shared" si="11"/>
@@ -36597,8 +36597,8 @@
       </c>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="108"/>
-      <c r="B64" s="111"/>
+      <c r="A64" s="114"/>
+      <c r="B64" s="117"/>
       <c r="C64" s="70"/>
       <c r="D64" s="70"/>
       <c r="E64" s="71"/>
@@ -36732,7 +36732,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H69" s="112">
+      <c r="H69" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I69" s="85"/>
@@ -36762,7 +36762,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H70" s="113"/>
+      <c r="H70" s="110"/>
       <c r="I70" s="85"/>
       <c r="J70" s="53" t="e">
         <f t="shared" si="14"/>
@@ -36790,7 +36790,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H71" s="113"/>
+      <c r="H71" s="110"/>
       <c r="I71" s="85"/>
       <c r="J71" s="53" t="e">
         <f t="shared" si="14"/>
@@ -36818,7 +36818,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H72" s="113"/>
+      <c r="H72" s="110"/>
       <c r="I72" s="85"/>
       <c r="J72" s="53" t="e">
         <f t="shared" si="14"/>
@@ -36846,7 +36846,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H73" s="113"/>
+      <c r="H73" s="110"/>
       <c r="I73" s="85"/>
       <c r="J73" s="53" t="e">
         <f t="shared" si="14"/>
@@ -36854,10 +36854,10 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="106" t="s">
+      <c r="A74" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B74" s="109"/>
+      <c r="B74" s="115"/>
       <c r="C74" s="46">
         <v>7</v>
       </c>
@@ -36874,7 +36874,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H74" s="113"/>
+      <c r="H74" s="110"/>
       <c r="I74" s="85"/>
       <c r="J74" s="53" t="e">
         <f t="shared" si="14"/>
@@ -36882,8 +36882,8 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="107"/>
-      <c r="B75" s="110"/>
+      <c r="A75" s="113"/>
+      <c r="B75" s="116"/>
       <c r="C75" s="46">
         <v>8</v>
       </c>
@@ -36900,7 +36900,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H75" s="113"/>
+      <c r="H75" s="110"/>
       <c r="I75" s="47"/>
       <c r="J75" s="53" t="e">
         <f t="shared" si="14"/>
@@ -36908,8 +36908,8 @@
       </c>
     </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="107"/>
-      <c r="B76" s="110"/>
+      <c r="A76" s="113"/>
+      <c r="B76" s="116"/>
       <c r="C76" s="46">
         <v>9</v>
       </c>
@@ -36926,7 +36926,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H76" s="113"/>
+      <c r="H76" s="110"/>
       <c r="I76" s="47"/>
       <c r="J76" s="53" t="e">
         <f t="shared" si="14"/>
@@ -36934,8 +36934,8 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="107"/>
-      <c r="B77" s="110"/>
+      <c r="A77" s="113"/>
+      <c r="B77" s="116"/>
       <c r="C77" s="46">
         <v>10</v>
       </c>
@@ -36952,7 +36952,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H77" s="114"/>
+      <c r="H77" s="111"/>
       <c r="I77" s="47"/>
       <c r="J77" s="53" t="e">
         <f t="shared" si="14"/>
@@ -36960,8 +36960,8 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="108"/>
-      <c r="B78" s="111"/>
+      <c r="A78" s="114"/>
+      <c r="B78" s="117"/>
       <c r="C78" s="70"/>
       <c r="D78" s="70"/>
       <c r="E78" s="71"/>
@@ -37095,7 +37095,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H83" s="112">
+      <c r="H83" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I83" s="85"/>
@@ -37125,7 +37125,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H84" s="113"/>
+      <c r="H84" s="110"/>
       <c r="I84" s="85"/>
       <c r="J84" s="53" t="e">
         <f t="shared" si="17"/>
@@ -37153,7 +37153,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H85" s="113"/>
+      <c r="H85" s="110"/>
       <c r="I85" s="85"/>
       <c r="J85" s="53" t="e">
         <f t="shared" si="17"/>
@@ -37181,7 +37181,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H86" s="113"/>
+      <c r="H86" s="110"/>
       <c r="I86" s="85"/>
       <c r="J86" s="53" t="e">
         <f t="shared" si="17"/>
@@ -37209,7 +37209,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H87" s="113"/>
+      <c r="H87" s="110"/>
       <c r="I87" s="85"/>
       <c r="J87" s="53" t="e">
         <f t="shared" si="17"/>
@@ -37217,10 +37217,10 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="106" t="s">
+      <c r="A88" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B88" s="109"/>
+      <c r="B88" s="115"/>
       <c r="C88" s="46">
         <v>7</v>
       </c>
@@ -37237,7 +37237,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H88" s="113"/>
+      <c r="H88" s="110"/>
       <c r="I88" s="85"/>
       <c r="J88" s="53" t="e">
         <f t="shared" si="17"/>
@@ -37245,8 +37245,8 @@
       </c>
     </row>
     <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="107"/>
-      <c r="B89" s="110"/>
+      <c r="A89" s="113"/>
+      <c r="B89" s="116"/>
       <c r="C89" s="46">
         <v>8</v>
       </c>
@@ -37263,7 +37263,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H89" s="113"/>
+      <c r="H89" s="110"/>
       <c r="I89" s="47"/>
       <c r="J89" s="53" t="e">
         <f t="shared" si="17"/>
@@ -37271,8 +37271,8 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="107"/>
-      <c r="B90" s="110"/>
+      <c r="A90" s="113"/>
+      <c r="B90" s="116"/>
       <c r="C90" s="46">
         <v>9</v>
       </c>
@@ -37289,7 +37289,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H90" s="113"/>
+      <c r="H90" s="110"/>
       <c r="I90" s="47"/>
       <c r="J90" s="53" t="e">
         <f t="shared" si="17"/>
@@ -37297,8 +37297,8 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="107"/>
-      <c r="B91" s="110"/>
+      <c r="A91" s="113"/>
+      <c r="B91" s="116"/>
       <c r="C91" s="46">
         <v>10</v>
       </c>
@@ -37315,7 +37315,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H91" s="114"/>
+      <c r="H91" s="111"/>
       <c r="I91" s="47"/>
       <c r="J91" s="53" t="e">
         <f t="shared" si="17"/>
@@ -37323,8 +37323,8 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="108"/>
-      <c r="B92" s="111"/>
+      <c r="A92" s="114"/>
+      <c r="B92" s="117"/>
       <c r="C92" s="70"/>
       <c r="D92" s="70"/>
       <c r="E92" s="71"/>
@@ -38254,12 +38254,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H13:H21"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="H27:H35"/>
-    <mergeCell ref="B32:B36"/>
     <mergeCell ref="A88:A92"/>
     <mergeCell ref="B88:B92"/>
     <mergeCell ref="H41:H49"/>
@@ -38267,12 +38261,18 @@
     <mergeCell ref="H69:H77"/>
     <mergeCell ref="H83:H91"/>
     <mergeCell ref="B46:B50"/>
-    <mergeCell ref="A32:A36"/>
     <mergeCell ref="A46:A50"/>
     <mergeCell ref="A60:A64"/>
     <mergeCell ref="B60:B64"/>
     <mergeCell ref="A74:A78"/>
     <mergeCell ref="B74:B78"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H13:H21"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="H27:H35"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="A32:A36"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B17 B31 B45 B59 B73 B87">
@@ -38308,14 +38308,14 @@
       <c r="A1" s="102" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="117"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="108"/>
       <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
@@ -38669,7 +38669,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="112">
+      <c r="H13" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I13" s="85"/>
@@ -38700,7 +38700,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="113"/>
+      <c r="H14" s="110"/>
       <c r="I14" s="85"/>
       <c r="J14" s="53" t="e">
         <f t="shared" si="2"/>
@@ -38729,7 +38729,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="113"/>
+      <c r="H15" s="110"/>
       <c r="I15" s="85"/>
       <c r="J15" s="53" t="e">
         <f t="shared" si="2"/>
@@ -38757,7 +38757,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="113"/>
+      <c r="H16" s="110"/>
       <c r="I16" s="85"/>
       <c r="J16" s="53" t="e">
         <f t="shared" si="2"/>
@@ -38786,7 +38786,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="113"/>
+      <c r="H17" s="110"/>
       <c r="I17" s="85"/>
       <c r="J17" s="53" t="e">
         <f t="shared" si="2"/>
@@ -38794,10 +38794,10 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="106" t="s">
+      <c r="A18" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="109"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="46">
         <v>7</v>
       </c>
@@ -38814,7 +38814,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="113"/>
+      <c r="H18" s="110"/>
       <c r="I18" s="85"/>
       <c r="J18" s="53" t="e">
         <f t="shared" si="2"/>
@@ -38823,8 +38823,8 @@
       <c r="K18" s="58"/>
     </row>
     <row r="19" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="107"/>
-      <c r="B19" s="110"/>
+      <c r="A19" s="113"/>
+      <c r="B19" s="116"/>
       <c r="C19" s="46">
         <v>8</v>
       </c>
@@ -38841,7 +38841,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="113"/>
+      <c r="H19" s="110"/>
       <c r="I19" s="47"/>
       <c r="J19" s="53" t="e">
         <f t="shared" si="2"/>
@@ -38849,8 +38849,8 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="107"/>
-      <c r="B20" s="110"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="116"/>
       <c r="C20" s="46">
         <v>9</v>
       </c>
@@ -38867,7 +38867,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="113"/>
+      <c r="H20" s="110"/>
       <c r="I20" s="47"/>
       <c r="J20" s="53" t="e">
         <f t="shared" si="2"/>
@@ -38875,8 +38875,8 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="107"/>
-      <c r="B21" s="110"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="116"/>
       <c r="C21" s="46">
         <v>10</v>
       </c>
@@ -38893,7 +38893,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="114"/>
+      <c r="H21" s="111"/>
       <c r="I21" s="47"/>
       <c r="J21" s="53" t="e">
         <f t="shared" si="2"/>
@@ -38901,8 +38901,8 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="108"/>
-      <c r="B22" s="111"/>
+      <c r="A22" s="114"/>
+      <c r="B22" s="117"/>
       <c r="C22" s="70"/>
       <c r="D22" s="70"/>
       <c r="E22" s="71"/>
@@ -39047,7 +39047,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="112">
+      <c r="H27" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I27" s="85"/>
@@ -39077,7 +39077,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="113"/>
+      <c r="H28" s="110"/>
       <c r="I28" s="85"/>
       <c r="J28" s="53" t="e">
         <f t="shared" si="5"/>
@@ -39105,7 +39105,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="113"/>
+      <c r="H29" s="110"/>
       <c r="I29" s="85"/>
       <c r="J29" s="53" t="e">
         <f t="shared" si="5"/>
@@ -39133,7 +39133,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="113"/>
+      <c r="H30" s="110"/>
       <c r="I30" s="85"/>
       <c r="J30" s="53" t="e">
         <f t="shared" si="5"/>
@@ -39161,7 +39161,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="113"/>
+      <c r="H31" s="110"/>
       <c r="I31" s="85"/>
       <c r="J31" s="53" t="e">
         <f t="shared" si="5"/>
@@ -39169,10 +39169,10 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="106" t="s">
+      <c r="A32" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="109"/>
+      <c r="B32" s="115"/>
       <c r="C32" s="46">
         <v>7</v>
       </c>
@@ -39189,7 +39189,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="113"/>
+      <c r="H32" s="110"/>
       <c r="I32" s="85"/>
       <c r="J32" s="53" t="e">
         <f t="shared" si="5"/>
@@ -39197,8 +39197,8 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="107"/>
-      <c r="B33" s="110"/>
+      <c r="A33" s="113"/>
+      <c r="B33" s="116"/>
       <c r="C33" s="46">
         <v>8</v>
       </c>
@@ -39215,7 +39215,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="113"/>
+      <c r="H33" s="110"/>
       <c r="I33" s="47"/>
       <c r="J33" s="53" t="e">
         <f t="shared" si="5"/>
@@ -39223,8 +39223,8 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="107"/>
-      <c r="B34" s="110"/>
+      <c r="A34" s="113"/>
+      <c r="B34" s="116"/>
       <c r="C34" s="46">
         <v>9</v>
       </c>
@@ -39241,7 +39241,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="113"/>
+      <c r="H34" s="110"/>
       <c r="I34" s="47"/>
       <c r="J34" s="53" t="e">
         <f t="shared" si="5"/>
@@ -39249,8 +39249,8 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="107"/>
-      <c r="B35" s="110"/>
+      <c r="A35" s="113"/>
+      <c r="B35" s="116"/>
       <c r="C35" s="46">
         <v>10</v>
       </c>
@@ -39267,7 +39267,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="114"/>
+      <c r="H35" s="111"/>
       <c r="I35" s="47"/>
       <c r="J35" s="53" t="e">
         <f t="shared" si="5"/>
@@ -39275,8 +39275,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="108"/>
-      <c r="B36" s="111"/>
+      <c r="A36" s="114"/>
+      <c r="B36" s="117"/>
       <c r="C36" s="70"/>
       <c r="D36" s="70"/>
       <c r="E36" s="71"/>
@@ -39410,7 +39410,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="112">
+      <c r="H41" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I41" s="85"/>
@@ -39440,7 +39440,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H42" s="113"/>
+      <c r="H42" s="110"/>
       <c r="I42" s="85"/>
       <c r="J42" s="53" t="e">
         <f t="shared" si="8"/>
@@ -39468,7 +39468,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="113"/>
+      <c r="H43" s="110"/>
       <c r="I43" s="85"/>
       <c r="J43" s="53" t="e">
         <f t="shared" si="8"/>
@@ -39496,7 +39496,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H44" s="113"/>
+      <c r="H44" s="110"/>
       <c r="I44" s="85"/>
       <c r="J44" s="53" t="e">
         <f t="shared" si="8"/>
@@ -39524,7 +39524,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H45" s="113"/>
+      <c r="H45" s="110"/>
       <c r="I45" s="85"/>
       <c r="J45" s="53" t="e">
         <f t="shared" si="8"/>
@@ -39532,10 +39532,10 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="106" t="s">
+      <c r="A46" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="109"/>
+      <c r="B46" s="115"/>
       <c r="C46" s="46">
         <v>7</v>
       </c>
@@ -39552,7 +39552,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H46" s="113"/>
+      <c r="H46" s="110"/>
       <c r="I46" s="85"/>
       <c r="J46" s="53" t="e">
         <f t="shared" si="8"/>
@@ -39560,8 +39560,8 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="107"/>
-      <c r="B47" s="110"/>
+      <c r="A47" s="113"/>
+      <c r="B47" s="116"/>
       <c r="C47" s="46">
         <v>8</v>
       </c>
@@ -39578,7 +39578,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H47" s="113"/>
+      <c r="H47" s="110"/>
       <c r="I47" s="47"/>
       <c r="J47" s="53" t="e">
         <f t="shared" si="8"/>
@@ -39586,8 +39586,8 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="107"/>
-      <c r="B48" s="110"/>
+      <c r="A48" s="113"/>
+      <c r="B48" s="116"/>
       <c r="C48" s="46">
         <v>9</v>
       </c>
@@ -39604,7 +39604,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H48" s="113"/>
+      <c r="H48" s="110"/>
       <c r="I48" s="47"/>
       <c r="J48" s="53" t="e">
         <f t="shared" si="8"/>
@@ -39612,8 +39612,8 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="107"/>
-      <c r="B49" s="110"/>
+      <c r="A49" s="113"/>
+      <c r="B49" s="116"/>
       <c r="C49" s="46">
         <v>10</v>
       </c>
@@ -39630,7 +39630,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H49" s="114"/>
+      <c r="H49" s="111"/>
       <c r="I49" s="47"/>
       <c r="J49" s="53" t="e">
         <f t="shared" si="8"/>
@@ -39638,8 +39638,8 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="108"/>
-      <c r="B50" s="111"/>
+      <c r="A50" s="114"/>
+      <c r="B50" s="117"/>
       <c r="C50" s="70"/>
       <c r="D50" s="70"/>
       <c r="E50" s="71"/>
@@ -39773,7 +39773,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H55" s="112">
+      <c r="H55" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I55" s="85"/>
@@ -39803,7 +39803,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H56" s="113"/>
+      <c r="H56" s="110"/>
       <c r="I56" s="85"/>
       <c r="J56" s="53" t="e">
         <f t="shared" si="11"/>
@@ -39831,7 +39831,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H57" s="113"/>
+      <c r="H57" s="110"/>
       <c r="I57" s="85"/>
       <c r="J57" s="53" t="e">
         <f t="shared" si="11"/>
@@ -39859,7 +39859,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H58" s="113"/>
+      <c r="H58" s="110"/>
       <c r="I58" s="85"/>
       <c r="J58" s="53" t="e">
         <f t="shared" si="11"/>
@@ -39887,7 +39887,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H59" s="113"/>
+      <c r="H59" s="110"/>
       <c r="I59" s="85"/>
       <c r="J59" s="53" t="e">
         <f t="shared" si="11"/>
@@ -39895,10 +39895,10 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="106" t="s">
+      <c r="A60" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B60" s="109"/>
+      <c r="B60" s="115"/>
       <c r="C60" s="46">
         <v>7</v>
       </c>
@@ -39915,7 +39915,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H60" s="113"/>
+      <c r="H60" s="110"/>
       <c r="I60" s="85"/>
       <c r="J60" s="53" t="e">
         <f t="shared" si="11"/>
@@ -39923,8 +39923,8 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="107"/>
-      <c r="B61" s="110"/>
+      <c r="A61" s="113"/>
+      <c r="B61" s="116"/>
       <c r="C61" s="46">
         <v>8</v>
       </c>
@@ -39941,7 +39941,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H61" s="113"/>
+      <c r="H61" s="110"/>
       <c r="I61" s="47"/>
       <c r="J61" s="53" t="e">
         <f t="shared" si="11"/>
@@ -39949,8 +39949,8 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="107"/>
-      <c r="B62" s="110"/>
+      <c r="A62" s="113"/>
+      <c r="B62" s="116"/>
       <c r="C62" s="46">
         <v>9</v>
       </c>
@@ -39967,7 +39967,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H62" s="113"/>
+      <c r="H62" s="110"/>
       <c r="I62" s="47"/>
       <c r="J62" s="53" t="e">
         <f t="shared" si="11"/>
@@ -39975,8 +39975,8 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="107"/>
-      <c r="B63" s="110"/>
+      <c r="A63" s="113"/>
+      <c r="B63" s="116"/>
       <c r="C63" s="46">
         <v>10</v>
       </c>
@@ -39993,7 +39993,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H63" s="114"/>
+      <c r="H63" s="111"/>
       <c r="I63" s="47"/>
       <c r="J63" s="53" t="e">
         <f t="shared" si="11"/>
@@ -40001,8 +40001,8 @@
       </c>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="108"/>
-      <c r="B64" s="111"/>
+      <c r="A64" s="114"/>
+      <c r="B64" s="117"/>
       <c r="C64" s="70"/>
       <c r="D64" s="70"/>
       <c r="E64" s="71"/>
@@ -40136,7 +40136,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H69" s="112">
+      <c r="H69" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I69" s="85"/>
@@ -40166,7 +40166,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H70" s="113"/>
+      <c r="H70" s="110"/>
       <c r="I70" s="85"/>
       <c r="J70" s="53" t="e">
         <f t="shared" si="14"/>
@@ -40194,7 +40194,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H71" s="113"/>
+      <c r="H71" s="110"/>
       <c r="I71" s="85"/>
       <c r="J71" s="53" t="e">
         <f t="shared" si="14"/>
@@ -40222,7 +40222,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H72" s="113"/>
+      <c r="H72" s="110"/>
       <c r="I72" s="85"/>
       <c r="J72" s="53" t="e">
         <f t="shared" si="14"/>
@@ -40250,7 +40250,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H73" s="113"/>
+      <c r="H73" s="110"/>
       <c r="I73" s="85"/>
       <c r="J73" s="53" t="e">
         <f t="shared" si="14"/>
@@ -40258,10 +40258,10 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="106" t="s">
+      <c r="A74" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B74" s="109"/>
+      <c r="B74" s="115"/>
       <c r="C74" s="46">
         <v>7</v>
       </c>
@@ -40278,7 +40278,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H74" s="113"/>
+      <c r="H74" s="110"/>
       <c r="I74" s="85"/>
       <c r="J74" s="53" t="e">
         <f t="shared" si="14"/>
@@ -40286,8 +40286,8 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="107"/>
-      <c r="B75" s="110"/>
+      <c r="A75" s="113"/>
+      <c r="B75" s="116"/>
       <c r="C75" s="46">
         <v>8</v>
       </c>
@@ -40304,7 +40304,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H75" s="113"/>
+      <c r="H75" s="110"/>
       <c r="I75" s="47"/>
       <c r="J75" s="53" t="e">
         <f t="shared" si="14"/>
@@ -40312,8 +40312,8 @@
       </c>
     </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="107"/>
-      <c r="B76" s="110"/>
+      <c r="A76" s="113"/>
+      <c r="B76" s="116"/>
       <c r="C76" s="46">
         <v>9</v>
       </c>
@@ -40330,7 +40330,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H76" s="113"/>
+      <c r="H76" s="110"/>
       <c r="I76" s="47"/>
       <c r="J76" s="53" t="e">
         <f t="shared" si="14"/>
@@ -40338,8 +40338,8 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="107"/>
-      <c r="B77" s="110"/>
+      <c r="A77" s="113"/>
+      <c r="B77" s="116"/>
       <c r="C77" s="46">
         <v>10</v>
       </c>
@@ -40356,7 +40356,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H77" s="114"/>
+      <c r="H77" s="111"/>
       <c r="I77" s="47"/>
       <c r="J77" s="53" t="e">
         <f t="shared" si="14"/>
@@ -40364,8 +40364,8 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="108"/>
-      <c r="B78" s="111"/>
+      <c r="A78" s="114"/>
+      <c r="B78" s="117"/>
       <c r="C78" s="70"/>
       <c r="D78" s="70"/>
       <c r="E78" s="71"/>
@@ -40499,7 +40499,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H83" s="112">
+      <c r="H83" s="109">
         <v>6.9444444440000001E-3</v>
       </c>
       <c r="I83" s="85"/>
@@ -40529,7 +40529,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H84" s="113"/>
+      <c r="H84" s="110"/>
       <c r="I84" s="85"/>
       <c r="J84" s="53" t="e">
         <f t="shared" si="17"/>
@@ -40557,7 +40557,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H85" s="113"/>
+      <c r="H85" s="110"/>
       <c r="I85" s="85"/>
       <c r="J85" s="53" t="e">
         <f t="shared" si="17"/>
@@ -40585,7 +40585,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H86" s="113"/>
+      <c r="H86" s="110"/>
       <c r="I86" s="85"/>
       <c r="J86" s="53" t="e">
         <f t="shared" si="17"/>
@@ -40613,7 +40613,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H87" s="113"/>
+      <c r="H87" s="110"/>
       <c r="I87" s="85"/>
       <c r="J87" s="53" t="e">
         <f t="shared" si="17"/>
@@ -40621,10 +40621,10 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="106" t="s">
+      <c r="A88" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B88" s="109"/>
+      <c r="B88" s="115"/>
       <c r="C88" s="46">
         <v>7</v>
       </c>
@@ -40641,7 +40641,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H88" s="113"/>
+      <c r="H88" s="110"/>
       <c r="I88" s="85"/>
       <c r="J88" s="53" t="e">
         <f t="shared" si="17"/>
@@ -40649,8 +40649,8 @@
       </c>
     </row>
     <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="107"/>
-      <c r="B89" s="110"/>
+      <c r="A89" s="113"/>
+      <c r="B89" s="116"/>
       <c r="C89" s="46">
         <v>8</v>
       </c>
@@ -40667,7 +40667,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H89" s="113"/>
+      <c r="H89" s="110"/>
       <c r="I89" s="47"/>
       <c r="J89" s="53" t="e">
         <f t="shared" si="17"/>
@@ -40675,8 +40675,8 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="107"/>
-      <c r="B90" s="110"/>
+      <c r="A90" s="113"/>
+      <c r="B90" s="116"/>
       <c r="C90" s="46">
         <v>9</v>
       </c>
@@ -40693,7 +40693,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H90" s="113"/>
+      <c r="H90" s="110"/>
       <c r="I90" s="47"/>
       <c r="J90" s="53" t="e">
         <f t="shared" si="17"/>
@@ -40701,8 +40701,8 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="107"/>
-      <c r="B91" s="110"/>
+      <c r="A91" s="113"/>
+      <c r="B91" s="116"/>
       <c r="C91" s="46">
         <v>10</v>
       </c>
@@ -40719,7 +40719,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H91" s="114"/>
+      <c r="H91" s="111"/>
       <c r="I91" s="47"/>
       <c r="J91" s="53" t="e">
         <f t="shared" si="17"/>
@@ -40727,8 +40727,8 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="108"/>
-      <c r="B92" s="111"/>
+      <c r="A92" s="114"/>
+      <c r="B92" s="117"/>
       <c r="C92" s="70"/>
       <c r="D92" s="70"/>
       <c r="E92" s="71"/>
@@ -41658,12 +41658,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H13:H21"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="H27:H35"/>
-    <mergeCell ref="B32:B36"/>
     <mergeCell ref="A88:A92"/>
     <mergeCell ref="B88:B92"/>
     <mergeCell ref="H41:H49"/>
@@ -41671,12 +41665,18 @@
     <mergeCell ref="H69:H77"/>
     <mergeCell ref="H83:H91"/>
     <mergeCell ref="B46:B50"/>
-    <mergeCell ref="A32:A36"/>
     <mergeCell ref="A46:A50"/>
     <mergeCell ref="A60:A64"/>
     <mergeCell ref="B60:B64"/>
     <mergeCell ref="A74:A78"/>
     <mergeCell ref="B74:B78"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H13:H21"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="H27:H35"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="A32:A36"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B17 B31 B45 B59 B73 B87">
